--- a/provisional/inserts.xlsx
+++ b/provisional/inserts.xlsx
@@ -14,7 +14,6 @@
     <sheet name="Persona" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -16202,7 +16201,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16264,7 +16263,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>9222222</v>
+        <v>9333333</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -16311,7 +16310,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>9222222</v>
+        <v>9444444</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -16358,7 +16357,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>9222222</v>
+        <v>9555555</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -16405,7 +16404,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>9222222</v>
+        <v>96666666</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -16452,7 +16451,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>9222222</v>
+        <v>97777777</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -16499,7 +16498,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>9222222</v>
+        <v>98888888</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -16546,7 +16545,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>9222222</v>
+        <v>99999999</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -16593,7 +16592,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>9222222</v>
+        <v>91010101</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -16640,7 +16639,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>9222222</v>
+        <v>9111111</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -16687,7 +16686,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>9222222</v>
+        <v>911212</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -16734,7 +16733,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1">
-        <v>9222222</v>
+        <v>921331</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -16781,7 +16780,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="1">
-        <v>9222222</v>
+        <v>9141414</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -16828,7 +16827,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="1">
-        <v>9222222</v>
+        <v>9151515</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -16875,7 +16874,7 @@
         <v>51</v>
       </c>
       <c r="B15" s="1">
-        <v>9222222</v>
+        <v>91616161</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -16922,10 +16921,10 @@
         <v>61</v>
       </c>
       <c r="B16" s="1">
-        <v>9222222</v>
+        <v>91717171</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>239</v>
@@ -16957,7 +16956,7 @@
       <c r="M16" s="1">
         <v>994996660</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="1" t="s">
         <v>238</v>
       </c>
       <c r="O16" s="1">

--- a/provisional/inserts.xlsx
+++ b/provisional/inserts.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub_Seguridad\BaseSistemasIntegrados\provisional\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21720" windowHeight="10035" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21720" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="inserts iniciales" sheetId="3" r:id="rId1"/>
@@ -13,12 +18,12 @@
     <sheet name="Usuarios" sheetId="6" r:id="rId4"/>
     <sheet name="Persona" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="245">
   <si>
     <t>NULL</t>
   </si>
@@ -744,6 +749,15 @@
   </si>
   <si>
     <t>Seguridad.frmAsignacionDeUsuariosAPerfiles</t>
+  </si>
+  <si>
+    <t>Asignar Pantalla a Perfil</t>
+  </si>
+  <si>
+    <t>Seguridad.frmAsignarPantallaAPerfil</t>
+  </si>
+  <si>
+    <t>Asignar Usuarios a Empresa</t>
   </si>
 </sst>
 </file>
@@ -803,6 +817,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -850,7 +867,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -885,7 +902,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8448,10 +8465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8491,6 +8508,7 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <f>A1</f>
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -8514,6 +8532,7 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <f>A1</f>
         <v>1</v>
       </c>
       <c r="D3" t="s">
@@ -8537,6 +8556,7 @@
         <v>1</v>
       </c>
       <c r="C4">
+        <f>A1</f>
         <v>1</v>
       </c>
       <c r="D4" t="s">
@@ -8560,6 +8580,7 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <f>A1</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
@@ -8606,6 +8627,7 @@
         <v>1</v>
       </c>
       <c r="C7">
+        <f>A6</f>
         <v>6</v>
       </c>
       <c r="D7" t="s">
@@ -8629,6 +8651,7 @@
         <v>1</v>
       </c>
       <c r="C8">
+        <f>A6</f>
         <v>6</v>
       </c>
       <c r="D8" t="s">
@@ -8652,6 +8675,7 @@
         <v>1</v>
       </c>
       <c r="C9">
+        <f>A6</f>
         <v>6</v>
       </c>
       <c r="D9" t="s">
@@ -8675,13 +8699,14 @@
         <v>1</v>
       </c>
       <c r="C10">
+        <f>A6</f>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
@@ -8697,17 +8722,18 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>0</v>
+      <c r="C11">
+        <f>A6</f>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="E11" t="s">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="F11" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -8721,13 +8747,11 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
+        <f>A6</f>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
@@ -8744,13 +8768,14 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <f>A6</f>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
@@ -8766,17 +8791,17 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14">
-        <v>11</v>
+      <c r="C14" t="s">
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -8790,13 +8815,14 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <f>A14</f>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -8810,19 +8836,20 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f>A14</f>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -8833,16 +8860,17 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <f>A14</f>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
@@ -8856,19 +8884,20 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f>A14</f>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -8881,17 +8910,17 @@
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19">
-        <v>18</v>
+      <c r="C19" t="s">
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -8905,13 +8934,14 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <f>A19</f>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
@@ -8927,17 +8957,17 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21">
-        <v>18</v>
+      <c r="C21" t="s">
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -8951,10 +8981,10 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
         <v>0</v>
@@ -8974,10 +9004,10 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
         <v>0</v>
@@ -8997,10 +9027,10 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
         <v>0</v>
@@ -9019,17 +9049,17 @@
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
-        <v>0</v>
+      <c r="C25">
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -9043,10 +9073,10 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
         <v>0</v>
@@ -9066,10 +9096,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
         <v>0</v>
@@ -9088,17 +9118,17 @@
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28">
-        <v>25</v>
+      <c r="C28" t="s">
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -9109,19 +9139,19 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -9132,13 +9162,13 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
         <v>0</v>
@@ -9155,13 +9185,13 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
         <v>0</v>
@@ -9180,17 +9210,17 @@
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32">
-        <v>29</v>
+      <c r="C32" t="s">
+        <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -9204,10 +9234,10 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
         <v>0</v>
@@ -9226,17 +9256,17 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
-        <v>0</v>
+      <c r="C34">
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -9250,10 +9280,10 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
         <v>0</v>
@@ -9273,10 +9303,10 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E36" t="s">
         <v>0</v>
@@ -9295,17 +9325,17 @@
       <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37">
-        <v>34</v>
+      <c r="C37" t="s">
+        <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -9319,10 +9349,11 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>34</v>
+        <f>A37</f>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
         <v>0</v>
@@ -9341,17 +9372,18 @@
       <c r="B39">
         <v>3</v>
       </c>
-      <c r="C39" t="s">
-        <v>0</v>
+      <c r="C39">
+        <f>A37</f>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -9365,16 +9397,17 @@
         <v>3</v>
       </c>
       <c r="C40">
+        <f>A37</f>
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
         <v>39</v>
       </c>
-      <c r="D40" t="s">
-        <v>63</v>
-      </c>
       <c r="E40" t="s">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -9385,19 +9418,20 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <f>A37</f>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -9408,19 +9442,19 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -9431,19 +9465,20 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>41</v>
+        <f>A42</f>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -9456,17 +9491,17 @@
       <c r="B44">
         <v>4</v>
       </c>
-      <c r="C44">
-        <v>41</v>
+      <c r="C44" t="s">
+        <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -9480,16 +9515,17 @@
         <v>4</v>
       </c>
       <c r="C45">
+        <f>A44</f>
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
         <v>41</v>
       </c>
-      <c r="D45" t="s">
-        <v>44</v>
-      </c>
       <c r="E45" t="s">
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -9503,10 +9539,11 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <v>41</v>
+        <f>A44</f>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
         <v>0</v>
@@ -9526,10 +9563,11 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>41</v>
+        <f>A44</f>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E47" t="s">
         <v>0</v>
@@ -9548,17 +9586,18 @@
       <c r="B48">
         <v>4</v>
       </c>
-      <c r="C48" t="s">
-        <v>0</v>
+      <c r="C48">
+        <f>A44</f>
+        <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E48" t="s">
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -9572,16 +9611,17 @@
         <v>4</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <f>A44</f>
+        <v>44</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -9595,10 +9635,11 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>48</v>
+        <f>A44</f>
+        <v>44</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E50" t="s">
         <v>0</v>
@@ -9617,17 +9658,17 @@
       <c r="B51">
         <v>4</v>
       </c>
-      <c r="C51">
-        <v>48</v>
+      <c r="C51" t="s">
+        <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -9640,17 +9681,18 @@
       <c r="B52">
         <v>4</v>
       </c>
-      <c r="C52" t="s">
-        <v>0</v>
+      <c r="C52">
+        <f>A51</f>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -9664,16 +9706,17 @@
         <v>4</v>
       </c>
       <c r="C53">
-        <v>52</v>
+        <f>A51</f>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E53" t="s">
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -9687,10 +9730,11 @@
         <v>4</v>
       </c>
       <c r="C54">
-        <v>52</v>
+        <f>A51</f>
+        <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
         <v>0</v>
@@ -9709,17 +9753,17 @@
       <c r="B55">
         <v>4</v>
       </c>
-      <c r="C55">
-        <v>52</v>
+      <c r="C55" t="s">
+        <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E55" t="s">
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -9733,16 +9777,17 @@
         <v>4</v>
       </c>
       <c r="C56">
-        <v>52</v>
+        <f>A55</f>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E56" t="s">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -9753,19 +9798,20 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <f>A55</f>
+        <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E57" t="s">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -9776,19 +9822,20 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>57</v>
+        <f>A55</f>
+        <v>55</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="E58" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -9799,16 +9846,17 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>57</v>
+        <f>A55</f>
+        <v>55</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="E59" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="F59" t="s">
         <v>26</v>
@@ -9824,17 +9872,17 @@
       <c r="B60">
         <v>5</v>
       </c>
-      <c r="C60">
-        <v>57</v>
+      <c r="C60" t="s">
+        <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -9848,16 +9896,16 @@
         <v>5</v>
       </c>
       <c r="C61">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -9870,17 +9918,17 @@
       <c r="B62">
         <v>5</v>
       </c>
-      <c r="C62" t="s">
-        <v>0</v>
+      <c r="C62">
+        <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="E62" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F62" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -9894,16 +9942,16 @@
         <v>5</v>
       </c>
       <c r="C63">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -9917,13 +9965,13 @@
         <v>5</v>
       </c>
       <c r="C64">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E64" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F64" t="s">
         <v>26</v>
@@ -9939,17 +9987,17 @@
       <c r="B65">
         <v>5</v>
       </c>
-      <c r="C65">
-        <v>62</v>
+      <c r="C65" t="s">
+        <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -9962,17 +10010,17 @@
       <c r="B66">
         <v>5</v>
       </c>
-      <c r="C66" t="s">
-        <v>0</v>
+      <c r="C66">
+        <v>62</v>
       </c>
       <c r="D66" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="E66" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="F66" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -9986,16 +10034,16 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D67" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E67" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -10009,13 +10057,13 @@
         <v>5</v>
       </c>
       <c r="C68">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F68" t="s">
         <v>26</v>
@@ -10031,17 +10079,17 @@
       <c r="B69">
         <v>5</v>
       </c>
-      <c r="C69">
-        <v>66</v>
+      <c r="C69" t="s">
+        <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="E69" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -10052,19 +10100,19 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>6</v>
-      </c>
-      <c r="C70" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="E70" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="F70" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -10075,16 +10123,16 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="E71" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F71" t="s">
         <v>26</v>
@@ -10098,16 +10146,16 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="E72" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F72" t="s">
         <v>26</v>
@@ -10123,17 +10171,17 @@
       <c r="B73">
         <v>6</v>
       </c>
-      <c r="C73">
-        <v>70</v>
+      <c r="C73" t="s">
+        <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -10147,13 +10195,13 @@
         <v>6</v>
       </c>
       <c r="C74">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E74" t="s">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="F74" t="s">
         <v>26</v>
@@ -10170,13 +10218,13 @@
         <v>6</v>
       </c>
       <c r="C75">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="E75" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F75" t="s">
         <v>26</v>
@@ -10193,13 +10241,13 @@
         <v>6</v>
       </c>
       <c r="C76">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D76" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E76" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F76" t="s">
         <v>26</v>
@@ -10215,17 +10263,17 @@
       <c r="B77">
         <v>6</v>
       </c>
-      <c r="C77" t="s">
-        <v>0</v>
+      <c r="C77">
+        <v>73</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="E77" t="s">
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -10239,16 +10287,16 @@
         <v>6</v>
       </c>
       <c r="C78">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D78" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="E78" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -10262,13 +10310,13 @@
         <v>6</v>
       </c>
       <c r="C79">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D79" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E79" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F79" t="s">
         <v>26</v>
@@ -10284,17 +10332,17 @@
       <c r="B80">
         <v>6</v>
       </c>
-      <c r="C80">
-        <v>78</v>
+      <c r="C80" t="s">
+        <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -10308,16 +10356,16 @@
         <v>6</v>
       </c>
       <c r="C81">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="E81" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -10331,13 +10379,13 @@
         <v>6</v>
       </c>
       <c r="C82">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D82" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="E82" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F82" t="s">
         <v>26</v>
@@ -10354,13 +10402,13 @@
         <v>6</v>
       </c>
       <c r="C83">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D83" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E83" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F83" t="s">
         <v>26</v>
@@ -10376,17 +10424,17 @@
       <c r="B84">
         <v>6</v>
       </c>
-      <c r="C84" t="s">
-        <v>0</v>
+      <c r="C84">
+        <v>80</v>
       </c>
       <c r="D84" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="E84" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F84" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -10400,16 +10448,16 @@
         <v>6</v>
       </c>
       <c r="C85">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D85" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="E85" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -10423,13 +10471,13 @@
         <v>6</v>
       </c>
       <c r="C86">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D86" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="E86" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F86" t="s">
         <v>26</v>
@@ -10445,17 +10493,17 @@
       <c r="B87">
         <v>6</v>
       </c>
-      <c r="C87">
-        <v>84</v>
+      <c r="C87" t="s">
+        <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -10466,19 +10514,19 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="E88" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F88" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -10489,19 +10537,19 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="E89" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -10512,16 +10560,16 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D90" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="E90" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F90" t="s">
         <v>26</v>
@@ -10537,17 +10585,17 @@
       <c r="B91">
         <v>7</v>
       </c>
-      <c r="C91">
-        <v>88</v>
+      <c r="C91" t="s">
+        <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -10560,17 +10608,17 @@
       <c r="B92">
         <v>7</v>
       </c>
-      <c r="C92" t="s">
-        <v>0</v>
+      <c r="C92">
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="E92" t="s">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F92" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -10584,16 +10632,16 @@
         <v>7</v>
       </c>
       <c r="C93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E93" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -10607,13 +10655,13 @@
         <v>7</v>
       </c>
       <c r="C94">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E94" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F94" t="s">
         <v>26</v>
@@ -10629,17 +10677,17 @@
       <c r="B95">
         <v>7</v>
       </c>
-      <c r="C95">
-        <v>92</v>
+      <c r="C95" t="s">
+        <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -10652,17 +10700,17 @@
       <c r="B96">
         <v>7</v>
       </c>
-      <c r="C96" t="s">
-        <v>0</v>
+      <c r="C96">
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="E96" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F96" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -10676,13 +10724,13 @@
         <v>7</v>
       </c>
       <c r="C97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E97" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F97" t="s">
         <v>26</v>
@@ -10696,19 +10744,19 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>8</v>
-      </c>
-      <c r="C98" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>95</v>
       </c>
       <c r="D98" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="E98" t="s">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="F98" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -10719,19 +10767,19 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>8</v>
-      </c>
-      <c r="C99">
-        <v>98</v>
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="E99" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -10742,16 +10790,16 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E100" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F100" t="s">
         <v>26</v>
@@ -10767,17 +10815,17 @@
       <c r="B101">
         <v>8</v>
       </c>
-      <c r="C101">
-        <v>98</v>
+      <c r="C101" t="s">
+        <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -10791,13 +10839,13 @@
         <v>8</v>
       </c>
       <c r="C102">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D102" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E102" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F102" t="s">
         <v>42</v>
@@ -10814,13 +10862,13 @@
         <v>8</v>
       </c>
       <c r="C103">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D103" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E103" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F103" t="s">
         <v>26</v>
@@ -10837,13 +10885,13 @@
         <v>8</v>
       </c>
       <c r="C104">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D104" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E104" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F104" t="s">
         <v>26</v>
@@ -10860,13 +10908,13 @@
         <v>8</v>
       </c>
       <c r="C105">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D105" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E105" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F105" t="s">
         <v>42</v>
@@ -10883,13 +10931,13 @@
         <v>8</v>
       </c>
       <c r="C106">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D106" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E106" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F106" t="s">
         <v>26</v>
@@ -10906,13 +10954,13 @@
         <v>8</v>
       </c>
       <c r="C107">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D107" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E107" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F107" t="s">
         <v>26</v>
@@ -10929,13 +10977,13 @@
         <v>8</v>
       </c>
       <c r="C108">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D108" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E108" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F108" t="s">
         <v>42</v>
@@ -10952,13 +11000,13 @@
         <v>8</v>
       </c>
       <c r="C109">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D109" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E109" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F109" t="s">
         <v>26</v>
@@ -10974,17 +11022,17 @@
       <c r="B110">
         <v>8</v>
       </c>
-      <c r="C110" t="s">
-        <v>0</v>
+      <c r="C110">
+        <v>101</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="E110" t="s">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="F110" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -10998,13 +11046,13 @@
         <v>8</v>
       </c>
       <c r="C111">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D111" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E111" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F111" t="s">
         <v>42</v>
@@ -11021,13 +11069,19 @@
         <v>8</v>
       </c>
       <c r="C112">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D112" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E112" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="F112" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -11037,14 +11091,20 @@
       <c r="B113">
         <v>8</v>
       </c>
-      <c r="C113">
-        <v>110</v>
+      <c r="C113" t="s">
+        <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>174</v>
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -11055,16 +11115,16 @@
         <v>8</v>
       </c>
       <c r="C114">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D114" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E114" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F114" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -11078,19 +11138,13 @@
         <v>8</v>
       </c>
       <c r="C115">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D115" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E115" t="s">
-        <v>178</v>
-      </c>
-      <c r="F115" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -11101,19 +11155,13 @@
         <v>8</v>
       </c>
       <c r="C116">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D116" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E116" t="s">
-        <v>180</v>
-      </c>
-      <c r="F116" t="s">
-        <v>45</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -11124,13 +11172,13 @@
         <v>8</v>
       </c>
       <c r="C117">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D117" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E117" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F117" t="s">
         <v>26</v>
@@ -11147,13 +11195,13 @@
         <v>8</v>
       </c>
       <c r="C118">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D118" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E118" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F118" t="s">
         <v>26</v>
@@ -11169,17 +11217,17 @@
       <c r="B119">
         <v>8</v>
       </c>
-      <c r="C119" t="s">
-        <v>0</v>
+      <c r="C119">
+        <v>113</v>
       </c>
       <c r="D119" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="E119" t="s">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F119" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -11190,19 +11238,19 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>9</v>
-      </c>
-      <c r="C120" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>113</v>
       </c>
       <c r="D120" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="E120" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="F120" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -11213,19 +11261,19 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D121" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="E121" t="s">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -11236,19 +11284,19 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>9</v>
-      </c>
-      <c r="C122">
-        <v>120</v>
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E122" t="s">
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -11261,17 +11309,17 @@
       <c r="B123">
         <v>9</v>
       </c>
-      <c r="C123">
-        <v>120</v>
+      <c r="C123" t="s">
+        <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E123" t="s">
         <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11284,17 +11332,17 @@
       <c r="B124">
         <v>9</v>
       </c>
-      <c r="C124" t="s">
-        <v>0</v>
+      <c r="C124">
+        <v>123</v>
       </c>
       <c r="D124" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E124" t="s">
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11308,16 +11356,16 @@
         <v>9</v>
       </c>
       <c r="C125">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D125" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E125" t="s">
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11331,10 +11379,10 @@
         <v>9</v>
       </c>
       <c r="C126">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D126" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E126" t="s">
         <v>0</v>
@@ -11353,17 +11401,17 @@
       <c r="B127">
         <v>9</v>
       </c>
-      <c r="C127">
-        <v>124</v>
+      <c r="C127" t="s">
+        <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E127" t="s">
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11377,16 +11425,16 @@
         <v>9</v>
       </c>
       <c r="C128">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D128" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E128" t="s">
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11400,10 +11448,10 @@
         <v>9</v>
       </c>
       <c r="C129">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D129" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E129" t="s">
         <v>0</v>
@@ -11423,10 +11471,10 @@
         <v>9</v>
       </c>
       <c r="C130">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D130" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E130" t="s">
         <v>0</v>
@@ -11445,17 +11493,17 @@
       <c r="B131">
         <v>9</v>
       </c>
-      <c r="C131" t="s">
-        <v>0</v>
+      <c r="C131">
+        <v>127</v>
       </c>
       <c r="D131" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E131" t="s">
         <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11469,10 +11517,10 @@
         <v>9</v>
       </c>
       <c r="C132">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D132" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E132" t="s">
         <v>0</v>
@@ -11492,10 +11540,10 @@
         <v>9</v>
       </c>
       <c r="C133">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D133" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E133" t="s">
         <v>0</v>
@@ -11514,17 +11562,17 @@
       <c r="B134">
         <v>9</v>
       </c>
-      <c r="C134">
-        <v>131</v>
+      <c r="C134" t="s">
+        <v>0</v>
       </c>
       <c r="D134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E134" t="s">
         <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11535,19 +11583,19 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>10</v>
-      </c>
-      <c r="C135" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="C135">
+        <v>134</v>
       </c>
       <c r="D135" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E135" t="s">
         <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -11558,19 +11606,19 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C136">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D136" t="s">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="E136" t="s">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -11581,16 +11629,16 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C137">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D137" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="E137" t="s">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="F137" t="s">
         <v>26</v>
@@ -11606,17 +11654,17 @@
       <c r="B138">
         <v>10</v>
       </c>
-      <c r="C138">
-        <v>135</v>
+      <c r="C138" t="s">
+        <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -11629,17 +11677,17 @@
       <c r="B139">
         <v>10</v>
       </c>
-      <c r="C139" t="s">
-        <v>0</v>
+      <c r="C139">
+        <v>138</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="E139" t="s">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="F139" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -11653,16 +11701,16 @@
         <v>10</v>
       </c>
       <c r="C140">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D140" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E140" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -11676,13 +11724,13 @@
         <v>10</v>
       </c>
       <c r="C141">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D141" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E141" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F141" t="s">
         <v>26</v>
@@ -11698,17 +11746,17 @@
       <c r="B142">
         <v>10</v>
       </c>
-      <c r="C142">
-        <v>139</v>
+      <c r="C142" t="s">
+        <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -11721,17 +11769,17 @@
       <c r="B143">
         <v>10</v>
       </c>
-      <c r="C143" t="s">
-        <v>0</v>
+      <c r="C143">
+        <v>142</v>
       </c>
       <c r="D143" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="E143" t="s">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="F143" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -11745,10 +11793,10 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D144" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E144" t="s">
         <v>194</v>
@@ -11768,18 +11816,87 @@
         <v>10</v>
       </c>
       <c r="C145">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D145" t="s">
+        <v>177</v>
+      </c>
+      <c r="E145" t="s">
+        <v>195</v>
+      </c>
+      <c r="F145" t="s">
+        <v>26</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" t="s">
+        <v>34</v>
+      </c>
+      <c r="E146" t="s">
+        <v>0</v>
+      </c>
+      <c r="F146" t="s">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>10</v>
+      </c>
+      <c r="C147">
+        <v>146</v>
+      </c>
+      <c r="D147" t="s">
+        <v>196</v>
+      </c>
+      <c r="E147" t="s">
+        <v>194</v>
+      </c>
+      <c r="F147" t="s">
+        <v>26</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>10</v>
+      </c>
+      <c r="C148">
+        <v>146</v>
+      </c>
+      <c r="D148" t="s">
         <v>197</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E148" t="s">
         <v>198</v>
       </c>
-      <c r="F145" t="s">
-        <v>26</v>
-      </c>
-      <c r="G145">
+      <c r="F148" t="s">
+        <v>26</v>
+      </c>
+      <c r="G148">
         <v>1</v>
       </c>
     </row>
@@ -16200,7 +16317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/provisional/inserts.xlsx
+++ b/provisional/inserts.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub_Seguridad\BaseSistemasIntegrados\provisional\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21720" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21720" windowHeight="10035" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="inserts iniciales" sheetId="3" r:id="rId1"/>
@@ -17,13 +12,14 @@
     <sheet name="Permisos" sheetId="5" r:id="rId3"/>
     <sheet name="Usuarios" sheetId="6" r:id="rId4"/>
     <sheet name="Persona" sheetId="7" r:id="rId5"/>
+    <sheet name="Menu2" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="245">
   <si>
     <t>NULL</t>
   </si>
@@ -867,7 +863,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -902,7 +898,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8467,8 +8463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17083,4 +17079,3425 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147:C148"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>240</v>
+      </c>
+      <c r="E37" t="s">
+        <v>241</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>242</v>
+      </c>
+      <c r="E38" t="s">
+        <v>243</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>244</v>
+      </c>
+      <c r="E39" t="s">
+        <v>241</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>45</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E71" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>45</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" t="s">
+        <v>93</v>
+      </c>
+      <c r="F78" t="s">
+        <v>42</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" t="s">
+        <v>96</v>
+      </c>
+      <c r="F80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81" t="s">
+        <v>94</v>
+      </c>
+      <c r="F81" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" t="s">
+        <v>97</v>
+      </c>
+      <c r="F82" t="s">
+        <v>42</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" t="s">
+        <v>102</v>
+      </c>
+      <c r="F83" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>100</v>
+      </c>
+      <c r="E84" t="s">
+        <v>101</v>
+      </c>
+      <c r="F84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>103</v>
+      </c>
+      <c r="E85" t="s">
+        <v>104</v>
+      </c>
+      <c r="F85" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86" t="s">
+        <v>106</v>
+      </c>
+      <c r="F86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" t="s">
+        <v>108</v>
+      </c>
+      <c r="F87" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E88" t="s">
+        <v>109</v>
+      </c>
+      <c r="F88" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>51</v>
+      </c>
+      <c r="E89" t="s">
+        <v>111</v>
+      </c>
+      <c r="F89" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
+        <v>112</v>
+      </c>
+      <c r="E90" t="s">
+        <v>113</v>
+      </c>
+      <c r="F90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>114</v>
+      </c>
+      <c r="E91" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s">
+        <v>115</v>
+      </c>
+      <c r="E92" t="s">
+        <v>116</v>
+      </c>
+      <c r="F92" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>117</v>
+      </c>
+      <c r="E93" t="s">
+        <v>118</v>
+      </c>
+      <c r="F93" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>6</v>
+      </c>
+      <c r="C94">
+        <v>17</v>
+      </c>
+      <c r="D94" t="s">
+        <v>54</v>
+      </c>
+      <c r="E94" t="s">
+        <v>119</v>
+      </c>
+      <c r="F94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>17</v>
+      </c>
+      <c r="D95" t="s">
+        <v>120</v>
+      </c>
+      <c r="E95" t="s">
+        <v>121</v>
+      </c>
+      <c r="F95" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>17</v>
+      </c>
+      <c r="D96" t="s">
+        <v>122</v>
+      </c>
+      <c r="E96" t="s">
+        <v>123</v>
+      </c>
+      <c r="F96" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>124</v>
+      </c>
+      <c r="E97" t="s">
+        <v>125</v>
+      </c>
+      <c r="F97" t="s">
+        <v>45</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
+        <v>58</v>
+      </c>
+      <c r="E98" t="s">
+        <v>126</v>
+      </c>
+      <c r="F98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>17</v>
+      </c>
+      <c r="D99" t="s">
+        <v>127</v>
+      </c>
+      <c r="E99" t="s">
+        <v>128</v>
+      </c>
+      <c r="F99" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>18</v>
+      </c>
+      <c r="D100" t="s">
+        <v>129</v>
+      </c>
+      <c r="E100" t="s">
+        <v>130</v>
+      </c>
+      <c r="F100" t="s">
+        <v>42</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>18</v>
+      </c>
+      <c r="D101" t="s">
+        <v>51</v>
+      </c>
+      <c r="E101" t="s">
+        <v>131</v>
+      </c>
+      <c r="F101" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>54</v>
+      </c>
+      <c r="E102" t="s">
+        <v>132</v>
+      </c>
+      <c r="F102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>19</v>
+      </c>
+      <c r="D103" t="s">
+        <v>133</v>
+      </c>
+      <c r="E103" t="s">
+        <v>134</v>
+      </c>
+      <c r="F103" t="s">
+        <v>42</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>19</v>
+      </c>
+      <c r="D104" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104" t="s">
+        <v>136</v>
+      </c>
+      <c r="F104" t="s">
+        <v>26</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>19</v>
+      </c>
+      <c r="D105" t="s">
+        <v>137</v>
+      </c>
+      <c r="E105" t="s">
+        <v>138</v>
+      </c>
+      <c r="F105" t="s">
+        <v>26</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>20</v>
+      </c>
+      <c r="D106" t="s">
+        <v>139</v>
+      </c>
+      <c r="E106" t="s">
+        <v>140</v>
+      </c>
+      <c r="F106" t="s">
+        <v>42</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
+        <v>141</v>
+      </c>
+      <c r="E107" t="s">
+        <v>142</v>
+      </c>
+      <c r="F107" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108" t="s">
+        <v>144</v>
+      </c>
+      <c r="E108" t="s">
+        <v>143</v>
+      </c>
+      <c r="F108" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>21</v>
+      </c>
+      <c r="D109" t="s">
+        <v>145</v>
+      </c>
+      <c r="E109" t="s">
+        <v>146</v>
+      </c>
+      <c r="F109" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>22</v>
+      </c>
+      <c r="D110" t="s">
+        <v>147</v>
+      </c>
+      <c r="E110" t="s">
+        <v>148</v>
+      </c>
+      <c r="F110" t="s">
+        <v>42</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>8</v>
+      </c>
+      <c r="C111">
+        <v>22</v>
+      </c>
+      <c r="D111" t="s">
+        <v>149</v>
+      </c>
+      <c r="E111" t="s">
+        <v>150</v>
+      </c>
+      <c r="F111" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>22</v>
+      </c>
+      <c r="D112" t="s">
+        <v>151</v>
+      </c>
+      <c r="E112" t="s">
+        <v>152</v>
+      </c>
+      <c r="F112" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <v>22</v>
+      </c>
+      <c r="D113" t="s">
+        <v>153</v>
+      </c>
+      <c r="E113" t="s">
+        <v>154</v>
+      </c>
+      <c r="F113" t="s">
+        <v>42</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>8</v>
+      </c>
+      <c r="C114">
+        <v>22</v>
+      </c>
+      <c r="D114" t="s">
+        <v>155</v>
+      </c>
+      <c r="E114" t="s">
+        <v>156</v>
+      </c>
+      <c r="F114" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>22</v>
+      </c>
+      <c r="D115" t="s">
+        <v>157</v>
+      </c>
+      <c r="E115" t="s">
+        <v>158</v>
+      </c>
+      <c r="F115" t="s">
+        <v>26</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>22</v>
+      </c>
+      <c r="D116" t="s">
+        <v>159</v>
+      </c>
+      <c r="E116" t="s">
+        <v>160</v>
+      </c>
+      <c r="F116" t="s">
+        <v>42</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>22</v>
+      </c>
+      <c r="D117" t="s">
+        <v>161</v>
+      </c>
+      <c r="E117" t="s">
+        <v>162</v>
+      </c>
+      <c r="F117" t="s">
+        <v>26</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+      <c r="C118">
+        <v>22</v>
+      </c>
+      <c r="D118" t="s">
+        <v>163</v>
+      </c>
+      <c r="E118" t="s">
+        <v>164</v>
+      </c>
+      <c r="F118" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>22</v>
+      </c>
+      <c r="D119" t="s">
+        <v>165</v>
+      </c>
+      <c r="E119" t="s">
+        <v>166</v>
+      </c>
+      <c r="F119" t="s">
+        <v>42</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>22</v>
+      </c>
+      <c r="D120" t="s">
+        <v>167</v>
+      </c>
+      <c r="E120" t="s">
+        <v>168</v>
+      </c>
+      <c r="F120" t="s">
+        <v>26</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>8</v>
+      </c>
+      <c r="C121">
+        <v>23</v>
+      </c>
+      <c r="D121" t="s">
+        <v>169</v>
+      </c>
+      <c r="E121" t="s">
+        <v>170</v>
+      </c>
+      <c r="F121" t="s">
+        <v>42</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>23</v>
+      </c>
+      <c r="D122" t="s">
+        <v>172</v>
+      </c>
+      <c r="E122" t="s">
+        <v>171</v>
+      </c>
+      <c r="F122" t="s">
+        <v>42</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>23</v>
+      </c>
+      <c r="D123" t="s">
+        <v>173</v>
+      </c>
+      <c r="E123" t="s">
+        <v>174</v>
+      </c>
+      <c r="F123" t="s">
+        <v>42</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>8</v>
+      </c>
+      <c r="C124">
+        <v>23</v>
+      </c>
+      <c r="D124" t="s">
+        <v>175</v>
+      </c>
+      <c r="E124" t="s">
+        <v>176</v>
+      </c>
+      <c r="F124" t="s">
+        <v>26</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <v>23</v>
+      </c>
+      <c r="D125" t="s">
+        <v>177</v>
+      </c>
+      <c r="E125" t="s">
+        <v>178</v>
+      </c>
+      <c r="F125" t="s">
+        <v>26</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>23</v>
+      </c>
+      <c r="D126" t="s">
+        <v>179</v>
+      </c>
+      <c r="E126" t="s">
+        <v>180</v>
+      </c>
+      <c r="F126" t="s">
+        <v>45</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>23</v>
+      </c>
+      <c r="D127" t="s">
+        <v>181</v>
+      </c>
+      <c r="E127" t="s">
+        <v>182</v>
+      </c>
+      <c r="F127" t="s">
+        <v>26</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>23</v>
+      </c>
+      <c r="D128" t="s">
+        <v>183</v>
+      </c>
+      <c r="E128" t="s">
+        <v>184</v>
+      </c>
+      <c r="F128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <v>25</v>
+      </c>
+      <c r="D129" t="s">
+        <v>51</v>
+      </c>
+      <c r="E129" t="s">
+        <v>0</v>
+      </c>
+      <c r="F129" t="s">
+        <v>42</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>9</v>
+      </c>
+      <c r="C130">
+        <v>25</v>
+      </c>
+      <c r="D130" t="s">
+        <v>52</v>
+      </c>
+      <c r="E130" t="s">
+        <v>0</v>
+      </c>
+      <c r="F130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>9</v>
+      </c>
+      <c r="C131">
+        <v>25</v>
+      </c>
+      <c r="D131" t="s">
+        <v>53</v>
+      </c>
+      <c r="E131" t="s">
+        <v>0</v>
+      </c>
+      <c r="F131" t="s">
+        <v>26</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>9</v>
+      </c>
+      <c r="C132">
+        <v>26</v>
+      </c>
+      <c r="D132" t="s">
+        <v>54</v>
+      </c>
+      <c r="E132" t="s">
+        <v>0</v>
+      </c>
+      <c r="F132" t="s">
+        <v>42</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>9</v>
+      </c>
+      <c r="C133">
+        <v>26</v>
+      </c>
+      <c r="D133" t="s">
+        <v>55</v>
+      </c>
+      <c r="E133" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" t="s">
+        <v>26</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>9</v>
+      </c>
+      <c r="C134">
+        <v>26</v>
+      </c>
+      <c r="D134" t="s">
+        <v>56</v>
+      </c>
+      <c r="E134" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" t="s">
+        <v>26</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>9</v>
+      </c>
+      <c r="C135">
+        <v>26</v>
+      </c>
+      <c r="D135" t="s">
+        <v>57</v>
+      </c>
+      <c r="E135" t="s">
+        <v>0</v>
+      </c>
+      <c r="F135" t="s">
+        <v>45</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>9</v>
+      </c>
+      <c r="C136">
+        <v>26</v>
+      </c>
+      <c r="D136" t="s">
+        <v>58</v>
+      </c>
+      <c r="E136" t="s">
+        <v>0</v>
+      </c>
+      <c r="F136" t="s">
+        <v>26</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>9</v>
+      </c>
+      <c r="C137">
+        <v>26</v>
+      </c>
+      <c r="D137" t="s">
+        <v>59</v>
+      </c>
+      <c r="E137" t="s">
+        <v>0</v>
+      </c>
+      <c r="F137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>9</v>
+      </c>
+      <c r="C138">
+        <v>27</v>
+      </c>
+      <c r="D138" t="s">
+        <v>35</v>
+      </c>
+      <c r="E138" t="s">
+        <v>0</v>
+      </c>
+      <c r="F138" t="s">
+        <v>26</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <v>27</v>
+      </c>
+      <c r="D139" t="s">
+        <v>36</v>
+      </c>
+      <c r="E139" t="s">
+        <v>0</v>
+      </c>
+      <c r="F139" t="s">
+        <v>26</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>27</v>
+      </c>
+      <c r="D140" t="s">
+        <v>33</v>
+      </c>
+      <c r="E140" t="s">
+        <v>0</v>
+      </c>
+      <c r="F140" t="s">
+        <v>26</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>185</v>
+      </c>
+      <c r="E141" t="s">
+        <v>186</v>
+      </c>
+      <c r="F141" t="s">
+        <v>42</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>10</v>
+      </c>
+      <c r="C142">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>187</v>
+      </c>
+      <c r="E142" t="s">
+        <v>188</v>
+      </c>
+      <c r="F142" t="s">
+        <v>26</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>10</v>
+      </c>
+      <c r="C143">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>189</v>
+      </c>
+      <c r="E143" t="s">
+        <v>190</v>
+      </c>
+      <c r="F143" t="s">
+        <v>26</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>10</v>
+      </c>
+      <c r="C144">
+        <v>29</v>
+      </c>
+      <c r="D144" t="s">
+        <v>191</v>
+      </c>
+      <c r="E144" t="s">
+        <v>192</v>
+      </c>
+      <c r="F144" t="s">
+        <v>42</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>10</v>
+      </c>
+      <c r="C145">
+        <v>29</v>
+      </c>
+      <c r="D145" t="s">
+        <v>193</v>
+      </c>
+      <c r="E145" t="s">
+        <v>194</v>
+      </c>
+      <c r="F145" t="s">
+        <v>26</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>10</v>
+      </c>
+      <c r="C146">
+        <v>29</v>
+      </c>
+      <c r="D146" t="s">
+        <v>177</v>
+      </c>
+      <c r="E146" t="s">
+        <v>195</v>
+      </c>
+      <c r="F146" t="s">
+        <v>26</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>10</v>
+      </c>
+      <c r="C147">
+        <v>30</v>
+      </c>
+      <c r="D147" t="s">
+        <v>196</v>
+      </c>
+      <c r="E147" t="s">
+        <v>194</v>
+      </c>
+      <c r="F147" t="s">
+        <v>26</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>10</v>
+      </c>
+      <c r="C148">
+        <v>30</v>
+      </c>
+      <c r="D148" t="s">
+        <v>197</v>
+      </c>
+      <c r="E148" t="s">
+        <v>198</v>
+      </c>
+      <c r="F148" t="s">
+        <v>26</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/provisional/inserts.xlsx
+++ b/provisional/inserts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21720" windowHeight="10035" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21720" windowHeight="10035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="inserts iniciales" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="245">
   <si>
     <t>NULL</t>
   </si>
@@ -11903,10 +11903,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11918,8 +11918,8 @@
       <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>1</v>
+      <c r="C1">
+        <v>31</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
@@ -11941,8 +11941,8 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>2</v>
+      <c r="C2">
+        <v>32</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -11964,8 +11964,8 @@
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>3</v>
+      <c r="C3">
+        <v>33</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -11987,8 +11987,8 @@
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
-        <v>4</v>
+      <c r="C4">
+        <v>34</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -12010,8 +12010,8 @@
       <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
-        <v>5</v>
+      <c r="C5">
+        <v>35</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -12033,8 +12033,8 @@
       <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
-        <v>6</v>
+      <c r="C6">
+        <v>36</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -12056,8 +12056,8 @@
       <c r="B7" s="1">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
-        <v>7</v>
+      <c r="C7">
+        <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -12079,8 +12079,8 @@
       <c r="B8">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
-        <v>8</v>
+      <c r="C8">
+        <v>38</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -12102,8 +12102,8 @@
       <c r="B9" s="1">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
-        <v>9</v>
+      <c r="C9">
+        <v>39</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -12125,8 +12125,8 @@
       <c r="B10">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
-        <v>10</v>
+      <c r="C10">
+        <v>40</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -12148,8 +12148,8 @@
       <c r="B11" s="1">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
-        <v>11</v>
+      <c r="C11">
+        <v>41</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -12171,8 +12171,8 @@
       <c r="B12">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
-        <v>12</v>
+      <c r="C12">
+        <v>42</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -12194,8 +12194,8 @@
       <c r="B13" s="1">
         <v>13</v>
       </c>
-      <c r="C13" s="1">
-        <v>13</v>
+      <c r="C13">
+        <v>43</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -12217,8 +12217,8 @@
       <c r="B14">
         <v>14</v>
       </c>
-      <c r="C14" s="1">
-        <v>14</v>
+      <c r="C14">
+        <v>44</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -12240,8 +12240,8 @@
       <c r="B15" s="1">
         <v>15</v>
       </c>
-      <c r="C15" s="1">
-        <v>15</v>
+      <c r="C15">
+        <v>45</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -12264,7 +12264,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -12287,7 +12287,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -12310,7 +12310,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -12333,7 +12333,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -12356,7 +12356,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -12379,7 +12379,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -12402,7 +12402,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -12425,7 +12425,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -12448,7 +12448,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -12471,7 +12471,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -12494,7 +12494,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -12517,7 +12517,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -12540,7 +12540,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -12563,7 +12563,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -12586,7 +12586,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -12609,7 +12609,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -12632,7 +12632,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -12655,7 +12655,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -12678,7 +12678,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -12701,7 +12701,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -12724,7 +12724,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -12747,7 +12747,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -12770,7 +12770,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -12793,7 +12793,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -12815,8 +12815,8 @@
       <c r="B40" s="1">
         <v>40</v>
       </c>
-      <c r="C40" s="1">
-        <v>40</v>
+      <c r="C40">
+        <v>70</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -12839,7 +12839,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -12862,7 +12862,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -12885,7 +12885,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -12908,7 +12908,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D44">
         <v>4</v>
@@ -12931,7 +12931,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -12954,7 +12954,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -12977,7 +12977,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -13000,7 +13000,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -13023,7 +13023,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -13046,7 +13046,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -13069,7 +13069,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -13092,7 +13092,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -13115,7 +13115,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -13138,7 +13138,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -13161,7 +13161,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -13184,7 +13184,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -13207,7 +13207,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D57">
         <v>5</v>
@@ -13230,7 +13230,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D58">
         <v>5</v>
@@ -13253,7 +13253,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D59">
         <v>5</v>
@@ -13276,7 +13276,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D60">
         <v>5</v>
@@ -13299,7 +13299,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D61">
         <v>5</v>
@@ -13322,7 +13322,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D62">
         <v>5</v>
@@ -13345,7 +13345,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D63">
         <v>5</v>
@@ -13368,7 +13368,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D64">
         <v>5</v>
@@ -13391,7 +13391,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D65">
         <v>5</v>
@@ -13414,7 +13414,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D66">
         <v>5</v>
@@ -13437,7 +13437,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="D67">
         <v>5</v>
@@ -13460,7 +13460,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="D68">
         <v>5</v>
@@ -13483,7 +13483,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D69">
         <v>5</v>
@@ -13506,7 +13506,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D70">
         <v>6</v>
@@ -13529,7 +13529,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D71">
         <v>6</v>
@@ -13552,7 +13552,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D72">
         <v>6</v>
@@ -13575,7 +13575,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D73">
         <v>6</v>
@@ -13598,7 +13598,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D74">
         <v>6</v>
@@ -13621,7 +13621,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D75">
         <v>6</v>
@@ -13644,7 +13644,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D76">
         <v>6</v>
@@ -13667,7 +13667,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="D77">
         <v>6</v>
@@ -13690,7 +13690,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D78">
         <v>6</v>
@@ -13713,7 +13713,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="D79">
         <v>6</v>
@@ -13736,7 +13736,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D80">
         <v>6</v>
@@ -13759,7 +13759,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="D81">
         <v>6</v>
@@ -13782,7 +13782,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="D82">
         <v>6</v>
@@ -13805,7 +13805,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D83">
         <v>6</v>
@@ -13828,7 +13828,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="D84">
         <v>6</v>
@@ -13851,7 +13851,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -13874,7 +13874,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="D86">
         <v>6</v>
@@ -13897,7 +13897,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -13920,7 +13920,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D88">
         <v>7</v>
@@ -13943,7 +13943,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D89">
         <v>7</v>
@@ -13966,7 +13966,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D90">
         <v>7</v>
@@ -13989,7 +13989,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="D91">
         <v>7</v>
@@ -14012,7 +14012,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="D92">
         <v>7</v>
@@ -14035,7 +14035,7 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="D93">
         <v>7</v>
@@ -14058,7 +14058,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D94">
         <v>7</v>
@@ -14081,7 +14081,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="D95">
         <v>7</v>
@@ -14104,7 +14104,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="D96">
         <v>7</v>
@@ -14127,7 +14127,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D97">
         <v>7</v>
@@ -14150,7 +14150,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="D98">
         <v>8</v>
@@ -14173,7 +14173,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="D99">
         <v>8</v>
@@ -14196,7 +14196,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D100">
         <v>8</v>
@@ -14219,7 +14219,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="D101">
         <v>8</v>
@@ -14242,7 +14242,7 @@
         <v>102</v>
       </c>
       <c r="C102">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="D102">
         <v>8</v>
@@ -14265,7 +14265,7 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="D103">
         <v>8</v>
@@ -14288,7 +14288,7 @@
         <v>104</v>
       </c>
       <c r="C104">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="D104">
         <v>8</v>
@@ -14311,7 +14311,7 @@
         <v>105</v>
       </c>
       <c r="C105">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -14334,7 +14334,7 @@
         <v>106</v>
       </c>
       <c r="C106">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="D106">
         <v>8</v>
@@ -14357,7 +14357,7 @@
         <v>107</v>
       </c>
       <c r="C107">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="D107">
         <v>8</v>
@@ -14380,7 +14380,7 @@
         <v>108</v>
       </c>
       <c r="C108">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="D108">
         <v>8</v>
@@ -14403,7 +14403,7 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="D109">
         <v>8</v>
@@ -14426,7 +14426,7 @@
         <v>110</v>
       </c>
       <c r="C110">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D110">
         <v>8</v>
@@ -14449,7 +14449,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="D111">
         <v>8</v>
@@ -14472,7 +14472,7 @@
         <v>112</v>
       </c>
       <c r="C112">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -14495,7 +14495,7 @@
         <v>113</v>
       </c>
       <c r="C113">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="D113">
         <v>8</v>
@@ -14518,7 +14518,7 @@
         <v>114</v>
       </c>
       <c r="C114">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="D114">
         <v>8</v>
@@ -14541,7 +14541,7 @@
         <v>115</v>
       </c>
       <c r="C115">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="D115">
         <v>8</v>
@@ -14564,7 +14564,7 @@
         <v>116</v>
       </c>
       <c r="C116">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="D116">
         <v>8</v>
@@ -14587,7 +14587,7 @@
         <v>117</v>
       </c>
       <c r="C117">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D117">
         <v>8</v>
@@ -14610,7 +14610,7 @@
         <v>118</v>
       </c>
       <c r="C118">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D118">
         <v>8</v>
@@ -14627,623 +14627,623 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>1</v>
-      </c>
-      <c r="B119">
-        <v>119</v>
+        <v>2</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1</v>
       </c>
       <c r="C119">
-        <v>119</v>
-      </c>
-      <c r="D119">
-        <v>8</v>
+        <v>103</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>1</v>
-      </c>
-      <c r="B120">
-        <v>120</v>
+        <v>2</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2</v>
       </c>
       <c r="C120">
-        <v>120</v>
-      </c>
-      <c r="D120">
-        <v>9</v>
+        <v>104</v>
+      </c>
+      <c r="D120" s="1">
+        <v>2</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>1</v>
-      </c>
-      <c r="B121">
-        <v>121</v>
+        <v>2</v>
+      </c>
+      <c r="B121" s="1">
+        <v>3</v>
       </c>
       <c r="C121">
-        <v>121</v>
-      </c>
-      <c r="D121">
-        <v>9</v>
+        <v>105</v>
+      </c>
+      <c r="D121" s="1">
+        <v>2</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>1</v>
-      </c>
-      <c r="B122">
-        <v>122</v>
+        <v>2</v>
+      </c>
+      <c r="B122" s="1">
+        <v>4</v>
       </c>
       <c r="C122">
-        <v>122</v>
-      </c>
-      <c r="D122">
-        <v>9</v>
+        <v>110</v>
+      </c>
+      <c r="D122" s="1">
+        <v>2</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>1</v>
-      </c>
-      <c r="B123">
-        <v>123</v>
+        <v>2</v>
+      </c>
+      <c r="B123" s="1">
+        <v>5</v>
       </c>
       <c r="C123">
-        <v>123</v>
-      </c>
-      <c r="D123">
-        <v>9</v>
+        <v>111</v>
+      </c>
+      <c r="D123" s="1">
+        <v>2</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>1</v>
-      </c>
-      <c r="B124">
-        <v>124</v>
+        <v>2</v>
+      </c>
+      <c r="B124" s="1">
+        <v>6</v>
       </c>
       <c r="C124">
-        <v>124</v>
-      </c>
-      <c r="D124">
-        <v>9</v>
+        <v>112</v>
+      </c>
+      <c r="D124" s="1">
+        <v>2</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>1</v>
-      </c>
-      <c r="B125">
-        <v>125</v>
+        <v>2</v>
+      </c>
+      <c r="B125" s="1">
+        <v>7</v>
       </c>
       <c r="C125">
-        <v>125</v>
-      </c>
-      <c r="D125">
-        <v>9</v>
+        <v>113</v>
+      </c>
+      <c r="D125" s="1">
+        <v>2</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>1</v>
-      </c>
-      <c r="B126">
-        <v>126</v>
+        <v>2</v>
+      </c>
+      <c r="B126" s="1">
+        <v>8</v>
       </c>
       <c r="C126">
-        <v>126</v>
-      </c>
-      <c r="D126">
-        <v>9</v>
+        <v>114</v>
+      </c>
+      <c r="D126" s="1">
+        <v>2</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>1</v>
-      </c>
-      <c r="B127">
-        <v>127</v>
+        <v>2</v>
+      </c>
+      <c r="B127" s="1">
+        <v>9</v>
       </c>
       <c r="C127">
-        <v>127</v>
-      </c>
-      <c r="D127">
-        <v>9</v>
+        <v>115</v>
+      </c>
+      <c r="D127" s="1">
+        <v>2</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>1</v>
-      </c>
-      <c r="B128">
-        <v>128</v>
+        <v>2</v>
+      </c>
+      <c r="B128" s="1">
+        <v>10</v>
       </c>
       <c r="C128">
-        <v>128</v>
-      </c>
-      <c r="D128">
-        <v>9</v>
+        <v>116</v>
+      </c>
+      <c r="D128" s="1">
+        <v>2</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>1</v>
-      </c>
-      <c r="B129">
-        <v>129</v>
+        <v>2</v>
+      </c>
+      <c r="B129" s="1">
+        <v>11</v>
       </c>
       <c r="C129">
         <v>129</v>
       </c>
-      <c r="D129">
-        <v>9</v>
+      <c r="D129" s="1">
+        <v>2</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>1</v>
-      </c>
-      <c r="B130">
-        <v>130</v>
+        <v>2</v>
+      </c>
+      <c r="B130" s="1">
+        <v>12</v>
       </c>
       <c r="C130">
         <v>130</v>
       </c>
-      <c r="D130">
-        <v>9</v>
+      <c r="D130" s="1">
+        <v>2</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>1</v>
-      </c>
-      <c r="B131">
-        <v>131</v>
+        <v>2</v>
+      </c>
+      <c r="B131" s="1">
+        <v>13</v>
       </c>
       <c r="C131">
         <v>131</v>
       </c>
-      <c r="D131">
-        <v>9</v>
+      <c r="D131" s="1">
+        <v>3</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>1</v>
-      </c>
-      <c r="B132">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="B132" s="1">
+        <v>14</v>
       </c>
       <c r="C132">
-        <v>132</v>
-      </c>
-      <c r="D132">
-        <v>9</v>
+        <v>135</v>
+      </c>
+      <c r="D132" s="1">
+        <v>3</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>1</v>
-      </c>
-      <c r="B133">
-        <v>133</v>
+        <v>2</v>
+      </c>
+      <c r="B133" s="1">
+        <v>15</v>
       </c>
       <c r="C133">
-        <v>133</v>
-      </c>
-      <c r="D133">
-        <v>9</v>
+        <v>136</v>
+      </c>
+      <c r="D133" s="1">
+        <v>3</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>1</v>
-      </c>
-      <c r="B134">
-        <v>134</v>
+        <v>2</v>
+      </c>
+      <c r="B134" s="1">
+        <v>16</v>
       </c>
       <c r="C134">
-        <v>134</v>
-      </c>
-      <c r="D134">
-        <v>9</v>
+        <v>137</v>
+      </c>
+      <c r="D134" s="1">
+        <v>3</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>1</v>
-      </c>
-      <c r="B135">
-        <v>135</v>
+        <v>2</v>
+      </c>
+      <c r="B135" s="1">
+        <v>17</v>
       </c>
       <c r="C135">
-        <v>135</v>
-      </c>
-      <c r="D135">
-        <v>10</v>
+        <v>138</v>
+      </c>
+      <c r="D135" s="1">
+        <v>3</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>1</v>
-      </c>
-      <c r="B136">
-        <v>136</v>
+        <v>2</v>
+      </c>
+      <c r="B136" s="1">
+        <v>18</v>
       </c>
       <c r="C136">
-        <v>136</v>
-      </c>
-      <c r="D136">
-        <v>10</v>
+        <v>139</v>
+      </c>
+      <c r="D136" s="1">
+        <v>3</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>1</v>
-      </c>
-      <c r="B137">
-        <v>137</v>
+        <v>2</v>
+      </c>
+      <c r="B137" s="1">
+        <v>19</v>
       </c>
       <c r="C137">
-        <v>137</v>
-      </c>
-      <c r="D137">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="D137" s="1">
+        <v>3</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>1</v>
-      </c>
-      <c r="B138">
-        <v>138</v>
+        <v>2</v>
+      </c>
+      <c r="B138" s="1">
+        <v>20</v>
       </c>
       <c r="C138">
-        <v>138</v>
-      </c>
-      <c r="D138">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="D138" s="1">
+        <v>3</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>1</v>
-      </c>
-      <c r="B139">
-        <v>139</v>
+        <v>2</v>
+      </c>
+      <c r="B139" s="1">
+        <v>21</v>
       </c>
       <c r="C139">
-        <v>139</v>
-      </c>
-      <c r="D139">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="D139" s="1">
+        <v>3</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>1</v>
-      </c>
-      <c r="B140">
-        <v>140</v>
+        <v>2</v>
+      </c>
+      <c r="B140" s="1">
+        <v>22</v>
       </c>
       <c r="C140">
-        <v>140</v>
-      </c>
-      <c r="D140">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="D140" s="1">
+        <v>3</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>1</v>
-      </c>
-      <c r="B141">
-        <v>141</v>
+        <v>2</v>
+      </c>
+      <c r="B141" s="1">
+        <v>23</v>
       </c>
       <c r="C141">
-        <v>141</v>
-      </c>
-      <c r="D141">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="D141" s="1">
+        <v>3</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>1</v>
-      </c>
-      <c r="B142">
-        <v>142</v>
+        <v>2</v>
+      </c>
+      <c r="B142" s="1">
+        <v>24</v>
       </c>
       <c r="C142">
-        <v>142</v>
-      </c>
-      <c r="D142">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="D142" s="1">
+        <v>3</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>1</v>
-      </c>
-      <c r="B143">
-        <v>143</v>
+        <v>2</v>
+      </c>
+      <c r="B143" s="1">
+        <v>25</v>
       </c>
       <c r="C143">
-        <v>143</v>
-      </c>
-      <c r="D143">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="D143" s="1">
+        <v>6</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>1</v>
-      </c>
-      <c r="B144">
-        <v>144</v>
+        <v>2</v>
+      </c>
+      <c r="B144" s="1">
+        <v>26</v>
       </c>
       <c r="C144">
-        <v>144</v>
-      </c>
-      <c r="D144">
-        <v>10</v>
+        <v>52</v>
+      </c>
+      <c r="D144" s="1">
+        <v>6</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>1</v>
-      </c>
-      <c r="B145">
-        <v>145</v>
+        <v>2</v>
+      </c>
+      <c r="B145" s="1">
+        <v>27</v>
       </c>
       <c r="C145">
-        <v>145</v>
-      </c>
-      <c r="D145">
-        <v>10</v>
+        <v>53</v>
+      </c>
+      <c r="D145" s="1">
+        <v>6</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -15251,13 +15251,13 @@
         <v>2</v>
       </c>
       <c r="B146" s="1">
-        <v>1</v>
-      </c>
-      <c r="C146" s="1">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="C146">
+        <v>54</v>
       </c>
       <c r="D146" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>199</v>
@@ -15274,13 +15274,13 @@
         <v>2</v>
       </c>
       <c r="B147" s="1">
-        <v>2</v>
-      </c>
-      <c r="C147" s="1">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="C147">
+        <v>55</v>
       </c>
       <c r="D147" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>199</v>
@@ -15294,16 +15294,16 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B148" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C148" s="1">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="D148" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>199</v>
@@ -15312,857 +15312,6 @@
         <v>199</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>2</v>
-      </c>
-      <c r="B149" s="1">
-        <v>4</v>
-      </c>
-      <c r="C149" s="1">
-        <v>19</v>
-      </c>
-      <c r="D149" s="1">
-        <v>2</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>2</v>
-      </c>
-      <c r="B150" s="1">
-        <v>5</v>
-      </c>
-      <c r="C150" s="1">
-        <v>20</v>
-      </c>
-      <c r="D150" s="1">
-        <v>2</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>2</v>
-      </c>
-      <c r="B151" s="1">
-        <v>6</v>
-      </c>
-      <c r="C151" s="1">
-        <v>21</v>
-      </c>
-      <c r="D151" s="1">
-        <v>2</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>2</v>
-      </c>
-      <c r="B152" s="1">
-        <v>7</v>
-      </c>
-      <c r="C152" s="1">
-        <v>22</v>
-      </c>
-      <c r="D152" s="1">
-        <v>2</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>2</v>
-      </c>
-      <c r="B153" s="1">
-        <v>8</v>
-      </c>
-      <c r="C153" s="1">
-        <v>23</v>
-      </c>
-      <c r="D153" s="1">
-        <v>2</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>2</v>
-      </c>
-      <c r="B154" s="1">
-        <v>9</v>
-      </c>
-      <c r="C154" s="1">
-        <v>24</v>
-      </c>
-      <c r="D154" s="1">
-        <v>2</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>2</v>
-      </c>
-      <c r="B155" s="1">
-        <v>10</v>
-      </c>
-      <c r="C155" s="1">
-        <v>25</v>
-      </c>
-      <c r="D155" s="1">
-        <v>2</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>2</v>
-      </c>
-      <c r="B156" s="1">
-        <v>11</v>
-      </c>
-      <c r="C156" s="1">
-        <v>26</v>
-      </c>
-      <c r="D156" s="1">
-        <v>2</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>2</v>
-      </c>
-      <c r="B157" s="1">
-        <v>12</v>
-      </c>
-      <c r="C157" s="1">
-        <v>27</v>
-      </c>
-      <c r="D157" s="1">
-        <v>2</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>2</v>
-      </c>
-      <c r="B158" s="1">
-        <v>13</v>
-      </c>
-      <c r="C158" s="1">
-        <v>28</v>
-      </c>
-      <c r="D158" s="1">
-        <v>3</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>2</v>
-      </c>
-      <c r="B159" s="1">
-        <v>14</v>
-      </c>
-      <c r="C159" s="1">
-        <v>29</v>
-      </c>
-      <c r="D159" s="1">
-        <v>3</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>2</v>
-      </c>
-      <c r="B160" s="1">
-        <v>15</v>
-      </c>
-      <c r="C160" s="1">
-        <v>30</v>
-      </c>
-      <c r="D160" s="1">
-        <v>3</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>2</v>
-      </c>
-      <c r="B161" s="1">
-        <v>16</v>
-      </c>
-      <c r="C161" s="1">
-        <v>31</v>
-      </c>
-      <c r="D161" s="1">
-        <v>3</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>2</v>
-      </c>
-      <c r="B162" s="1">
-        <v>17</v>
-      </c>
-      <c r="C162" s="1">
-        <v>32</v>
-      </c>
-      <c r="D162" s="1">
-        <v>3</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>2</v>
-      </c>
-      <c r="B163" s="1">
-        <v>18</v>
-      </c>
-      <c r="C163" s="1">
-        <v>33</v>
-      </c>
-      <c r="D163" s="1">
-        <v>3</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>2</v>
-      </c>
-      <c r="B164" s="1">
-        <v>19</v>
-      </c>
-      <c r="C164" s="1">
-        <v>34</v>
-      </c>
-      <c r="D164" s="1">
-        <v>3</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>2</v>
-      </c>
-      <c r="B165" s="1">
-        <v>20</v>
-      </c>
-      <c r="C165" s="1">
-        <v>35</v>
-      </c>
-      <c r="D165" s="1">
-        <v>3</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>2</v>
-      </c>
-      <c r="B166" s="1">
-        <v>21</v>
-      </c>
-      <c r="C166" s="1">
-        <v>36</v>
-      </c>
-      <c r="D166" s="1">
-        <v>3</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>2</v>
-      </c>
-      <c r="B167" s="1">
-        <v>22</v>
-      </c>
-      <c r="C167" s="1">
-        <v>37</v>
-      </c>
-      <c r="D167" s="1">
-        <v>3</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>2</v>
-      </c>
-      <c r="B168" s="1">
-        <v>23</v>
-      </c>
-      <c r="C168" s="1">
-        <v>38</v>
-      </c>
-      <c r="D168" s="1">
-        <v>3</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>2</v>
-      </c>
-      <c r="B169" s="1">
-        <v>24</v>
-      </c>
-      <c r="C169" s="1">
-        <v>39</v>
-      </c>
-      <c r="D169" s="1">
-        <v>3</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>2</v>
-      </c>
-      <c r="B170" s="1">
-        <v>25</v>
-      </c>
-      <c r="C170" s="1">
-        <v>84</v>
-      </c>
-      <c r="D170" s="1">
-        <v>6</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>2</v>
-      </c>
-      <c r="B171" s="1">
-        <v>26</v>
-      </c>
-      <c r="C171" s="1">
-        <v>85</v>
-      </c>
-      <c r="D171" s="1">
-        <v>6</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>2</v>
-      </c>
-      <c r="B172" s="1">
-        <v>27</v>
-      </c>
-      <c r="C172" s="1">
-        <v>86</v>
-      </c>
-      <c r="D172" s="1">
-        <v>6</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>2</v>
-      </c>
-      <c r="B173" s="1">
-        <v>28</v>
-      </c>
-      <c r="C173" s="1">
-        <v>87</v>
-      </c>
-      <c r="D173" s="1">
-        <v>6</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>2</v>
-      </c>
-      <c r="B174" s="1">
-        <v>29</v>
-      </c>
-      <c r="C174" s="1">
-        <v>88</v>
-      </c>
-      <c r="D174" s="1">
-        <v>6</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>2</v>
-      </c>
-      <c r="B175" s="1">
-        <v>30</v>
-      </c>
-      <c r="C175" s="1">
-        <v>89</v>
-      </c>
-      <c r="D175" s="1">
-        <v>6</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>2</v>
-      </c>
-      <c r="B176" s="1">
-        <v>31</v>
-      </c>
-      <c r="C176" s="1">
-        <v>90</v>
-      </c>
-      <c r="D176" s="1">
-        <v>6</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>2</v>
-      </c>
-      <c r="B177" s="1">
-        <v>32</v>
-      </c>
-      <c r="C177" s="1">
-        <v>91</v>
-      </c>
-      <c r="D177" s="1">
-        <v>6</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>2</v>
-      </c>
-      <c r="B178" s="1">
-        <v>33</v>
-      </c>
-      <c r="C178" s="1">
-        <v>92</v>
-      </c>
-      <c r="D178" s="1">
-        <v>6</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>2</v>
-      </c>
-      <c r="B179" s="1">
-        <v>34</v>
-      </c>
-      <c r="C179" s="1">
-        <v>93</v>
-      </c>
-      <c r="D179" s="1">
-        <v>6</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>2</v>
-      </c>
-      <c r="B180" s="1">
-        <v>35</v>
-      </c>
-      <c r="C180" s="1">
-        <v>94</v>
-      </c>
-      <c r="D180" s="1">
-        <v>6</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>2</v>
-      </c>
-      <c r="B181" s="1">
-        <v>36</v>
-      </c>
-      <c r="C181" s="1">
-        <v>95</v>
-      </c>
-      <c r="D181" s="1">
-        <v>6</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>2</v>
-      </c>
-      <c r="B182" s="1">
-        <v>37</v>
-      </c>
-      <c r="C182" s="1">
-        <v>96</v>
-      </c>
-      <c r="D182" s="1">
-        <v>6</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>2</v>
-      </c>
-      <c r="B183" s="1">
-        <v>38</v>
-      </c>
-      <c r="C183" s="1">
-        <v>97</v>
-      </c>
-      <c r="D183" s="1">
-        <v>6</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>2</v>
-      </c>
-      <c r="B184" s="1">
-        <v>39</v>
-      </c>
-      <c r="C184" s="1">
-        <v>98</v>
-      </c>
-      <c r="D184" s="1">
-        <v>6</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>6</v>
-      </c>
-      <c r="B185" s="1">
-        <v>1</v>
-      </c>
-      <c r="C185" s="1">
-        <v>145</v>
-      </c>
-      <c r="D185" s="1">
-        <v>10</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G185" s="1" t="s">
         <v>199</v>
       </c>
     </row>
@@ -17085,8 +16234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147:C148"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/provisional/inserts.xlsx
+++ b/provisional/inserts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21720" windowHeight="10035" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21720" windowHeight="10035" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="inserts iniciales" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="252">
   <si>
     <t>NULL</t>
   </si>
@@ -636,9 +636,6 @@
     <t>bKVXJkA70wzCRu8X5dZ79Z+SmHU=</t>
   </si>
   <si>
-    <t>robafiel</t>
-  </si>
-  <si>
     <t>macastro</t>
   </si>
   <si>
@@ -754,6 +751,30 @@
   </si>
   <si>
     <t>Asignar Usuarios a Empresa</t>
+  </si>
+  <si>
+    <t>rogerax</t>
+  </si>
+  <si>
+    <t>hecmar</t>
+  </si>
+  <si>
+    <t>2Kn1OBOdBjiSr8Ey6Jc2uwffp/8=</t>
+  </si>
+  <si>
+    <t>compras2013</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Cuenca</t>
+  </si>
+  <si>
+    <t>Sur</t>
+  </si>
+  <si>
+    <t>LuisC_@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -8675,10 +8696,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" t="s">
         <v>240</v>
-      </c>
-      <c r="E9" t="s">
-        <v>241</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
@@ -8699,10 +8720,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" t="s">
         <v>242</v>
-      </c>
-      <c r="E10" t="s">
-        <v>243</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
@@ -8723,10 +8744,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
@@ -11903,10 +11924,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11918,43 +11939,43 @@
       <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>31</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>32</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -11964,43 +11985,43 @@
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>33</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>34</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -12010,43 +12031,43 @@
       <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>35</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>36</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -12056,43 +12077,43 @@
       <c r="B7" s="1">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>38</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -12102,43 +12123,43 @@
       <c r="B9" s="1">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>39</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>40</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -12148,43 +12169,43 @@
       <c r="B11" s="1">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>41</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>42</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -12194,43 +12215,43 @@
       <c r="B13" s="1">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>43</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>44</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -12240,43 +12261,43 @@
       <c r="B15" s="1">
         <v>15</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>45</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>46</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -12286,43 +12307,43 @@
       <c r="B17" s="1">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>47</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>18</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>48</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -12332,20 +12353,20 @@
       <c r="B19" s="1">
         <v>19</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>49</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -12355,43 +12376,43 @@
       <c r="B20" s="1">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>50</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>51</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -12401,43 +12422,43 @@
       <c r="B22" s="1">
         <v>22</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>52</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>23</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>53</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -12447,43 +12468,43 @@
       <c r="B24" s="1">
         <v>24</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>54</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>25</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>55</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -12493,43 +12514,43 @@
       <c r="B26" s="1">
         <v>26</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>56</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>27</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>57</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -12539,20 +12560,20 @@
       <c r="B28" s="1">
         <v>28</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>58</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -12562,43 +12583,43 @@
       <c r="B29" s="1">
         <v>29</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>59</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>30</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>60</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -12608,43 +12629,43 @@
       <c r="B31" s="1">
         <v>31</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>61</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>32</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>62</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -12654,43 +12675,43 @@
       <c r="B33" s="1">
         <v>33</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>63</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>34</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>64</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -12700,43 +12721,43 @@
       <c r="B35" s="1">
         <v>35</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>65</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>36</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>66</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -12746,20 +12767,20 @@
       <c r="B37" s="1">
         <v>37</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>67</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -12769,43 +12790,43 @@
       <c r="B38" s="1">
         <v>38</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>68</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>39</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>69</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -12815,43 +12836,43 @@
       <c r="B40" s="1">
         <v>40</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>70</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>3</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>41</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>71</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>4</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -12861,43 +12882,43 @@
       <c r="B42" s="1">
         <v>42</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>72</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>43</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>73</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>4</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -12907,43 +12928,43 @@
       <c r="B44" s="1">
         <v>44</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>74</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>4</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>45</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>75</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>4</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -12953,43 +12974,43 @@
       <c r="B46" s="1">
         <v>46</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>76</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>4</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>47</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>77</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>4</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -12999,20 +13020,20 @@
       <c r="B48" s="1">
         <v>48</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>78</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>4</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -13022,43 +13043,43 @@
       <c r="B49" s="1">
         <v>49</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>79</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>4</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>50</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>80</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -13068,43 +13089,43 @@
       <c r="B51" s="1">
         <v>51</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>81</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>52</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>82</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>4</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -13114,43 +13135,43 @@
       <c r="B53" s="1">
         <v>53</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>83</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>4</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>54</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>84</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>4</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -13160,43 +13181,43 @@
       <c r="B55" s="1">
         <v>55</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>85</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>4</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>56</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>86</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>4</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -13206,20 +13227,20 @@
       <c r="B57" s="1">
         <v>57</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>87</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>5</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -13229,43 +13250,43 @@
       <c r="B58" s="1">
         <v>58</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>88</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>59</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>89</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>5</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -13275,43 +13296,43 @@
       <c r="B60" s="1">
         <v>60</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>90</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>5</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>61</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>91</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>5</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -13321,43 +13342,43 @@
       <c r="B62" s="1">
         <v>62</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>92</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>63</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>93</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>5</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -13367,20 +13388,20 @@
       <c r="B64" s="1">
         <v>64</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>94</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>5</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -13390,43 +13411,43 @@
       <c r="B65" s="1">
         <v>65</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>95</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>5</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>66</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>96</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>5</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -13436,43 +13457,43 @@
       <c r="B67" s="1">
         <v>67</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>97</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>5</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>68</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>98</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -13482,1161 +13503,1161 @@
       <c r="B69" s="1">
         <v>69</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>99</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>5</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>70</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>100</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>6</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>71</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>101</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>6</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>72</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>102</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>6</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>73</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>103</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>6</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>74</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>104</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>6</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>75</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>105</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>6</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>76</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>106</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>6</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>77</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>107</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>6</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>78</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>108</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>6</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>79</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>109</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>6</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>80</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>110</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>6</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>81</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>111</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>6</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>82</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>112</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>6</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>83</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>113</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>6</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>84</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>114</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>6</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>85</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>115</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>6</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>86</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>116</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>6</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>87</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>117</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>6</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>88</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>118</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>7</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>89</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>119</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>7</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>90</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>120</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>7</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>91</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>121</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>7</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>92</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>122</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>7</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>93</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>123</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>7</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>94</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>124</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>7</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>95</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>125</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <v>7</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>96</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>126</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>7</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>97</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>127</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>7</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>98</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>128</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
         <v>8</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>1</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="1">
         <v>99</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>129</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
         <v>8</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>100</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>130</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
         <v>8</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>101</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>131</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
         <v>8</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>102</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>132</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>8</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1">
         <v>103</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>133</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
         <v>8</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="1">
         <v>104</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>134</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <v>8</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="1">
         <v>105</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>135</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>8</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="1">
         <v>106</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>136</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
         <v>8</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="1">
         <v>107</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>137</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="1">
         <v>108</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>138</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <v>8</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="1">
         <v>109</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>139</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <v>8</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>1</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1">
         <v>110</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>140</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
         <v>8</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="1">
         <v>111</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>141</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1">
         <v>8</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="1">
         <v>112</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>142</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1">
         <v>8</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>1</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="1">
         <v>113</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>143</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="1">
         <v>8</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>1</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1">
         <v>114</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>144</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1">
         <v>8</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>1</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="1">
         <v>115</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>145</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
         <v>8</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>1</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="1">
         <v>116</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>146</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1">
         <v>8</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>1</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="1">
         <v>117</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>147</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1">
         <v>8</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>1</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="1">
         <v>118</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>148</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1">
         <v>8</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119" s="1">
-        <v>1</v>
-      </c>
-      <c r="C119">
-        <v>103</v>
+        <v>119</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1</v>
       </c>
       <c r="D119" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>199</v>
@@ -14650,16 +14671,16 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
+        <v>1</v>
+      </c>
+      <c r="B120" s="1">
+        <v>120</v>
+      </c>
+      <c r="C120" s="1">
         <v>2</v>
       </c>
-      <c r="B120" s="1">
-        <v>2</v>
-      </c>
-      <c r="C120">
-        <v>104</v>
-      </c>
       <c r="D120" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>199</v>
@@ -14673,16 +14694,16 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B121" s="1">
+        <v>121</v>
+      </c>
+      <c r="C121" s="1">
         <v>3</v>
       </c>
-      <c r="C121">
-        <v>105</v>
-      </c>
       <c r="D121" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>199</v>
@@ -14696,13 +14717,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B122" s="1">
+        <v>122</v>
+      </c>
+      <c r="C122" s="1">
         <v>4</v>
-      </c>
-      <c r="C122">
-        <v>110</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -14719,13 +14740,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B123" s="1">
+        <v>123</v>
+      </c>
+      <c r="C123" s="1">
         <v>5</v>
-      </c>
-      <c r="C123">
-        <v>111</v>
       </c>
       <c r="D123" s="1">
         <v>2</v>
@@ -14742,13 +14763,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B124" s="1">
+        <v>124</v>
+      </c>
+      <c r="C124" s="1">
         <v>6</v>
-      </c>
-      <c r="C124">
-        <v>112</v>
       </c>
       <c r="D124" s="1">
         <v>2</v>
@@ -14765,16 +14786,16 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125" s="1">
+        <v>125</v>
+      </c>
+      <c r="C125" s="1">
         <v>7</v>
       </c>
-      <c r="C125">
-        <v>113</v>
-      </c>
       <c r="D125" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>199</v>
@@ -14788,16 +14809,16 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B126" s="1">
+        <v>126</v>
+      </c>
+      <c r="C126" s="1">
         <v>8</v>
       </c>
-      <c r="C126">
-        <v>114</v>
-      </c>
       <c r="D126" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>199</v>
@@ -14811,16 +14832,16 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B127" s="1">
+        <v>127</v>
+      </c>
+      <c r="C127" s="1">
         <v>9</v>
       </c>
-      <c r="C127">
-        <v>115</v>
-      </c>
       <c r="D127" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>199</v>
@@ -14834,16 +14855,16 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B128" s="1">
+        <v>128</v>
+      </c>
+      <c r="C128" s="1">
         <v>10</v>
       </c>
-      <c r="C128">
-        <v>116</v>
-      </c>
       <c r="D128" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>199</v>
@@ -14857,16 +14878,16 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B129" s="1">
+        <v>129</v>
+      </c>
+      <c r="C129" s="1">
         <v>11</v>
       </c>
-      <c r="C129">
-        <v>129</v>
-      </c>
       <c r="D129" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>199</v>
@@ -14880,16 +14901,16 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B130" s="1">
+        <v>130</v>
+      </c>
+      <c r="C130" s="1">
         <v>12</v>
       </c>
-      <c r="C130">
-        <v>130</v>
-      </c>
       <c r="D130" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>199</v>
@@ -14903,16 +14924,16 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B131" s="1">
+        <v>131</v>
+      </c>
+      <c r="C131" s="1">
         <v>13</v>
       </c>
-      <c r="C131">
-        <v>131</v>
-      </c>
       <c r="D131" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>199</v>
@@ -14926,16 +14947,16 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B132" s="1">
+        <v>132</v>
+      </c>
+      <c r="C132" s="1">
         <v>14</v>
       </c>
-      <c r="C132">
-        <v>135</v>
-      </c>
       <c r="D132" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>199</v>
@@ -14949,16 +14970,16 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B133" s="1">
+        <v>133</v>
+      </c>
+      <c r="C133" s="1">
         <v>15</v>
       </c>
-      <c r="C133">
-        <v>136</v>
-      </c>
       <c r="D133" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>199</v>
@@ -14972,16 +14993,16 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B134" s="1">
+        <v>134</v>
+      </c>
+      <c r="C134" s="1">
         <v>16</v>
       </c>
-      <c r="C134">
-        <v>137</v>
-      </c>
       <c r="D134" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>199</v>
@@ -14995,16 +15016,16 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B135" s="1">
+        <v>135</v>
+      </c>
+      <c r="C135" s="1">
         <v>17</v>
       </c>
-      <c r="C135">
-        <v>138</v>
-      </c>
       <c r="D135" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>199</v>
@@ -15018,16 +15039,16 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B136" s="1">
+        <v>136</v>
+      </c>
+      <c r="C136" s="1">
         <v>18</v>
       </c>
-      <c r="C136">
-        <v>139</v>
-      </c>
       <c r="D136" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>199</v>
@@ -15041,16 +15062,16 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B137" s="1">
+        <v>137</v>
+      </c>
+      <c r="C137" s="1">
         <v>19</v>
       </c>
-      <c r="C137">
-        <v>140</v>
-      </c>
       <c r="D137" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>199</v>
@@ -15064,16 +15085,16 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B138" s="1">
+        <v>138</v>
+      </c>
+      <c r="C138" s="1">
         <v>20</v>
       </c>
-      <c r="C138">
-        <v>46</v>
-      </c>
       <c r="D138" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>199</v>
@@ -15087,16 +15108,16 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B139" s="1">
+        <v>139</v>
+      </c>
+      <c r="C139" s="1">
         <v>21</v>
       </c>
-      <c r="C139">
-        <v>47</v>
-      </c>
       <c r="D139" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>199</v>
@@ -15110,16 +15131,16 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B140" s="1">
+        <v>140</v>
+      </c>
+      <c r="C140" s="1">
         <v>22</v>
       </c>
-      <c r="C140">
-        <v>48</v>
-      </c>
       <c r="D140" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>199</v>
@@ -15133,16 +15154,16 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141" s="1">
+        <v>141</v>
+      </c>
+      <c r="C141" s="1">
         <v>23</v>
       </c>
-      <c r="C141">
-        <v>49</v>
-      </c>
       <c r="D141" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>199</v>
@@ -15156,16 +15177,16 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B142" s="1">
+        <v>142</v>
+      </c>
+      <c r="C142" s="1">
         <v>24</v>
       </c>
-      <c r="C142">
-        <v>50</v>
-      </c>
       <c r="D142" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>199</v>
@@ -15179,16 +15200,16 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143" s="1">
+        <v>143</v>
+      </c>
+      <c r="C143" s="1">
         <v>25</v>
       </c>
-      <c r="C143">
-        <v>51</v>
-      </c>
       <c r="D143" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>199</v>
@@ -15202,16 +15223,16 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B144" s="1">
-        <v>26</v>
-      </c>
-      <c r="C144">
-        <v>52</v>
+        <v>144</v>
+      </c>
+      <c r="C144" s="1">
+        <v>26</v>
       </c>
       <c r="D144" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>199</v>
@@ -15225,16 +15246,16 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B145" s="1">
+        <v>145</v>
+      </c>
+      <c r="C145" s="1">
         <v>27</v>
       </c>
-      <c r="C145">
-        <v>53</v>
-      </c>
       <c r="D145" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>199</v>
@@ -15248,16 +15269,16 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B146" s="1">
+        <v>146</v>
+      </c>
+      <c r="C146" s="1">
         <v>28</v>
       </c>
-      <c r="C146">
-        <v>54</v>
-      </c>
       <c r="D146" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>199</v>
@@ -15271,16 +15292,16 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B147" s="1">
+        <v>147</v>
+      </c>
+      <c r="C147" s="1">
         <v>29</v>
       </c>
-      <c r="C147">
-        <v>55</v>
-      </c>
       <c r="D147" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>199</v>
@@ -15294,13 +15315,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B148" s="1">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="C148" s="1">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="D148" s="1">
         <v>10</v>
@@ -15314,6 +15335,1464 @@
       <c r="G148" s="1" t="s">
         <v>199</v>
       </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>2</v>
+      </c>
+      <c r="B149" s="1">
+        <v>13</v>
+      </c>
+      <c r="C149" s="1">
+        <v>131</v>
+      </c>
+      <c r="D149" s="1">
+        <v>3</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>2</v>
+      </c>
+      <c r="B150" s="1">
+        <v>14</v>
+      </c>
+      <c r="C150" s="1">
+        <v>135</v>
+      </c>
+      <c r="D150" s="1">
+        <v>3</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>2</v>
+      </c>
+      <c r="B151" s="1">
+        <v>15</v>
+      </c>
+      <c r="C151" s="1">
+        <v>136</v>
+      </c>
+      <c r="D151" s="1">
+        <v>3</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>2</v>
+      </c>
+      <c r="B152" s="1">
+        <v>16</v>
+      </c>
+      <c r="C152" s="1">
+        <v>137</v>
+      </c>
+      <c r="D152" s="1">
+        <v>3</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>2</v>
+      </c>
+      <c r="B153" s="1">
+        <v>17</v>
+      </c>
+      <c r="C153" s="1">
+        <v>138</v>
+      </c>
+      <c r="D153" s="1">
+        <v>3</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>2</v>
+      </c>
+      <c r="B154" s="1">
+        <v>18</v>
+      </c>
+      <c r="C154" s="1">
+        <v>139</v>
+      </c>
+      <c r="D154" s="1">
+        <v>3</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>2</v>
+      </c>
+      <c r="B155" s="1">
+        <v>19</v>
+      </c>
+      <c r="C155" s="1">
+        <v>140</v>
+      </c>
+      <c r="D155" s="1">
+        <v>3</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>2</v>
+      </c>
+      <c r="B156" s="1">
+        <v>20</v>
+      </c>
+      <c r="C156" s="1">
+        <v>46</v>
+      </c>
+      <c r="D156" s="1">
+        <v>3</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>2</v>
+      </c>
+      <c r="B157" s="1">
+        <v>21</v>
+      </c>
+      <c r="C157" s="1">
+        <v>47</v>
+      </c>
+      <c r="D157" s="1">
+        <v>3</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>2</v>
+      </c>
+      <c r="B158" s="1">
+        <v>22</v>
+      </c>
+      <c r="C158" s="1">
+        <v>48</v>
+      </c>
+      <c r="D158" s="1">
+        <v>3</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>2</v>
+      </c>
+      <c r="B159" s="1">
+        <v>23</v>
+      </c>
+      <c r="C159" s="1">
+        <v>49</v>
+      </c>
+      <c r="D159" s="1">
+        <v>3</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>2</v>
+      </c>
+      <c r="B160" s="1">
+        <v>24</v>
+      </c>
+      <c r="C160" s="1">
+        <v>50</v>
+      </c>
+      <c r="D160" s="1">
+        <v>3</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>2</v>
+      </c>
+      <c r="B161" s="1">
+        <v>25</v>
+      </c>
+      <c r="C161" s="1">
+        <v>51</v>
+      </c>
+      <c r="D161" s="1">
+        <v>6</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>2</v>
+      </c>
+      <c r="B162" s="1">
+        <v>26</v>
+      </c>
+      <c r="C162" s="1">
+        <v>52</v>
+      </c>
+      <c r="D162" s="1">
+        <v>6</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>2</v>
+      </c>
+      <c r="B163" s="1">
+        <v>27</v>
+      </c>
+      <c r="C163" s="1">
+        <v>53</v>
+      </c>
+      <c r="D163" s="1">
+        <v>6</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>2</v>
+      </c>
+      <c r="B164" s="1">
+        <v>28</v>
+      </c>
+      <c r="C164" s="1">
+        <v>54</v>
+      </c>
+      <c r="D164" s="1">
+        <v>6</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>2</v>
+      </c>
+      <c r="B165" s="1">
+        <v>29</v>
+      </c>
+      <c r="C165" s="1">
+        <v>55</v>
+      </c>
+      <c r="D165" s="1">
+        <v>6</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>2</v>
+      </c>
+      <c r="B166" s="1">
+        <v>35</v>
+      </c>
+      <c r="C166" s="1">
+        <v>13</v>
+      </c>
+      <c r="D166" s="1">
+        <v>5</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>2</v>
+      </c>
+      <c r="B167" s="1">
+        <v>36</v>
+      </c>
+      <c r="C167" s="1">
+        <v>78</v>
+      </c>
+      <c r="D167" s="1">
+        <v>5</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>2</v>
+      </c>
+      <c r="B168" s="1">
+        <v>37</v>
+      </c>
+      <c r="C168" s="1">
+        <v>79</v>
+      </c>
+      <c r="D168" s="1">
+        <v>5</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>2</v>
+      </c>
+      <c r="B169" s="1">
+        <v>38</v>
+      </c>
+      <c r="C169" s="1">
+        <v>80</v>
+      </c>
+      <c r="D169" s="1">
+        <v>5</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>2</v>
+      </c>
+      <c r="B170" s="1">
+        <v>39</v>
+      </c>
+      <c r="C170" s="1">
+        <v>81</v>
+      </c>
+      <c r="D170" s="1">
+        <v>5</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>2</v>
+      </c>
+      <c r="B171" s="1">
+        <v>40</v>
+      </c>
+      <c r="C171" s="1">
+        <v>22</v>
+      </c>
+      <c r="D171" s="1">
+        <v>8</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>2</v>
+      </c>
+      <c r="B172" s="1">
+        <v>41</v>
+      </c>
+      <c r="C172" s="1">
+        <v>110</v>
+      </c>
+      <c r="D172" s="1">
+        <v>8</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>2</v>
+      </c>
+      <c r="B173" s="1">
+        <v>42</v>
+      </c>
+      <c r="C173" s="1">
+        <v>111</v>
+      </c>
+      <c r="D173" s="1">
+        <v>8</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>2</v>
+      </c>
+      <c r="B174" s="1">
+        <v>43</v>
+      </c>
+      <c r="C174" s="1">
+        <v>112</v>
+      </c>
+      <c r="D174" s="1">
+        <v>8</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>2</v>
+      </c>
+      <c r="B175" s="1">
+        <v>44</v>
+      </c>
+      <c r="C175" s="1">
+        <v>113</v>
+      </c>
+      <c r="D175" s="1">
+        <v>8</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>2</v>
+      </c>
+      <c r="B176" s="1">
+        <v>45</v>
+      </c>
+      <c r="C176" s="1">
+        <v>114</v>
+      </c>
+      <c r="D176" s="1">
+        <v>8</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>2</v>
+      </c>
+      <c r="B177" s="1">
+        <v>46</v>
+      </c>
+      <c r="C177" s="1">
+        <v>115</v>
+      </c>
+      <c r="D177" s="1">
+        <v>8</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>2</v>
+      </c>
+      <c r="B178" s="1">
+        <v>47</v>
+      </c>
+      <c r="C178" s="1">
+        <v>116</v>
+      </c>
+      <c r="D178" s="1">
+        <v>8</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>2</v>
+      </c>
+      <c r="B179" s="1">
+        <v>48</v>
+      </c>
+      <c r="C179" s="1">
+        <v>117</v>
+      </c>
+      <c r="D179" s="1">
+        <v>8</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>2</v>
+      </c>
+      <c r="B180" s="1">
+        <v>49</v>
+      </c>
+      <c r="C180" s="1">
+        <v>118</v>
+      </c>
+      <c r="D180" s="1">
+        <v>8</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>2</v>
+      </c>
+      <c r="B181" s="1">
+        <v>50</v>
+      </c>
+      <c r="C181" s="1">
+        <v>119</v>
+      </c>
+      <c r="D181" s="1">
+        <v>8</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>2</v>
+      </c>
+      <c r="B182" s="1">
+        <v>51</v>
+      </c>
+      <c r="C182" s="1">
+        <v>120</v>
+      </c>
+      <c r="D182" s="1">
+        <v>8</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>2</v>
+      </c>
+      <c r="B183" s="1">
+        <v>52</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1</v>
+      </c>
+      <c r="D183" s="1">
+        <v>1</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>2</v>
+      </c>
+      <c r="B184" s="1">
+        <v>53</v>
+      </c>
+      <c r="C184" s="1">
+        <v>31</v>
+      </c>
+      <c r="D184" s="1">
+        <v>1</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>2</v>
+      </c>
+      <c r="B185" s="1">
+        <v>54</v>
+      </c>
+      <c r="C185" s="1">
+        <v>32</v>
+      </c>
+      <c r="D185" s="1">
+        <v>1</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>2</v>
+      </c>
+      <c r="B186" s="1">
+        <v>55</v>
+      </c>
+      <c r="C186" s="1">
+        <v>33</v>
+      </c>
+      <c r="D186" s="1">
+        <v>1</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>2</v>
+      </c>
+      <c r="B187" s="1">
+        <v>56</v>
+      </c>
+      <c r="C187" s="1">
+        <v>34</v>
+      </c>
+      <c r="D187" s="1">
+        <v>1</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>2</v>
+      </c>
+      <c r="B188" s="1">
+        <v>57</v>
+      </c>
+      <c r="C188" s="1">
+        <v>2</v>
+      </c>
+      <c r="D188" s="1">
+        <v>1</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>2</v>
+      </c>
+      <c r="B189" s="1">
+        <v>58</v>
+      </c>
+      <c r="C189" s="1">
+        <v>38</v>
+      </c>
+      <c r="D189" s="1">
+        <v>1</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>2</v>
+      </c>
+      <c r="B190" s="1">
+        <v>65</v>
+      </c>
+      <c r="C190" s="1">
+        <v>26</v>
+      </c>
+      <c r="D190" s="1">
+        <v>9</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>2</v>
+      </c>
+      <c r="B191" s="1">
+        <v>66</v>
+      </c>
+      <c r="C191" s="1">
+        <v>132</v>
+      </c>
+      <c r="D191" s="1">
+        <v>9</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>2</v>
+      </c>
+      <c r="B192" s="1">
+        <v>67</v>
+      </c>
+      <c r="C192" s="1">
+        <v>133</v>
+      </c>
+      <c r="D192" s="1">
+        <v>9</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>2</v>
+      </c>
+      <c r="B193" s="1">
+        <v>68</v>
+      </c>
+      <c r="C193" s="1">
+        <v>134</v>
+      </c>
+      <c r="D193" s="1">
+        <v>9</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>2</v>
+      </c>
+      <c r="B194" s="1">
+        <v>69</v>
+      </c>
+      <c r="C194" s="1">
+        <v>135</v>
+      </c>
+      <c r="D194" s="1">
+        <v>9</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>2</v>
+      </c>
+      <c r="B195" s="1">
+        <v>70</v>
+      </c>
+      <c r="C195" s="1">
+        <v>136</v>
+      </c>
+      <c r="D195" s="1">
+        <v>9</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>2</v>
+      </c>
+      <c r="B196" s="1">
+        <v>71</v>
+      </c>
+      <c r="C196" s="1">
+        <v>137</v>
+      </c>
+      <c r="D196" s="1">
+        <v>9</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>2</v>
+      </c>
+      <c r="B197" s="1">
+        <v>72</v>
+      </c>
+      <c r="C197" s="1">
+        <v>4</v>
+      </c>
+      <c r="D197" s="1">
+        <v>2</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>2</v>
+      </c>
+      <c r="B198" s="1">
+        <v>73</v>
+      </c>
+      <c r="C198" s="1">
+        <v>46</v>
+      </c>
+      <c r="D198" s="1">
+        <v>2</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>2</v>
+      </c>
+      <c r="B199" s="1">
+        <v>74</v>
+      </c>
+      <c r="C199" s="1">
+        <v>6</v>
+      </c>
+      <c r="D199" s="1">
+        <v>2</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>2</v>
+      </c>
+      <c r="B200" s="1">
+        <v>75</v>
+      </c>
+      <c r="C200" s="1">
+        <v>53</v>
+      </c>
+      <c r="D200" s="1">
+        <v>2</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>2</v>
+      </c>
+      <c r="B201" s="1">
+        <v>76</v>
+      </c>
+      <c r="C201" s="1">
+        <v>54</v>
+      </c>
+      <c r="D201" s="1">
+        <v>2</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>2</v>
+      </c>
+      <c r="B202" s="1">
+        <v>77</v>
+      </c>
+      <c r="C202" s="1">
+        <v>55</v>
+      </c>
+      <c r="D202" s="1">
+        <v>2</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>6</v>
+      </c>
+      <c r="B203" s="1">
+        <v>1</v>
+      </c>
+      <c r="C203" s="1">
+        <v>145</v>
+      </c>
+      <c r="D203" s="1">
+        <v>10</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>6</v>
+      </c>
+      <c r="B204" s="1">
+        <v>2</v>
+      </c>
+      <c r="C204" s="1">
+        <v>2</v>
+      </c>
+      <c r="D204" s="1">
+        <v>1</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>6</v>
+      </c>
+      <c r="B205" s="1">
+        <v>3</v>
+      </c>
+      <c r="C205" s="1">
+        <v>35</v>
+      </c>
+      <c r="D205" s="1">
+        <v>1</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>6</v>
+      </c>
+      <c r="B206" s="1">
+        <v>4</v>
+      </c>
+      <c r="C206" s="1">
+        <v>36</v>
+      </c>
+      <c r="D206" s="1">
+        <v>1</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>6</v>
+      </c>
+      <c r="B207" s="1">
+        <v>5</v>
+      </c>
+      <c r="C207" s="1">
+        <v>37</v>
+      </c>
+      <c r="D207" s="1">
+        <v>1</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>6</v>
+      </c>
+      <c r="B208" s="1">
+        <v>6</v>
+      </c>
+      <c r="C208" s="1">
+        <v>38</v>
+      </c>
+      <c r="D208" s="1">
+        <v>1</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>6</v>
+      </c>
+      <c r="B209" s="1">
+        <v>7</v>
+      </c>
+      <c r="C209" s="1">
+        <v>39</v>
+      </c>
+      <c r="D209" s="1">
+        <v>1</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>6</v>
+      </c>
+      <c r="B210" s="1">
+        <v>8</v>
+      </c>
+      <c r="C210" s="1">
+        <v>40</v>
+      </c>
+      <c r="D210" s="1">
+        <v>1</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>6</v>
+      </c>
+      <c r="B211" s="1">
+        <v>9</v>
+      </c>
+      <c r="C211" s="1">
+        <v>41</v>
+      </c>
+      <c r="D211" s="1">
+        <v>1</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15322,14 +16801,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15398,7 +16879,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>204</v>
@@ -15410,7 +16891,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -15418,7 +16899,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>204</v>
@@ -15438,7 +16919,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>201</v>
@@ -15452,6 +16933,54 @@
       <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>117</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15460,20 +16989,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="59.5703125" customWidth="1"/>
-    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="60.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -15483,26 +17015,26 @@
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="H1" s="1">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J1" s="1">
-        <v>994996660</v>
       </c>
       <c r="K1" s="1">
         <v>994996660</v>
@@ -15513,14 +17045,17 @@
       <c r="M1" s="1">
         <v>994996660</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N1" s="1">
+        <v>994996660</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -15530,26 +17065,26 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J2" s="1">
-        <v>994996660</v>
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="K2" s="1">
         <v>994996660</v>
@@ -15560,14 +17095,17 @@
       <c r="M2" s="1">
         <v>994996660</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N2" s="1">
+        <v>994996660</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -15577,26 +17115,26 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J3" s="1">
-        <v>994996660</v>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="K3" s="1">
         <v>994996660</v>
@@ -15607,14 +17145,17 @@
       <c r="M3" s="1">
         <v>994996660</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N3" s="1">
+        <v>994996660</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -15624,26 +17165,26 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J4" s="1">
-        <v>994996660</v>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="K4" s="1">
         <v>994996660</v>
@@ -15654,14 +17195,17 @@
       <c r="M4" s="1">
         <v>994996660</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N4" s="1">
+        <v>994996660</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -15671,26 +17215,26 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J5" s="1">
-        <v>994996660</v>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="K5" s="1">
         <v>994996660</v>
@@ -15701,14 +17245,17 @@
       <c r="M5" s="1">
         <v>994996660</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N5" s="1">
+        <v>994996660</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -15718,26 +17265,26 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J6" s="1">
-        <v>994996660</v>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="K6" s="1">
         <v>994996660</v>
@@ -15748,14 +17295,17 @@
       <c r="M6" s="1">
         <v>994996660</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N6" s="1">
+        <v>994996660</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -15765,26 +17315,26 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J7" s="1">
-        <v>994996660</v>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="K7" s="1">
         <v>994996660</v>
@@ -15795,14 +17345,17 @@
       <c r="M7" s="1">
         <v>994996660</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <v>994996660</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -15812,26 +17365,26 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J8" s="1">
-        <v>994996660</v>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="K8" s="1">
         <v>994996660</v>
@@ -15842,14 +17395,17 @@
       <c r="M8" s="1">
         <v>994996660</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N8" s="1">
+        <v>994996660</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -15859,26 +17415,26 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>215</v>
+      <c r="D9" s="1">
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J9" s="1">
-        <v>994996660</v>
       </c>
       <c r="K9" s="1">
         <v>994996660</v>
@@ -15889,14 +17445,17 @@
       <c r="M9" s="1">
         <v>994996660</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N9" s="1">
+        <v>994996660</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -15906,26 +17465,26 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J10" s="1">
-        <v>994996660</v>
       </c>
       <c r="K10" s="1">
         <v>994996660</v>
@@ -15936,14 +17495,17 @@
       <c r="M10" s="1">
         <v>994996660</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N10" s="1">
+        <v>994996660</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -15953,26 +17515,26 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J11" s="1">
-        <v>994996660</v>
       </c>
       <c r="K11" s="1">
         <v>994996660</v>
@@ -15983,14 +17545,17 @@
       <c r="M11" s="1">
         <v>994996660</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N11" s="1">
+        <v>994996660</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>21</v>
       </c>
@@ -16000,26 +17565,26 @@
       <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J12" s="1">
-        <v>994996660</v>
       </c>
       <c r="K12" s="1">
         <v>994996660</v>
@@ -16030,14 +17595,17 @@
       <c r="M12" s="1">
         <v>994996660</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N12" s="1">
+        <v>994996660</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>31</v>
       </c>
@@ -16047,29 +17615,29 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>990144207</v>
-      </c>
-      <c r="K13" s="1">
-        <v>994996660</v>
       </c>
       <c r="L13" s="1">
         <v>994996660</v>
@@ -16077,14 +17645,17 @@
       <c r="M13" s="1">
         <v>994996660</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N13" s="1">
+        <v>994996660</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>41</v>
       </c>
@@ -16094,26 +17665,26 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J14" s="1">
-        <v>994996660</v>
       </c>
       <c r="K14" s="1">
         <v>994996660</v>
@@ -16124,14 +17695,17 @@
       <c r="M14" s="1">
         <v>994996660</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N14" s="1">
+        <v>994996660</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>51</v>
       </c>
@@ -16141,26 +17715,26 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J15" s="1">
-        <v>994996660</v>
       </c>
       <c r="K15" s="1">
         <v>994996660</v>
@@ -16171,14 +17745,17 @@
       <c r="M15" s="1">
         <v>994996660</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N15" s="1">
+        <v>994996660</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>61</v>
       </c>
@@ -16188,26 +17765,26 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>239</v>
+      <c r="D16" s="1">
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J16" s="1">
-        <v>994996660</v>
       </c>
       <c r="K16" s="1">
         <v>994996660</v>
@@ -16218,12 +17795,83 @@
       <c r="M16" s="1">
         <v>994996660</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
+      <c r="N16" s="1">
+        <v>994996660</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>117</v>
+      </c>
+      <c r="B17" s="1">
+        <v>998889293</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>981252627</v>
+      </c>
+      <c r="M17" s="1">
+        <v>4398373</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16234,8 +17882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:A55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17084,10 +18732,10 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
+        <v>239</v>
+      </c>
+      <c r="E37" t="s">
         <v>240</v>
-      </c>
-      <c r="E37" t="s">
-        <v>241</v>
       </c>
       <c r="F37" t="s">
         <v>26</v>
@@ -17107,10 +18755,10 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
+        <v>241</v>
+      </c>
+      <c r="E38" t="s">
         <v>242</v>
-      </c>
-      <c r="E38" t="s">
-        <v>243</v>
       </c>
       <c r="F38" t="s">
         <v>26</v>
@@ -17130,10 +18778,10 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F39" t="s">
         <v>26</v>

--- a/provisional/inserts.xlsx
+++ b/provisional/inserts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21720" windowHeight="10035" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21720" windowHeight="10035" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="inserts iniciales" sheetId="3" r:id="rId1"/>
@@ -16991,8 +16991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17882,8 +17882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B30"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/provisional/inserts.xlsx
+++ b/provisional/inserts.xlsx
@@ -16804,7 +16804,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17882,9 +17882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/provisional/inserts.xlsx
+++ b/provisional/inserts.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub_Seguridad\BaseSistemasIntegrados\provisional\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="21720" windowHeight="10035" activeTab="5"/>
   </bookViews>
@@ -14,12 +19,12 @@
     <sheet name="Persona" sheetId="7" r:id="rId5"/>
     <sheet name="Menu2" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="276">
   <si>
     <t>NULL</t>
   </si>
@@ -775,6 +780,78 @@
   </si>
   <si>
     <t>LuisC_@hotmail.com</t>
+  </si>
+  <si>
+    <t>Activo fijo</t>
+  </si>
+  <si>
+    <t>Baja de activo</t>
+  </si>
+  <si>
+    <t>Codigo de barra</t>
+  </si>
+  <si>
+    <t>Depreciacion</t>
+  </si>
+  <si>
+    <t>Registrar activo fijo</t>
+  </si>
+  <si>
+    <t>Transferencia</t>
+  </si>
+  <si>
+    <t>Dar de baja</t>
+  </si>
+  <si>
+    <t>Ventas de Activos</t>
+  </si>
+  <si>
+    <t>Inventario disponible</t>
+  </si>
+  <si>
+    <t>Depreciacion Actual</t>
+  </si>
+  <si>
+    <t>Reporte de Baja de Activo</t>
+  </si>
+  <si>
+    <t>ActivoFijo.mntDivicionCodBarra</t>
+  </si>
+  <si>
+    <t>ActivoFijo.mntTipoBaja</t>
+  </si>
+  <si>
+    <t>ActivoFijo.mntActivoFIjo</t>
+  </si>
+  <si>
+    <t>ActivoFijo.prcsDepreciacion</t>
+  </si>
+  <si>
+    <t>ActivoFijo.prcsActivoFijo</t>
+  </si>
+  <si>
+    <t>ActivoFijo.prcsTransferencia</t>
+  </si>
+  <si>
+    <t>ActivoFijo.prcsBajasActivos</t>
+  </si>
+  <si>
+    <t>ActivoFijo.prcsVentaGaraje</t>
+  </si>
+  <si>
+    <t>Revalorizacion</t>
+  </si>
+  <si>
+    <t>ActivoFijo.prcsRevalorizacion</t>
+  </si>
+  <si>
+    <t>ActivoFijo.RptInventarioDisponible</t>
+  </si>
+  <si>
+    <t>ActivoFijo.RptDepreciacionActual</t>
+  </si>
+  <si>
+    <t>ActivoFijo.RptBajaActivo</t>
   </si>
 </sst>
 </file>
@@ -884,7 +961,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -919,7 +996,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11926,8 +12003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A188" workbookViewId="0">
+      <selection sqref="A1:G211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17882,7 +17959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17892,3403 +17971,3404 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>6</v>
       </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>6</v>
       </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>7</v>
       </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>7</v>
       </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>8</v>
       </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>8</v>
       </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="E23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>8</v>
       </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="E24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
         <v>9</v>
       </c>
-      <c r="C26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>9</v>
       </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>10</v>
       </c>
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28">
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>10</v>
       </c>
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="E29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>10</v>
       </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31">
+      <c r="F31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32">
+      <c r="F32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33">
+      <c r="F33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34">
+      <c r="F34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
         <v>2</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35">
+      <c r="F35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>36</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36">
+      <c r="F36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
         <v>2</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37">
+      <c r="F37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>38</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
         <v>2</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38">
+      <c r="F38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>39</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
         <v>2</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39">
+      <c r="F39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>40</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
         <v>2</v>
       </c>
-      <c r="E40" t="s">
-        <v>0</v>
-      </c>
-      <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>41</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
         <v>2</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41">
+      <c r="F41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>42</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
         <v>3</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42">
+      <c r="F42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
         <v>3</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F43" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43">
+      <c r="F43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>44</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
         <v>3</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44">
+      <c r="F44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>45</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
         <v>3</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45">
+      <c r="F45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>2</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>4</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46">
+      <c r="F46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>47</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>2</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>5</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E47" t="s">
-        <v>0</v>
-      </c>
-      <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47">
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>48</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>2</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>5</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E48" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48">
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>2</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>5</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E49" t="s">
-        <v>0</v>
-      </c>
-      <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49">
+      <c r="E49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>50</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>2</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>5</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E50" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50">
+      <c r="E50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>51</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>2</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>5</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E51" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51">
+      <c r="E51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>52</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>2</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>5</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E52" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52">
+      <c r="E52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>53</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>2</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>6</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E53" t="s">
-        <v>0</v>
-      </c>
-      <c r="F53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53">
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>54</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>2</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>6</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E54" t="s">
-        <v>0</v>
-      </c>
-      <c r="F54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54">
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>55</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>2</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>6</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E55" t="s">
-        <v>0</v>
-      </c>
-      <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55">
+      <c r="E55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>56</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>3</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>7</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56">
+      <c r="E56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>57</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>3</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>7</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E57" t="s">
-        <v>0</v>
-      </c>
-      <c r="F57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57">
+      <c r="E57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>58</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>3</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>7</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E58" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58">
+      <c r="E58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>59</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>3</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>7</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E59" t="s">
-        <v>0</v>
-      </c>
-      <c r="F59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59">
+      <c r="E59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>60</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>3</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>8</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E60" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60">
+      <c r="E60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>61</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>3</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>8</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E61" t="s">
-        <v>0</v>
-      </c>
-      <c r="F61" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61">
+      <c r="E61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>62</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>3</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>8</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E62" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62">
+      <c r="E62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>63</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>3</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>8</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E63" t="s">
-        <v>0</v>
-      </c>
-      <c r="F63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63">
+      <c r="E63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>64</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>3</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>9</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E64" t="s">
-        <v>0</v>
-      </c>
-      <c r="F64" t="s">
-        <v>45</v>
-      </c>
-      <c r="G64">
+      <c r="E64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>65</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>4</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>10</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E65" t="s">
-        <v>0</v>
-      </c>
-      <c r="F65" t="s">
-        <v>42</v>
-      </c>
-      <c r="G65">
+      <c r="E65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>66</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>4</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>10</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E66" t="s">
-        <v>0</v>
-      </c>
-      <c r="F66" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66">
+      <c r="E66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>67</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>4</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>10</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E67" t="s">
-        <v>0</v>
-      </c>
-      <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67">
+      <c r="E67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>68</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>4</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>10</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E68" t="s">
-        <v>0</v>
-      </c>
-      <c r="F68" t="s">
-        <v>45</v>
-      </c>
-      <c r="G68">
+      <c r="E68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>69</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>4</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>10</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E69" t="s">
-        <v>0</v>
-      </c>
-      <c r="F69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69">
+      <c r="E69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>70</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>4</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>10</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E70" t="s">
-        <v>0</v>
-      </c>
-      <c r="F70" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70">
+      <c r="E70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>71</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>4</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>11</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E71" t="s">
-        <v>0</v>
-      </c>
-      <c r="F71" t="s">
-        <v>42</v>
-      </c>
-      <c r="G71">
+      <c r="E71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>72</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>4</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>11</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E72" t="s">
-        <v>0</v>
-      </c>
-      <c r="F72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72">
+      <c r="E72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>73</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>4</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>11</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E73" t="s">
-        <v>0</v>
-      </c>
-      <c r="F73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73">
+      <c r="E73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>74</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>4</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>12</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E74" t="s">
-        <v>0</v>
-      </c>
-      <c r="F74" t="s">
-        <v>42</v>
-      </c>
-      <c r="G74">
+      <c r="E74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>75</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>4</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>12</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E75" t="s">
-        <v>0</v>
-      </c>
-      <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75">
+      <c r="E75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>76</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>4</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>12</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E76" t="s">
-        <v>0</v>
-      </c>
-      <c r="F76" t="s">
-        <v>45</v>
-      </c>
-      <c r="G76">
+      <c r="E76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>77</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>4</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>12</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E77" t="s">
-        <v>0</v>
-      </c>
-      <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77">
+      <c r="E77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>78</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>5</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>13</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F78" t="s">
-        <v>42</v>
-      </c>
-      <c r="G78">
+      <c r="F78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>79</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>5</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>13</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79">
+      <c r="F79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>80</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>5</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>13</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F80" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80">
+      <c r="F80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>81</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>5</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>13</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F81" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81">
+      <c r="F81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>82</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>5</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>14</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F82" t="s">
-        <v>42</v>
-      </c>
-      <c r="G82">
+      <c r="F82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>83</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>5</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>14</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83">
+      <c r="F83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>84</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>5</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>14</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84">
+      <c r="F84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>85</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>5</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>15</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F85" t="s">
-        <v>42</v>
-      </c>
-      <c r="G85">
+      <c r="F85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>86</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>5</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>15</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F86" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86">
+      <c r="F86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>87</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>5</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>15</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F87" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87">
+      <c r="F87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>88</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>6</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>16</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F88" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88">
+      <c r="F88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>89</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>6</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>16</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F89" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89">
+      <c r="F89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>90</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>6</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>16</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90">
+      <c r="F90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>91</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>6</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>16</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E91" t="s">
-        <v>0</v>
-      </c>
-      <c r="F91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91">
+      <c r="E91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>92</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>6</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>16</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F92" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92">
+      <c r="F92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>93</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>6</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>16</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F93" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93">
+      <c r="F93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>94</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>6</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>17</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F94" t="s">
-        <v>42</v>
-      </c>
-      <c r="G94">
+      <c r="F94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>95</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>6</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>17</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95">
+      <c r="F95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>96</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>6</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>17</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F96" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96">
+      <c r="F96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>97</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>6</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>17</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F97" t="s">
-        <v>45</v>
-      </c>
-      <c r="G97">
+      <c r="F97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>98</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>6</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>17</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98">
+      <c r="F98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>99</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="1">
         <v>6</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>17</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99">
+      <c r="F99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>100</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>6</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>18</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F100" t="s">
-        <v>42</v>
-      </c>
-      <c r="G100">
+      <c r="F100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G100" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>101</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>6</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>18</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101">
+      <c r="F101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>102</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>6</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>18</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F102" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102">
+      <c r="F102" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>103</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1">
         <v>7</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>19</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F103" t="s">
-        <v>42</v>
-      </c>
-      <c r="G103">
+      <c r="F103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G103" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>104</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="1">
         <v>7</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>19</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F104" t="s">
-        <v>26</v>
-      </c>
-      <c r="G104">
+      <c r="F104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G104" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>105</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="1">
         <v>7</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>19</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105">
+      <c r="F105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G105" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>106</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="1">
         <v>7</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>20</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F106" t="s">
-        <v>42</v>
-      </c>
-      <c r="G106">
+      <c r="F106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G106" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>107</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="1">
         <v>7</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>20</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F107" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107">
+      <c r="F107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>108</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="1">
         <v>7</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>20</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F108" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108">
+      <c r="F108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>109</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="1">
         <v>7</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>21</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F109" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109">
+      <c r="F109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="1">
         <v>110</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1">
         <v>8</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>22</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F110" t="s">
-        <v>42</v>
-      </c>
-      <c r="G110">
+      <c r="F110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>111</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="1">
         <v>8</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>22</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F111" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111">
+      <c r="F111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="1">
         <v>112</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="1">
         <v>8</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>22</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F112" t="s">
-        <v>26</v>
-      </c>
-      <c r="G112">
+      <c r="F112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="1">
         <v>113</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="1">
         <v>8</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>22</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F113" t="s">
-        <v>42</v>
-      </c>
-      <c r="G113">
+      <c r="F113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G113" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="1">
         <v>114</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1">
         <v>8</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>22</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F114" t="s">
-        <v>26</v>
-      </c>
-      <c r="G114">
+      <c r="F114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="1">
         <v>115</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="1">
         <v>8</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>22</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F115" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115">
+      <c r="F115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G115" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="1">
         <v>116</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="1">
         <v>8</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>22</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F116" t="s">
-        <v>42</v>
-      </c>
-      <c r="G116">
+      <c r="F116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G116" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="1">
         <v>117</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="1">
         <v>8</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>22</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F117" t="s">
-        <v>26</v>
-      </c>
-      <c r="G117">
+      <c r="F117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G117" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="1">
         <v>118</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="1">
         <v>8</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>22</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F118" t="s">
-        <v>26</v>
-      </c>
-      <c r="G118">
+      <c r="F118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="1">
         <v>119</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="1">
         <v>8</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>22</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F119" t="s">
-        <v>42</v>
-      </c>
-      <c r="G119">
+      <c r="F119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="1">
         <v>120</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="1">
         <v>8</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>22</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F120" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120">
+      <c r="F120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G120" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="1">
         <v>121</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="1">
         <v>8</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>23</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F121" t="s">
-        <v>42</v>
-      </c>
-      <c r="G121">
+      <c r="F121" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="1">
         <v>122</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="1">
         <v>8</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>23</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F122" t="s">
-        <v>42</v>
-      </c>
-      <c r="G122">
+      <c r="F122" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G122" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="1">
         <v>123</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="1">
         <v>8</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>23</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F123" t="s">
-        <v>42</v>
-      </c>
-      <c r="G123">
+      <c r="F123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="1">
         <v>124</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="1">
         <v>8</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>23</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F124" t="s">
-        <v>26</v>
-      </c>
-      <c r="G124">
+      <c r="F124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G124" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="1">
         <v>125</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="1">
         <v>8</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>23</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F125" t="s">
-        <v>26</v>
-      </c>
-      <c r="G125">
+      <c r="F125" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G125" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="1">
         <v>126</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="1">
         <v>8</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>23</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F126" t="s">
-        <v>45</v>
-      </c>
-      <c r="G126">
+      <c r="F126" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="1">
         <v>127</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="1">
         <v>8</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>23</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F127" t="s">
-        <v>26</v>
-      </c>
-      <c r="G127">
+      <c r="F127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G127" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="1">
         <v>128</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="1">
         <v>8</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>23</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F128" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128">
+      <c r="F128" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="1">
         <v>129</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="1">
         <v>9</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>25</v>
       </c>
-      <c r="D129" t="s">
-        <v>51</v>
-      </c>
-      <c r="E129" t="s">
-        <v>0</v>
-      </c>
-      <c r="F129" t="s">
-        <v>42</v>
-      </c>
-      <c r="G129">
+      <c r="D129" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G129" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="1">
         <v>130</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="1">
         <v>9</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
         <v>25</v>
       </c>
-      <c r="D130" t="s">
-        <v>52</v>
-      </c>
-      <c r="E130" t="s">
-        <v>0</v>
-      </c>
-      <c r="F130" t="s">
-        <v>26</v>
-      </c>
-      <c r="G130">
+      <c r="D130" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G130" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="1">
         <v>131</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="1">
         <v>9</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1">
         <v>25</v>
       </c>
-      <c r="D131" t="s">
-        <v>53</v>
-      </c>
-      <c r="E131" t="s">
-        <v>0</v>
-      </c>
-      <c r="F131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G131">
+      <c r="D131" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G131" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="1">
         <v>132</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="1">
         <v>9</v>
       </c>
-      <c r="C132">
-        <v>26</v>
-      </c>
-      <c r="D132" t="s">
-        <v>54</v>
-      </c>
-      <c r="E132" t="s">
-        <v>0</v>
-      </c>
-      <c r="F132" t="s">
-        <v>42</v>
-      </c>
-      <c r="G132">
+      <c r="C132" s="1">
+        <v>26</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G132" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="1">
         <v>133</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="1">
         <v>9</v>
       </c>
-      <c r="C133">
-        <v>26</v>
-      </c>
-      <c r="D133" t="s">
-        <v>55</v>
-      </c>
-      <c r="E133" t="s">
-        <v>0</v>
-      </c>
-      <c r="F133" t="s">
-        <v>26</v>
-      </c>
-      <c r="G133">
+      <c r="C133" s="1">
+        <v>26</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G133" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="1">
         <v>134</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="1">
         <v>9</v>
       </c>
-      <c r="C134">
-        <v>26</v>
-      </c>
-      <c r="D134" t="s">
-        <v>56</v>
-      </c>
-      <c r="E134" t="s">
-        <v>0</v>
-      </c>
-      <c r="F134" t="s">
-        <v>26</v>
-      </c>
-      <c r="G134">
+      <c r="C134" s="1">
+        <v>26</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G134" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="1">
         <v>135</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="1">
         <v>9</v>
       </c>
-      <c r="C135">
-        <v>26</v>
-      </c>
-      <c r="D135" t="s">
-        <v>57</v>
-      </c>
-      <c r="E135" t="s">
-        <v>0</v>
-      </c>
-      <c r="F135" t="s">
-        <v>45</v>
-      </c>
-      <c r="G135">
+      <c r="C135" s="1">
+        <v>26</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G135" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="1">
         <v>136</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="1">
         <v>9</v>
       </c>
-      <c r="C136">
-        <v>26</v>
-      </c>
-      <c r="D136" t="s">
-        <v>58</v>
-      </c>
-      <c r="E136" t="s">
-        <v>0</v>
-      </c>
-      <c r="F136" t="s">
-        <v>26</v>
-      </c>
-      <c r="G136">
+      <c r="C136" s="1">
+        <v>26</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G136" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="1">
         <v>137</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="1">
         <v>9</v>
       </c>
-      <c r="C137">
-        <v>26</v>
-      </c>
-      <c r="D137" t="s">
-        <v>59</v>
-      </c>
-      <c r="E137" t="s">
-        <v>0</v>
-      </c>
-      <c r="F137" t="s">
-        <v>26</v>
-      </c>
-      <c r="G137">
+      <c r="C137" s="1">
+        <v>26</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G137" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="1">
         <v>138</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="1">
         <v>9</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="1">
         <v>27</v>
       </c>
-      <c r="D138" t="s">
-        <v>35</v>
-      </c>
-      <c r="E138" t="s">
-        <v>0</v>
-      </c>
-      <c r="F138" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138">
+      <c r="D138" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G138" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="1">
         <v>139</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="1">
         <v>9</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="1">
         <v>27</v>
       </c>
-      <c r="D139" t="s">
-        <v>36</v>
-      </c>
-      <c r="E139" t="s">
-        <v>0</v>
-      </c>
-      <c r="F139" t="s">
-        <v>26</v>
-      </c>
-      <c r="G139">
+      <c r="D139" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G139" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="1">
         <v>140</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="1">
         <v>9</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="1">
         <v>27</v>
       </c>
-      <c r="D140" t="s">
-        <v>33</v>
-      </c>
-      <c r="E140" t="s">
-        <v>0</v>
-      </c>
-      <c r="F140" t="s">
-        <v>26</v>
-      </c>
-      <c r="G140">
+      <c r="D140" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G140" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="1">
         <v>141</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="1">
         <v>10</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="1">
         <v>28</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F141" t="s">
-        <v>42</v>
-      </c>
-      <c r="G141">
+      <c r="F141" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G141" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="1">
         <v>142</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="1">
         <v>10</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="1">
         <v>28</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F142" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142">
+      <c r="F142" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G142" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="1">
         <v>143</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="1">
         <v>10</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <v>28</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F143" t="s">
-        <v>26</v>
-      </c>
-      <c r="G143">
+      <c r="F143" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G143" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="1">
         <v>144</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="1">
         <v>10</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="1">
         <v>29</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F144" t="s">
-        <v>42</v>
-      </c>
-      <c r="G144">
+      <c r="F144" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G144" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="1">
         <v>145</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="1">
         <v>10</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="1">
         <v>29</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F145" t="s">
-        <v>26</v>
-      </c>
-      <c r="G145">
+      <c r="F145" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G145" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="1">
         <v>146</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="1">
         <v>10</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="1">
         <v>29</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F146" t="s">
-        <v>26</v>
-      </c>
-      <c r="G146">
+      <c r="F146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G146" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="1">
         <v>147</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="1">
         <v>10</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <v>30</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F147" t="s">
-        <v>26</v>
-      </c>
-      <c r="G147">
+      <c r="F147" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G147" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="1">
         <v>148</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="1">
         <v>10</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="1">
         <v>30</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F148" t="s">
-        <v>26</v>
-      </c>
-      <c r="G148">
+      <c r="F148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G148" s="1">
         <v>1</v>
       </c>
     </row>

--- a/provisional/inserts.xlsx
+++ b/provisional/inserts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21720" windowHeight="10035" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21720" windowHeight="10035" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="inserts iniciales" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5307" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5311" uniqueCount="306">
   <si>
     <t>NULL</t>
   </si>
@@ -872,18 +872,6 @@
     <t>Inventario.frmUnidadMedida</t>
   </si>
   <si>
-    <t>Motivo</t>
-  </si>
-  <si>
-    <t>Inventario.frmMotivo</t>
-  </si>
-  <si>
-    <t>Tipo de Articulo</t>
-  </si>
-  <si>
-    <t>Inventario.frmTipoArticulo</t>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -948,6 +936,15 @@
   </si>
   <si>
     <t>por definir</t>
+  </si>
+  <si>
+    <t>Asignar Perfil</t>
+  </si>
+  <si>
+    <t>Contabilidad.FormListaModeloAsientos</t>
+  </si>
+  <si>
+    <t>Contabilidad.frmComprobante</t>
   </si>
 </sst>
 </file>
@@ -17362,11 +17359,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="F160" sqref="F160"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18214,7 +18209,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>239</v>
+        <v>303</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>16</v>
@@ -18260,7 +18255,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>240</v>
@@ -18282,7 +18277,9 @@
       <c r="C40" s="1">
         <v>2</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="E40" s="1" t="s">
         <v>0</v>
       </c>
@@ -18639,491 +18636,483 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>33</v>
-      </c>
-      <c r="B56">
+      <c r="A56" s="1">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1">
         <v>3</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>7</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56">
+      <c r="F56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>34</v>
-      </c>
-      <c r="B57">
+      <c r="A57" s="1">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1">
         <v>3</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>7</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57">
+      <c r="F57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>35</v>
-      </c>
-      <c r="B58">
+      <c r="A58" s="1">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1">
         <v>3</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>7</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58">
+      <c r="F58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>36</v>
-      </c>
-      <c r="B59">
+      <c r="A59" s="1">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1">
         <v>3</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>7</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>60</v>
+      </c>
+      <c r="B60" s="1">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1">
+        <v>7</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E61" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="F61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1">
+        <v>7</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1">
+        <v>7</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1">
+        <v>7</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>65</v>
+      </c>
+      <c r="B65" s="1">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1">
+        <v>7</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>68</v>
+      </c>
+      <c r="B68" s="1">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>69</v>
+      </c>
+      <c r="B69" s="1">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B60">
+      <c r="E70" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>71</v>
+      </c>
+      <c r="B71" s="1">
         <v>3</v>
       </c>
-      <c r="C60">
-        <v>7</v>
-      </c>
-      <c r="D60" t="s">
-        <v>283</v>
-      </c>
-      <c r="E60" t="s">
-        <v>284</v>
-      </c>
-      <c r="F60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>38</v>
-      </c>
-      <c r="B61">
+      <c r="C71" s="1">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>72</v>
+      </c>
+      <c r="B72" s="1">
         <v>3</v>
       </c>
-      <c r="C61">
-        <v>7</v>
-      </c>
-      <c r="D61" t="s">
-        <v>285</v>
-      </c>
-      <c r="E61" t="s">
-        <v>286</v>
-      </c>
-      <c r="F61" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>39</v>
-      </c>
-      <c r="B62">
+      <c r="C72" s="1">
+        <v>8</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>73</v>
+      </c>
+      <c r="B73" s="1">
         <v>3</v>
       </c>
-      <c r="C62">
-        <v>7</v>
-      </c>
-      <c r="D62" t="s">
-        <v>287</v>
-      </c>
-      <c r="E62" t="s">
-        <v>288</v>
-      </c>
-      <c r="F62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>40</v>
-      </c>
-      <c r="B63">
+      <c r="C73" s="1">
+        <v>9</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>74</v>
+      </c>
+      <c r="B74" s="1">
         <v>3</v>
       </c>
-      <c r="C63">
-        <v>7</v>
-      </c>
-      <c r="D63" t="s">
-        <v>289</v>
-      </c>
-      <c r="E63" t="s">
-        <v>290</v>
-      </c>
-      <c r="F63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>41</v>
-      </c>
-      <c r="B64">
+      <c r="C74" s="1">
+        <v>9</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>75</v>
+      </c>
+      <c r="B75" s="1">
         <v>3</v>
       </c>
-      <c r="C64">
-        <v>7</v>
-      </c>
-      <c r="D64" t="s">
-        <v>291</v>
-      </c>
-      <c r="E64" t="s">
-        <v>292</v>
-      </c>
-      <c r="F64" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>42</v>
-      </c>
-      <c r="B65">
+      <c r="C75" s="1">
+        <v>9</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>76</v>
+      </c>
+      <c r="B76" s="1">
         <v>3</v>
       </c>
-      <c r="C65">
-        <v>7</v>
-      </c>
-      <c r="D65" t="s">
-        <v>293</v>
-      </c>
-      <c r="E65" t="s">
-        <v>294</v>
-      </c>
-      <c r="F65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>43</v>
-      </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-      <c r="C66">
-        <v>7</v>
-      </c>
-      <c r="D66" t="s">
-        <v>295</v>
-      </c>
-      <c r="E66" t="s">
-        <v>296</v>
-      </c>
-      <c r="F66" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>44</v>
-      </c>
-      <c r="B67">
-        <v>3</v>
-      </c>
-      <c r="C67">
-        <v>7</v>
-      </c>
-      <c r="D67" t="s">
-        <v>297</v>
-      </c>
-      <c r="E67" t="s">
-        <v>298</v>
-      </c>
-      <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="C76" s="1">
+        <v>9</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="C68">
-        <v>7</v>
-      </c>
-      <c r="D68" t="s">
-        <v>299</v>
-      </c>
-      <c r="E68" t="s">
-        <v>300</v>
-      </c>
-      <c r="F68" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>46</v>
-      </c>
-      <c r="B69">
-        <v>3</v>
-      </c>
-      <c r="C69">
-        <v>7</v>
-      </c>
-      <c r="D69" t="s">
-        <v>301</v>
-      </c>
-      <c r="E69" t="s">
-        <v>302</v>
-      </c>
-      <c r="F69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>48</v>
-      </c>
-      <c r="B70">
-        <v>3</v>
-      </c>
-      <c r="C70">
-        <v>8</v>
-      </c>
-      <c r="D70" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70" t="s">
-        <v>303</v>
-      </c>
-      <c r="F70" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>49</v>
-      </c>
-      <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="C71">
-        <v>8</v>
-      </c>
-      <c r="D71" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" t="s">
-        <v>304</v>
-      </c>
-      <c r="F71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>50</v>
-      </c>
-      <c r="B72">
-        <v>3</v>
-      </c>
-      <c r="C72">
-        <v>8</v>
-      </c>
-      <c r="D72" t="s">
-        <v>61</v>
-      </c>
-      <c r="E72" t="s">
-        <v>305</v>
-      </c>
-      <c r="F72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>52</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-      <c r="C73">
-        <v>9</v>
-      </c>
-      <c r="D73" t="s">
-        <v>306</v>
-      </c>
-      <c r="E73" t="s">
-        <v>0</v>
-      </c>
-      <c r="F73" t="s">
-        <v>45</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>53</v>
-      </c>
-      <c r="B74">
-        <v>3</v>
-      </c>
-      <c r="C74">
-        <v>9</v>
-      </c>
-      <c r="D74" t="s">
-        <v>306</v>
-      </c>
-      <c r="E74" t="s">
-        <v>0</v>
-      </c>
-      <c r="F74" t="s">
-        <v>45</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>54</v>
-      </c>
-      <c r="B75">
-        <v>3</v>
-      </c>
-      <c r="C75">
-        <v>9</v>
-      </c>
-      <c r="D75" t="s">
-        <v>306</v>
-      </c>
-      <c r="E75" t="s">
-        <v>0</v>
-      </c>
-      <c r="F75" t="s">
-        <v>45</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>55</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <v>9</v>
-      </c>
-      <c r="D76" t="s">
-        <v>306</v>
-      </c>
-      <c r="E76" t="s">
-        <v>0</v>
-      </c>
-      <c r="F76" t="s">
-        <v>45</v>
-      </c>
-      <c r="G76">
+      <c r="G76" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1">
         <v>4</v>
@@ -19146,7 +19135,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1">
         <v>4</v>
@@ -19169,7 +19158,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1">
         <v>4</v>
@@ -19192,7 +19181,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1">
         <v>4</v>
@@ -19215,7 +19204,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1">
         <v>4</v>
@@ -19238,7 +19227,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1">
         <v>4</v>
@@ -19261,7 +19250,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1">
         <v>4</v>
@@ -19284,7 +19273,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1">
         <v>4</v>
@@ -19307,7 +19296,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1">
         <v>4</v>
@@ -19330,7 +19319,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1">
         <v>4</v>
@@ -19353,7 +19342,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1">
         <v>4</v>
@@ -19376,7 +19365,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1">
         <v>4</v>
@@ -19399,7 +19388,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1">
         <v>4</v>
@@ -19422,7 +19411,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1">
         <v>5</v>
@@ -19445,7 +19434,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1">
         <v>5</v>
@@ -19468,7 +19457,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B92" s="1">
         <v>5</v>
@@ -19491,7 +19480,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1">
         <v>5</v>
@@ -19514,7 +19503,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1">
         <v>5</v>
@@ -19537,7 +19526,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1">
         <v>5</v>
@@ -19560,7 +19549,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B96" s="1">
         <v>5</v>
@@ -19583,7 +19572,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B97" s="1">
         <v>5</v>
@@ -19606,7 +19595,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B98" s="1">
         <v>5</v>
@@ -19629,7 +19618,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B99" s="1">
         <v>5</v>
@@ -19652,7 +19641,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B100" s="1">
         <v>6</v>
@@ -19675,7 +19664,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B101" s="1">
         <v>6</v>
@@ -19698,7 +19687,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1">
         <v>6</v>
@@ -19721,7 +19710,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B103" s="1">
         <v>6</v>
@@ -19744,7 +19733,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1">
         <v>6</v>
@@ -19767,7 +19756,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B105" s="1">
         <v>6</v>
@@ -19790,7 +19779,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B106" s="1">
         <v>6</v>
@@ -19813,7 +19802,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1">
         <v>6</v>
@@ -19836,7 +19825,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1">
         <v>6</v>
@@ -19859,7 +19848,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B109" s="1">
         <v>6</v>
@@ -19882,7 +19871,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B110" s="1">
         <v>6</v>
@@ -19905,7 +19894,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B111" s="1">
         <v>6</v>
@@ -19928,7 +19917,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1">
         <v>6</v>
@@ -19951,7 +19940,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B113" s="1">
         <v>6</v>
@@ -19974,7 +19963,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B114" s="1">
         <v>6</v>
@@ -19997,7 +19986,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B115" s="1">
         <v>7</v>
@@ -20020,7 +20009,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B116" s="1">
         <v>7</v>
@@ -20043,7 +20032,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B117" s="1">
         <v>7</v>
@@ -20055,7 +20044,7 @@
         <v>137</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>138</v>
+        <v>304</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>26</v>
@@ -20066,7 +20055,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B118" s="1">
         <v>7</v>
@@ -20078,7 +20067,7 @@
         <v>139</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>140</v>
+        <v>305</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>26</v>
@@ -20089,7 +20078,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B119" s="1">
         <v>7</v>
@@ -20112,7 +20101,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B120" s="1">
         <v>7</v>
@@ -20135,7 +20124,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B121" s="1">
         <v>7</v>
@@ -20158,7 +20147,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B122" s="1">
         <v>8</v>
@@ -20181,7 +20170,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B123" s="1">
         <v>8</v>
@@ -20204,7 +20193,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B124" s="1">
         <v>8</v>
@@ -20227,7 +20216,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B125" s="1">
         <v>8</v>
@@ -20250,7 +20239,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B126" s="1">
         <v>8</v>
@@ -20273,7 +20262,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B127" s="1">
         <v>8</v>
@@ -20296,7 +20285,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B128" s="1">
         <v>8</v>
@@ -20319,7 +20308,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B129" s="1">
         <v>8</v>
@@ -20342,7 +20331,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B130" s="1">
         <v>8</v>
@@ -20365,7 +20354,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B131" s="1">
         <v>8</v>
@@ -20388,7 +20377,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B132" s="1">
         <v>8</v>
@@ -20411,7 +20400,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B133" s="1">
         <v>8</v>
@@ -20434,7 +20423,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B134" s="1">
         <v>8</v>
@@ -20457,7 +20446,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B135" s="1">
         <v>8</v>
@@ -20480,7 +20469,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B136" s="1">
         <v>8</v>
@@ -20503,7 +20492,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B137" s="1">
         <v>8</v>
@@ -20526,7 +20515,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B138" s="1">
         <v>8</v>
@@ -20549,7 +20538,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B139" s="1">
         <v>8</v>
@@ -20572,7 +20561,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B140" s="1">
         <v>8</v>
@@ -20595,7 +20584,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B141" s="1">
         <v>9</v>
@@ -20618,7 +20607,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B142" s="1">
         <v>9</v>
@@ -20641,7 +20630,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B143" s="1">
         <v>9</v>
@@ -20664,7 +20653,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B144" s="1">
         <v>9</v>
@@ -20687,7 +20676,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B145" s="1">
         <v>9</v>
@@ -20710,7 +20699,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B146" s="1">
         <v>9</v>
@@ -20733,7 +20722,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B147" s="1">
         <v>9</v>
@@ -20756,7 +20745,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B148" s="1">
         <v>9</v>
@@ -20779,7 +20768,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B149" s="1">
         <v>9</v>
@@ -20802,7 +20791,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B150" s="1">
         <v>9</v>
@@ -20825,7 +20814,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B151" s="1">
         <v>9</v>
@@ -20848,7 +20837,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B152" s="1">
         <v>9</v>
@@ -20871,7 +20860,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B153" s="1">
         <v>10</v>
@@ -20894,7 +20883,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B154" s="1">
         <v>10</v>
@@ -20917,7 +20906,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B155" s="1">
         <v>10</v>
@@ -20940,7 +20929,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B156" s="1">
         <v>10</v>
@@ -20963,7 +20952,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B157" s="1">
         <v>10</v>
@@ -20986,7 +20975,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B158" s="1">
         <v>10</v>
@@ -21009,7 +20998,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B159" s="1">
         <v>10</v>
@@ -21032,7 +21021,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B160" s="1">
         <v>10</v>
@@ -21051,6 +21040,29 @@
       </c>
       <c r="G160" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27287,7 +27299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G383"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/provisional/inserts.xlsx
+++ b/provisional/inserts.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub_Seguridad\BaseSistemasIntegrados\provisional\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21720" windowHeight="10035" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20640" windowHeight="10035" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="inserts iniciales" sheetId="3" r:id="rId1"/>
@@ -22,12 +17,12 @@
     <sheet name="permisos ultimate" sheetId="11" r:id="rId8"/>
     <sheet name="permisos2" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5311" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="328">
   <si>
     <t>NULL</t>
   </si>
@@ -946,6 +941,72 @@
   <si>
     <t>Contabilidad.frmComprobante</t>
   </si>
+  <si>
+    <t>Facturacion.frmPromocion1</t>
+  </si>
+  <si>
+    <t>Facturacion.frmPorcentajeComi</t>
+  </si>
+  <si>
+    <t>Facturacion.frmCliente</t>
+  </si>
+  <si>
+    <t>Facturacion.frmCotizacion2</t>
+  </si>
+  <si>
+    <t>Facturacion.frmDevolucionVentas</t>
+  </si>
+  <si>
+    <t>Comisiones</t>
+  </si>
+  <si>
+    <t>Facturacion.frmComisiones</t>
+  </si>
+  <si>
+    <t>Guia de Remision</t>
+  </si>
+  <si>
+    <t>Facturacion.frmGuiasRemision</t>
+  </si>
+  <si>
+    <t>Reporte de Ventas</t>
+  </si>
+  <si>
+    <t>Facturacion.frmRptVentas</t>
+  </si>
+  <si>
+    <t>Registro de Cotizaciones</t>
+  </si>
+  <si>
+    <t>Facturacion.frmRptCotizaciones</t>
+  </si>
+  <si>
+    <t>Facturacion.frmRptComisiones</t>
+  </si>
+  <si>
+    <t>CuentasxCobrar.frm_MantenimientoDetalleMonetario</t>
+  </si>
+  <si>
+    <t>Compras.</t>
+  </si>
+  <si>
+    <t>Compras.frmSolicitud</t>
+  </si>
+  <si>
+    <t>Compras.frmConsolidacionPedidos</t>
+  </si>
+  <si>
+    <t>Compras.frmOrdencompra</t>
+  </si>
+  <si>
+    <t>Compras.frmCotizacion</t>
+  </si>
+  <si>
+    <t>Facturacion.frmFacturacion</t>
+  </si>
+  <si>
+    <t>Seguridad.frmAsignacionDeUsuariosAEmpresa</t>
+  </si>
 </sst>
 </file>
 
@@ -1054,7 +1115,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1089,7 +1150,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17359,9 +17420,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18281,7 +18344,7 @@
         <v>243</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>26</v>
@@ -18442,7 +18505,7 @@
         <v>84</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>26</v>
@@ -18465,7 +18528,7 @@
         <v>85</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>26</v>
@@ -18488,7 +18551,7 @@
         <v>33</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>26</v>
@@ -18511,7 +18574,7 @@
         <v>86</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>26</v>
@@ -18534,7 +18597,7 @@
         <v>87</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>26</v>
@@ -18557,7 +18620,7 @@
         <v>49</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>26</v>
@@ -18580,7 +18643,7 @@
         <v>35</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>26</v>
@@ -18603,7 +18666,7 @@
         <v>36</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>26</v>
@@ -18626,7 +18689,7 @@
         <v>33</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>26</v>
@@ -18714,8 +18777,12 @@
       <c r="C59" s="1">
         <v>7</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="F59" s="1" t="s">
         <v>26</v>
       </c>
@@ -18733,8 +18800,12 @@
       <c r="C60" s="1">
         <v>7</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="F60" s="1" t="s">
         <v>26</v>
       </c>
@@ -18753,10 +18824,10 @@
         <v>7</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>26</v>
@@ -18776,10 +18847,10 @@
         <v>7</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>26</v>
@@ -18799,10 +18870,10 @@
         <v>7</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>26</v>
@@ -18822,10 +18893,10 @@
         <v>7</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>26</v>
@@ -18845,10 +18916,10 @@
         <v>7</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>26</v>
@@ -18868,10 +18939,10 @@
         <v>7</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>26</v>
@@ -18891,10 +18962,10 @@
         <v>7</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>26</v>
@@ -18911,13 +18982,13 @@
         <v>3</v>
       </c>
       <c r="C68" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>26</v>
@@ -18934,13 +19005,13 @@
         <v>3</v>
       </c>
       <c r="C69" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>297</v>
+        <v>39</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>26</v>
@@ -18960,10 +19031,10 @@
         <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>26</v>
@@ -18980,16 +19051,16 @@
         <v>3</v>
       </c>
       <c r="C71" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>39</v>
+        <v>302</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
@@ -19003,16 +19074,16 @@
         <v>3</v>
       </c>
       <c r="C72" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>61</v>
+        <v>302</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G72" s="1">
         <v>1</v>
@@ -19069,19 +19140,19 @@
         <v>75</v>
       </c>
       <c r="B75" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G75" s="1">
         <v>1</v>
@@ -19092,19 +19163,19 @@
         <v>76</v>
       </c>
       <c r="B76" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G76" s="1">
         <v>1</v>
@@ -19121,10 +19192,10 @@
         <v>10</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>26</v>
@@ -19141,13 +19212,13 @@
         <v>4</v>
       </c>
       <c r="C78" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>26</v>
@@ -19164,13 +19235,13 @@
         <v>4</v>
       </c>
       <c r="C79" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>26</v>
@@ -19187,13 +19258,13 @@
         <v>4</v>
       </c>
       <c r="C80" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>26</v>
@@ -19210,13 +19281,13 @@
         <v>4</v>
       </c>
       <c r="C81" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>46</v>
+        <v>311</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>26</v>
@@ -19233,13 +19304,13 @@
         <v>4</v>
       </c>
       <c r="C82" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>47</v>
+        <v>313</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>26</v>
@@ -19256,13 +19327,13 @@
         <v>4</v>
       </c>
       <c r="C83" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>26</v>
@@ -19279,13 +19350,13 @@
         <v>4</v>
       </c>
       <c r="C84" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>26</v>
@@ -19302,13 +19373,13 @@
         <v>4</v>
       </c>
       <c r="C85" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>50</v>
+        <v>311</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>26</v>
@@ -19322,16 +19393,16 @@
         <v>86</v>
       </c>
       <c r="B86" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C86" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>26</v>
@@ -19345,16 +19416,16 @@
         <v>87</v>
       </c>
       <c r="B87" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C87" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>26</v>
@@ -19368,16 +19439,16 @@
         <v>88</v>
       </c>
       <c r="B88" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>26</v>
@@ -19391,16 +19462,16 @@
         <v>89</v>
       </c>
       <c r="B89" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C89" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>26</v>
@@ -19417,13 +19488,13 @@
         <v>5</v>
       </c>
       <c r="C90" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>26</v>
@@ -19440,13 +19511,13 @@
         <v>5</v>
       </c>
       <c r="C91" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>26</v>
@@ -19463,13 +19534,13 @@
         <v>5</v>
       </c>
       <c r="C92" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>26</v>
@@ -19486,13 +19557,13 @@
         <v>5</v>
       </c>
       <c r="C93" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>26</v>
@@ -19509,13 +19580,13 @@
         <v>5</v>
       </c>
       <c r="C94" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>26</v>
@@ -19532,13 +19603,13 @@
         <v>5</v>
       </c>
       <c r="C95" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>26</v>
@@ -19552,16 +19623,16 @@
         <v>96</v>
       </c>
       <c r="B96" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>26</v>
@@ -19575,16 +19646,16 @@
         <v>97</v>
       </c>
       <c r="B97" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>26</v>
@@ -19598,16 +19669,16 @@
         <v>98</v>
       </c>
       <c r="B98" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>26</v>
@@ -19621,16 +19692,16 @@
         <v>99</v>
       </c>
       <c r="B99" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>26</v>
@@ -19650,10 +19721,10 @@
         <v>16</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>26</v>
@@ -19673,10 +19744,10 @@
         <v>16</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>26</v>
@@ -19693,13 +19764,13 @@
         <v>6</v>
       </c>
       <c r="C102" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>26</v>
@@ -19716,13 +19787,13 @@
         <v>6</v>
       </c>
       <c r="C103" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>26</v>
@@ -19739,13 +19810,13 @@
         <v>6</v>
       </c>
       <c r="C104" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>26</v>
@@ -19762,13 +19833,13 @@
         <v>6</v>
       </c>
       <c r="C105" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>26</v>
@@ -19788,10 +19859,10 @@
         <v>17</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>26</v>
@@ -19811,10 +19882,10 @@
         <v>17</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>26</v>
@@ -19831,13 +19902,13 @@
         <v>6</v>
       </c>
       <c r="C108" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>26</v>
@@ -19854,13 +19925,13 @@
         <v>6</v>
       </c>
       <c r="C109" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>26</v>
@@ -19877,13 +19948,13 @@
         <v>6</v>
       </c>
       <c r="C110" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>26</v>
@@ -19897,16 +19968,16 @@
         <v>111</v>
       </c>
       <c r="B111" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>26</v>
@@ -19920,16 +19991,16 @@
         <v>112</v>
       </c>
       <c r="B112" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C112" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>26</v>
@@ -19943,16 +20014,16 @@
         <v>113</v>
       </c>
       <c r="B113" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>131</v>
+        <v>304</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>26</v>
@@ -19966,16 +20037,16 @@
         <v>114</v>
       </c>
       <c r="B114" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>132</v>
+        <v>305</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>26</v>
@@ -19992,13 +20063,13 @@
         <v>7</v>
       </c>
       <c r="C115" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>26</v>
@@ -20015,13 +20086,13 @@
         <v>7</v>
       </c>
       <c r="C116" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>26</v>
@@ -20038,13 +20109,13 @@
         <v>7</v>
       </c>
       <c r="C117" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>304</v>
+        <v>146</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>26</v>
@@ -20058,16 +20129,16 @@
         <v>118</v>
       </c>
       <c r="B118" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>305</v>
+        <v>148</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>26</v>
@@ -20081,16 +20152,16 @@
         <v>119</v>
       </c>
       <c r="B119" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>26</v>
@@ -20104,16 +20175,16 @@
         <v>120</v>
       </c>
       <c r="B120" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>26</v>
@@ -20127,16 +20198,16 @@
         <v>121</v>
       </c>
       <c r="B121" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>26</v>
@@ -20156,10 +20227,10 @@
         <v>22</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>26</v>
@@ -20179,10 +20250,10 @@
         <v>22</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>26</v>
@@ -20202,10 +20273,10 @@
         <v>22</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>26</v>
@@ -20225,10 +20296,10 @@
         <v>22</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>26</v>
@@ -20248,10 +20319,10 @@
         <v>22</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>26</v>
@@ -20271,10 +20342,10 @@
         <v>22</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>26</v>
@@ -20294,10 +20365,10 @@
         <v>22</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>26</v>
@@ -20314,13 +20385,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>26</v>
@@ -20337,13 +20408,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>26</v>
@@ -20360,13 +20431,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>26</v>
@@ -20383,13 +20454,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>26</v>
@@ -20409,10 +20480,10 @@
         <v>23</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>26</v>
@@ -20432,10 +20503,10 @@
         <v>23</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>26</v>
@@ -20455,10 +20526,10 @@
         <v>23</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>26</v>
@@ -20478,10 +20549,10 @@
         <v>23</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>26</v>
@@ -20495,16 +20566,16 @@
         <v>137</v>
       </c>
       <c r="B137" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>26</v>
@@ -20518,16 +20589,16 @@
         <v>138</v>
       </c>
       <c r="B138" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>26</v>
@@ -20541,16 +20612,16 @@
         <v>139</v>
       </c>
       <c r="B139" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>182</v>
+        <v>265</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>26</v>
@@ -20564,16 +20635,16 @@
         <v>140</v>
       </c>
       <c r="B140" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>26</v>
@@ -20590,13 +20661,13 @@
         <v>9</v>
       </c>
       <c r="C141" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>26</v>
@@ -20613,13 +20684,13 @@
         <v>9</v>
       </c>
       <c r="C142" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>26</v>
@@ -20636,13 +20707,13 @@
         <v>9</v>
       </c>
       <c r="C143" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>26</v>
@@ -20662,10 +20733,10 @@
         <v>26</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>26</v>
@@ -20685,10 +20756,10 @@
         <v>26</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>26</v>
@@ -20705,13 +20776,13 @@
         <v>9</v>
       </c>
       <c r="C146" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>26</v>
@@ -20728,13 +20799,13 @@
         <v>9</v>
       </c>
       <c r="C147" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>26</v>
@@ -20751,13 +20822,13 @@
         <v>9</v>
       </c>
       <c r="C148" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>26</v>
@@ -20771,16 +20842,16 @@
         <v>149</v>
       </c>
       <c r="B149" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C149" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>26</v>
@@ -20794,16 +20865,16 @@
         <v>150</v>
       </c>
       <c r="B150" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C150" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>273</v>
+        <v>188</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>26</v>
@@ -20817,16 +20888,16 @@
         <v>151</v>
       </c>
       <c r="B151" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C151" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>274</v>
+        <v>190</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>26</v>
@@ -20840,16 +20911,16 @@
         <v>152</v>
       </c>
       <c r="B152" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C152" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>275</v>
+        <v>192</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>26</v>
@@ -20866,13 +20937,13 @@
         <v>10</v>
       </c>
       <c r="C153" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>26</v>
@@ -20889,13 +20960,13 @@
         <v>10</v>
       </c>
       <c r="C154" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>26</v>
@@ -20912,13 +20983,13 @@
         <v>10</v>
       </c>
       <c r="C155" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>26</v>
@@ -20935,13 +21006,13 @@
         <v>10</v>
       </c>
       <c r="C156" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>26</v>
@@ -20951,117 +21022,25 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>157</v>
-      </c>
-      <c r="B157" s="1">
-        <v>10</v>
-      </c>
-      <c r="C157" s="1">
-        <v>29</v>
+      <c r="A157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G157" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>158</v>
-      </c>
-      <c r="B158" s="1">
-        <v>10</v>
-      </c>
-      <c r="C158" s="1">
-        <v>29</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G158" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>159</v>
-      </c>
-      <c r="B159" s="1">
-        <v>10</v>
-      </c>
-      <c r="C159" s="1">
-        <v>30</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G159" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>160</v>
-      </c>
-      <c r="B160" s="1">
-        <v>10</v>
-      </c>
-      <c r="C160" s="1">
-        <v>30</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G160" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -27297,7 +27276,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G383"/>
+  <dimension ref="A1:G379"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28323,7 +28302,7 @@
         <v>193</v>
       </c>
       <c r="C45" s="1">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
@@ -28346,7 +28325,7 @@
         <v>194</v>
       </c>
       <c r="C46" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
@@ -28369,7 +28348,7 @@
         <v>195</v>
       </c>
       <c r="C47" s="1">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
@@ -28415,7 +28394,7 @@
         <v>197</v>
       </c>
       <c r="C49" s="1">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -28438,7 +28417,7 @@
         <v>198</v>
       </c>
       <c r="C50" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
@@ -28461,7 +28440,7 @@
         <v>199</v>
       </c>
       <c r="C51" s="1">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
@@ -28530,10 +28509,10 @@
         <v>202</v>
       </c>
       <c r="C54" s="1">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>207</v>
@@ -28553,10 +28532,10 @@
         <v>203</v>
       </c>
       <c r="C55" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D55" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>207</v>
@@ -28576,7 +28555,7 @@
         <v>204</v>
       </c>
       <c r="C56" s="1">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="D56" s="1">
         <v>4</v>
@@ -28691,7 +28670,7 @@
         <v>209</v>
       </c>
       <c r="C61" s="1">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D61" s="1">
         <v>4</v>
@@ -28714,7 +28693,7 @@
         <v>210</v>
       </c>
       <c r="C62" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D62" s="1">
         <v>4</v>
@@ -28737,7 +28716,7 @@
         <v>211</v>
       </c>
       <c r="C63" s="1">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D63" s="1">
         <v>4</v>
@@ -28783,7 +28762,7 @@
         <v>213</v>
       </c>
       <c r="C65" s="1">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D65" s="1">
         <v>4</v>
@@ -28806,7 +28785,7 @@
         <v>214</v>
       </c>
       <c r="C66" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D66" s="1">
         <v>4</v>
@@ -28829,7 +28808,7 @@
         <v>215</v>
       </c>
       <c r="C67" s="1">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="D67" s="1">
         <v>4</v>
@@ -28852,10 +28831,10 @@
         <v>216</v>
       </c>
       <c r="C68" s="1">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D68" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>207</v>
@@ -28875,10 +28854,10 @@
         <v>217</v>
       </c>
       <c r="C69" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D69" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>207</v>
@@ -28898,10 +28877,10 @@
         <v>218</v>
       </c>
       <c r="C70" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D70" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>207</v>
@@ -28921,10 +28900,10 @@
         <v>219</v>
       </c>
       <c r="C71" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D71" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>207</v>
@@ -28944,7 +28923,7 @@
         <v>220</v>
       </c>
       <c r="C72" s="1">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="D72" s="1">
         <v>5</v>
@@ -28967,7 +28946,7 @@
         <v>221</v>
       </c>
       <c r="C73" s="1">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D73" s="1">
         <v>5</v>
@@ -28990,7 +28969,7 @@
         <v>222</v>
       </c>
       <c r="C74" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D74" s="1">
         <v>5</v>
@@ -29013,7 +28992,7 @@
         <v>223</v>
       </c>
       <c r="C75" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D75" s="1">
         <v>5</v>
@@ -29036,7 +29015,7 @@
         <v>224</v>
       </c>
       <c r="C76" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D76" s="1">
         <v>5</v>
@@ -29059,7 +29038,7 @@
         <v>225</v>
       </c>
       <c r="C77" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" s="1">
         <v>5</v>
@@ -29082,7 +29061,7 @@
         <v>226</v>
       </c>
       <c r="C78" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D78" s="1">
         <v>5</v>
@@ -29105,7 +29084,7 @@
         <v>227</v>
       </c>
       <c r="C79" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D79" s="1">
         <v>5</v>
@@ -29128,7 +29107,7 @@
         <v>228</v>
       </c>
       <c r="C80" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D80" s="1">
         <v>5</v>
@@ -29151,10 +29130,10 @@
         <v>229</v>
       </c>
       <c r="C81" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>207</v>
@@ -29174,10 +29153,10 @@
         <v>230</v>
       </c>
       <c r="C82" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D82" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>207</v>
@@ -29197,10 +29176,10 @@
         <v>231</v>
       </c>
       <c r="C83" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D83" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>207</v>
@@ -29220,10 +29199,10 @@
         <v>232</v>
       </c>
       <c r="C84" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D84" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>207</v>
@@ -29243,7 +29222,7 @@
         <v>233</v>
       </c>
       <c r="C85" s="1">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="D85" s="1">
         <v>6</v>
@@ -29312,7 +29291,7 @@
         <v>236</v>
       </c>
       <c r="C88" s="1">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D88" s="1">
         <v>6</v>
@@ -29335,7 +29314,7 @@
         <v>237</v>
       </c>
       <c r="C89" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D89" s="1">
         <v>6</v>
@@ -29358,7 +29337,7 @@
         <v>238</v>
       </c>
       <c r="C90" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D90" s="1">
         <v>6</v>
@@ -29381,7 +29360,7 @@
         <v>239</v>
       </c>
       <c r="C91" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D91" s="1">
         <v>6</v>
@@ -29404,7 +29383,7 @@
         <v>240</v>
       </c>
       <c r="C92" s="1">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D92" s="1">
         <v>6</v>
@@ -29473,7 +29452,7 @@
         <v>243</v>
       </c>
       <c r="C95" s="1">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="D95" s="1">
         <v>6</v>
@@ -29496,7 +29475,7 @@
         <v>244</v>
       </c>
       <c r="C96" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D96" s="1">
         <v>6</v>
@@ -29519,7 +29498,7 @@
         <v>245</v>
       </c>
       <c r="C97" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D97" s="1">
         <v>6</v>
@@ -29542,7 +29521,7 @@
         <v>246</v>
       </c>
       <c r="C98" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D98" s="1">
         <v>6</v>
@@ -29565,10 +29544,10 @@
         <v>247</v>
       </c>
       <c r="C99" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D99" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>207</v>
@@ -29588,10 +29567,10 @@
         <v>248</v>
       </c>
       <c r="C100" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D100" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>207</v>
@@ -29611,10 +29590,10 @@
         <v>249</v>
       </c>
       <c r="C101" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D101" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>207</v>
@@ -29634,10 +29613,10 @@
         <v>250</v>
       </c>
       <c r="C102" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D102" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>207</v>
@@ -29657,7 +29636,7 @@
         <v>251</v>
       </c>
       <c r="C103" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D103" s="1">
         <v>7</v>
@@ -29680,7 +29659,7 @@
         <v>252</v>
       </c>
       <c r="C104" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D104" s="1">
         <v>7</v>
@@ -29703,7 +29682,7 @@
         <v>253</v>
       </c>
       <c r="C105" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D105" s="1">
         <v>7</v>
@@ -29726,7 +29705,7 @@
         <v>254</v>
       </c>
       <c r="C106" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D106" s="1">
         <v>7</v>
@@ -29749,7 +29728,7 @@
         <v>255</v>
       </c>
       <c r="C107" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D107" s="1">
         <v>7</v>
@@ -29772,7 +29751,7 @@
         <v>256</v>
       </c>
       <c r="C108" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D108" s="1">
         <v>7</v>
@@ -29795,10 +29774,10 @@
         <v>257</v>
       </c>
       <c r="C109" s="1">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="D109" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>207</v>
@@ -29818,10 +29797,10 @@
         <v>258</v>
       </c>
       <c r="C110" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D110" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>207</v>
@@ -29841,10 +29820,10 @@
         <v>259</v>
       </c>
       <c r="C111" s="1">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="D111" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>207</v>
@@ -29864,10 +29843,10 @@
         <v>260</v>
       </c>
       <c r="C112" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D112" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>207</v>
@@ -29887,7 +29866,7 @@
         <v>261</v>
       </c>
       <c r="C113" s="1">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="D113" s="1">
         <v>8</v>
@@ -30071,7 +30050,7 @@
         <v>269</v>
       </c>
       <c r="C121" s="1">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="D121" s="1">
         <v>8</v>
@@ -30094,7 +30073,7 @@
         <v>270</v>
       </c>
       <c r="C122" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D122" s="1">
         <v>8</v>
@@ -30117,7 +30096,7 @@
         <v>271</v>
       </c>
       <c r="C123" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D123" s="1">
         <v>8</v>
@@ -30140,7 +30119,7 @@
         <v>272</v>
       </c>
       <c r="C124" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D124" s="1">
         <v>8</v>
@@ -30163,7 +30142,7 @@
         <v>273</v>
       </c>
       <c r="C125" s="1">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="D125" s="1">
         <v>8</v>
@@ -30278,7 +30257,7 @@
         <v>278</v>
       </c>
       <c r="C130" s="1">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="D130" s="1">
         <v>8</v>
@@ -30301,10 +30280,10 @@
         <v>279</v>
       </c>
       <c r="C131" s="1">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="D131" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>207</v>
@@ -30324,10 +30303,10 @@
         <v>280</v>
       </c>
       <c r="C132" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D132" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>207</v>
@@ -30347,10 +30326,10 @@
         <v>281</v>
       </c>
       <c r="C133" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D133" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>207</v>
@@ -30370,10 +30349,10 @@
         <v>282</v>
       </c>
       <c r="C134" s="1">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="D134" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>207</v>
@@ -30393,7 +30372,7 @@
         <v>283</v>
       </c>
       <c r="C135" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D135" s="1">
         <v>9</v>
@@ -30416,7 +30395,7 @@
         <v>284</v>
       </c>
       <c r="C136" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D136" s="1">
         <v>9</v>
@@ -30439,7 +30418,7 @@
         <v>285</v>
       </c>
       <c r="C137" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D137" s="1">
         <v>9</v>
@@ -30462,7 +30441,7 @@
         <v>286</v>
       </c>
       <c r="C138" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D138" s="1">
         <v>9</v>
@@ -30485,7 +30464,7 @@
         <v>287</v>
       </c>
       <c r="C139" s="1">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="D139" s="1">
         <v>9</v>
@@ -30554,7 +30533,7 @@
         <v>290</v>
       </c>
       <c r="C142" s="1">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="D142" s="1">
         <v>9</v>
@@ -30577,7 +30556,7 @@
         <v>291</v>
       </c>
       <c r="C143" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D143" s="1">
         <v>9</v>
@@ -30600,7 +30579,7 @@
         <v>292</v>
       </c>
       <c r="C144" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D144" s="1">
         <v>9</v>
@@ -30623,7 +30602,7 @@
         <v>293</v>
       </c>
       <c r="C145" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D145" s="1">
         <v>9</v>
@@ -30646,10 +30625,10 @@
         <v>294</v>
       </c>
       <c r="C146" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>207</v>
@@ -30669,10 +30648,10 @@
         <v>295</v>
       </c>
       <c r="C147" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D147" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>207</v>
@@ -30692,10 +30671,10 @@
         <v>296</v>
       </c>
       <c r="C148" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D148" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>207</v>
@@ -30715,10 +30694,10 @@
         <v>297</v>
       </c>
       <c r="C149" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D149" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>207</v>
@@ -30738,7 +30717,7 @@
         <v>298</v>
       </c>
       <c r="C150" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D150" s="1">
         <v>10</v>
@@ -30761,7 +30740,7 @@
         <v>299</v>
       </c>
       <c r="C151" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D151" s="1">
         <v>10</v>
@@ -30784,7 +30763,7 @@
         <v>300</v>
       </c>
       <c r="C152" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D152" s="1">
         <v>10</v>
@@ -30807,7 +30786,7 @@
         <v>301</v>
       </c>
       <c r="C153" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D153" s="1">
         <v>10</v>
@@ -30830,7 +30809,7 @@
         <v>302</v>
       </c>
       <c r="C154" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D154" s="1">
         <v>10</v>
@@ -30853,7 +30832,7 @@
         <v>303</v>
       </c>
       <c r="C155" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D155" s="1">
         <v>10</v>
@@ -30876,7 +30855,7 @@
         <v>304</v>
       </c>
       <c r="C156" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D156" s="1">
         <v>10</v>
@@ -30893,94 +30872,94 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B157" s="1">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="C157" s="1">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="D157" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B158" s="1">
-        <v>306</v>
+        <v>2</v>
       </c>
       <c r="C158" s="1">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D158" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B159" s="1">
-        <v>307</v>
+        <v>3</v>
       </c>
       <c r="C159" s="1">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="D159" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B160" s="1">
-        <v>308</v>
+        <v>4</v>
       </c>
       <c r="C160" s="1">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="D160" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -30988,22 +30967,22 @@
         <v>2</v>
       </c>
       <c r="B161" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C161" s="1">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="D161" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -31011,22 +30990,22 @@
         <v>2</v>
       </c>
       <c r="B162" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C162" s="1">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D162" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -31034,22 +31013,22 @@
         <v>2</v>
       </c>
       <c r="B163" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C163" s="1">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="D163" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -31057,22 +31036,22 @@
         <v>2</v>
       </c>
       <c r="B164" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C164" s="1">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D164" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -31080,22 +31059,22 @@
         <v>2</v>
       </c>
       <c r="B165" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C165" s="1">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="D165" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -31103,22 +31082,22 @@
         <v>2</v>
       </c>
       <c r="B166" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C166" s="1">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D166" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -31126,22 +31105,22 @@
         <v>2</v>
       </c>
       <c r="B167" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C167" s="1">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="D167" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -31149,381 +31128,381 @@
         <v>2</v>
       </c>
       <c r="B168" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C168" s="1">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="D168" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B169" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C169" s="1">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D169" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
+        <v>6</v>
+      </c>
+      <c r="B170" s="1">
         <v>2</v>
       </c>
-      <c r="B170" s="1">
-        <v>22</v>
-      </c>
       <c r="C170" s="1">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="D170" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B171" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C171" s="1">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="D171" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B172" s="1">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C172" s="1">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="D172" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
+        <v>6</v>
+      </c>
+      <c r="B173" s="1">
+        <v>5</v>
+      </c>
+      <c r="C173" s="1">
+        <v>4</v>
+      </c>
+      <c r="D173" s="1">
         <v>2</v>
       </c>
-      <c r="B173" s="1">
-        <v>25</v>
-      </c>
-      <c r="C173" s="1">
-        <v>51</v>
-      </c>
-      <c r="D173" s="1">
-        <v>6</v>
-      </c>
       <c r="E173" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
+        <v>6</v>
+      </c>
+      <c r="B174" s="1">
+        <v>6</v>
+      </c>
+      <c r="C174" s="1">
+        <v>46</v>
+      </c>
+      <c r="D174" s="1">
         <v>2</v>
       </c>
-      <c r="B174" s="1">
-        <v>26</v>
-      </c>
-      <c r="C174" s="1">
-        <v>52</v>
-      </c>
-      <c r="D174" s="1">
-        <v>6</v>
-      </c>
       <c r="E174" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B175" s="1">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C175" s="1">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D175" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B176" s="1">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C176" s="1">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D176" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B177" s="1">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C177" s="1">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D177" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B178" s="1">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C178" s="1">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D178" s="1">
         <v>5</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B179" s="1">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C179" s="1">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D179" s="1">
         <v>5</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B180" s="1">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C180" s="1">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D180" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B181" s="1">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C181" s="1">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="D181" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B182" s="1">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C182" s="1">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D182" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B183" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C183" s="1">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D183" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B184" s="1">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C184" s="1">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="D184" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>207</v>
@@ -31537,16 +31516,16 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
+        <v>10</v>
+      </c>
+      <c r="B185" s="1">
         <v>2</v>
       </c>
-      <c r="B185" s="1">
-        <v>42</v>
-      </c>
       <c r="C185" s="1">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="D185" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>207</v>
@@ -31560,16 +31539,16 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B186" s="1">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C186" s="1">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="D186" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>207</v>
@@ -31583,16 +31562,16 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B187" s="1">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C187" s="1">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="D187" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>207</v>
@@ -31606,16 +31585,16 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B188" s="1">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C188" s="1">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="D188" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>207</v>
@@ -31629,16 +31608,16 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
+        <v>10</v>
+      </c>
+      <c r="B189" s="1">
+        <v>6</v>
+      </c>
+      <c r="C189" s="1">
         <v>2</v>
       </c>
-      <c r="B189" s="1">
-        <v>46</v>
-      </c>
-      <c r="C189" s="1">
-        <v>115</v>
-      </c>
       <c r="D189" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>207</v>
@@ -31652,16 +31631,16 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B190" s="1">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C190" s="1">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="D190" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>207</v>
@@ -31675,16 +31654,16 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B191" s="1">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C191" s="1">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D191" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>207</v>
@@ -31698,16 +31677,16 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B192" s="1">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C192" s="1">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="D192" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>207</v>
@@ -31721,16 +31700,16 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B193" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C193" s="1">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="D193" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>207</v>
@@ -31744,16 +31723,16 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B194" s="1">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C194" s="1">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D194" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>207</v>
@@ -31767,13 +31746,13 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B195" s="1">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C195" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -31790,13 +31769,13 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B196" s="1">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C196" s="1">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D196" s="1">
         <v>1</v>
@@ -31813,13 +31792,13 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B197" s="1">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C197" s="1">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D197" s="1">
         <v>1</v>
@@ -31836,13 +31815,13 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B198" s="1">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C198" s="1">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D198" s="1">
         <v>1</v>
@@ -31859,13 +31838,13 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B199" s="1">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C199" s="1">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -31882,13 +31861,13 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B200" s="1">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C200" s="1">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D200" s="1">
         <v>1</v>
@@ -31905,13 +31884,13 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B201" s="1">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C201" s="1">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D201" s="1">
         <v>1</v>
@@ -31928,16 +31907,16 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
+        <v>20</v>
+      </c>
+      <c r="B202" s="1">
+        <v>1</v>
+      </c>
+      <c r="C202" s="1">
+        <v>4</v>
+      </c>
+      <c r="D202" s="1">
         <v>2</v>
-      </c>
-      <c r="B202" s="1">
-        <v>65</v>
-      </c>
-      <c r="C202" s="1">
-        <v>26</v>
-      </c>
-      <c r="D202" s="1">
-        <v>9</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>207</v>
@@ -31951,16 +31930,16 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
+        <v>20</v>
+      </c>
+      <c r="B203" s="1">
         <v>2</v>
       </c>
-      <c r="B203" s="1">
-        <v>66</v>
-      </c>
       <c r="C203" s="1">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="D203" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>207</v>
@@ -31974,16 +31953,16 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
+        <v>20</v>
+      </c>
+      <c r="B204" s="1">
+        <v>3</v>
+      </c>
+      <c r="C204" s="1">
+        <v>5</v>
+      </c>
+      <c r="D204" s="1">
         <v>2</v>
-      </c>
-      <c r="B204" s="1">
-        <v>67</v>
-      </c>
-      <c r="C204" s="1">
-        <v>133</v>
-      </c>
-      <c r="D204" s="1">
-        <v>9</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>207</v>
@@ -31997,16 +31976,16 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
+        <v>20</v>
+      </c>
+      <c r="B205" s="1">
+        <v>4</v>
+      </c>
+      <c r="C205" s="1">
+        <v>47</v>
+      </c>
+      <c r="D205" s="1">
         <v>2</v>
-      </c>
-      <c r="B205" s="1">
-        <v>68</v>
-      </c>
-      <c r="C205" s="1">
-        <v>134</v>
-      </c>
-      <c r="D205" s="1">
-        <v>9</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>207</v>
@@ -32020,16 +31999,16 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
+        <v>20</v>
+      </c>
+      <c r="B206" s="1">
+        <v>5</v>
+      </c>
+      <c r="C206" s="1">
+        <v>48</v>
+      </c>
+      <c r="D206" s="1">
         <v>2</v>
-      </c>
-      <c r="B206" s="1">
-        <v>69</v>
-      </c>
-      <c r="C206" s="1">
-        <v>135</v>
-      </c>
-      <c r="D206" s="1">
-        <v>9</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>207</v>
@@ -32043,16 +32022,16 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
+        <v>20</v>
+      </c>
+      <c r="B207" s="1">
+        <v>6</v>
+      </c>
+      <c r="C207" s="1">
+        <v>49</v>
+      </c>
+      <c r="D207" s="1">
         <v>2</v>
-      </c>
-      <c r="B207" s="1">
-        <v>70</v>
-      </c>
-      <c r="C207" s="1">
-        <v>136</v>
-      </c>
-      <c r="D207" s="1">
-        <v>9</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>207</v>
@@ -32066,16 +32045,16 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
+        <v>20</v>
+      </c>
+      <c r="B208" s="1">
+        <v>7</v>
+      </c>
+      <c r="C208" s="1">
+        <v>50</v>
+      </c>
+      <c r="D208" s="1">
         <v>2</v>
-      </c>
-      <c r="B208" s="1">
-        <v>71</v>
-      </c>
-      <c r="C208" s="1">
-        <v>137</v>
-      </c>
-      <c r="D208" s="1">
-        <v>9</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>207</v>
@@ -32089,13 +32068,13 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B209" s="1">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C209" s="1">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D209" s="1">
         <v>2</v>
@@ -32112,13 +32091,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B210" s="1">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C210" s="1">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D210" s="1">
         <v>2</v>
@@ -32135,10 +32114,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B211" s="1">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C211" s="1">
         <v>6</v>
@@ -32158,10 +32137,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B212" s="1">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="C212" s="1">
         <v>53</v>
@@ -32181,10 +32160,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B213" s="1">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C213" s="1">
         <v>54</v>
@@ -32204,10 +32183,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B214" s="1">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C214" s="1">
         <v>55</v>
@@ -32227,16 +32206,16 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B215" s="1">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="C215" s="1">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="D215" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>207</v>
@@ -32250,16 +32229,16 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
+        <v>30</v>
+      </c>
+      <c r="B216" s="1">
         <v>2</v>
       </c>
-      <c r="B216" s="1">
-        <v>79</v>
-      </c>
       <c r="C216" s="1">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="D216" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>207</v>
@@ -32273,16 +32252,16 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B217" s="1">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C217" s="1">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="D217" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>207</v>
@@ -32296,16 +32275,16 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B218" s="1">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="C218" s="1">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="D218" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>207</v>
@@ -32319,16 +32298,16 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B219" s="1">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="C219" s="1">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="D219" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>207</v>
@@ -32342,16 +32321,16 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B220" s="1">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="C220" s="1">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="D220" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>207</v>
@@ -32365,16 +32344,16 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B221" s="1">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C221" s="1">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="D221" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>207</v>
@@ -32388,16 +32367,16 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B222" s="1">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="C222" s="1">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="D222" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>207</v>
@@ -32411,16 +32390,16 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B223" s="1">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="C223" s="1">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="D223" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>207</v>
@@ -32434,16 +32413,16 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B224" s="1">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="C224" s="1">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="D224" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>207</v>
@@ -32457,16 +32436,16 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B225" s="1">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C225" s="1">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="D225" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>207</v>
@@ -32480,16 +32459,16 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B226" s="1">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C226" s="1">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="D226" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>207</v>
@@ -32503,16 +32482,16 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B227" s="1">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="C227" s="1">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D227" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>207</v>
@@ -32526,16 +32505,16 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B228" s="1">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="C228" s="1">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D228" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>207</v>
@@ -32549,16 +32528,16 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B229" s="1">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="C229" s="1">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D229" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>207</v>
@@ -32572,223 +32551,223 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B230" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C230" s="1">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="D230" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B231" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C231" s="1">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D231" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B232" s="1">
+        <v>18</v>
+      </c>
+      <c r="C232" s="1">
+        <v>9</v>
+      </c>
+      <c r="D232" s="1">
         <v>3</v>
       </c>
-      <c r="C232" s="1">
-        <v>35</v>
-      </c>
-      <c r="D232" s="1">
-        <v>1</v>
-      </c>
       <c r="E232" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B233" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C233" s="1">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D233" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B234" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C234" s="1">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D234" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B235" s="1">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C235" s="1">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D235" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B236" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C236" s="1">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D236" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B237" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C237" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D237" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B238" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C238" s="1">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D238" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B239" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C239" s="1">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="D239" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>207</v>
@@ -32802,16 +32781,16 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B240" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C240" s="1">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D240" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>207</v>
@@ -32825,16 +32804,16 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B241" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C241" s="1">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="D241" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>207</v>
@@ -32848,16 +32827,16 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B242" s="1">
+        <v>6</v>
+      </c>
+      <c r="C242" s="1">
+        <v>79</v>
+      </c>
+      <c r="D242" s="1">
         <v>4</v>
-      </c>
-      <c r="C242" s="1">
-        <v>33</v>
-      </c>
-      <c r="D242" s="1">
-        <v>1</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>207</v>
@@ -32871,16 +32850,16 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B243" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C243" s="1">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D243" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>207</v>
@@ -32894,16 +32873,16 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B244" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C244" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D244" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>207</v>
@@ -32917,16 +32896,16 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B245" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C245" s="1">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="D245" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>207</v>
@@ -32940,16 +32919,16 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
+        <v>40</v>
+      </c>
+      <c r="B246" s="1">
         <v>10</v>
       </c>
-      <c r="B246" s="1">
-        <v>8</v>
-      </c>
       <c r="C246" s="1">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="D246" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>207</v>
@@ -32963,16 +32942,16 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B247" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C247" s="1">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D247" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>207</v>
@@ -32986,16 +32965,16 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B248" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C248" s="1">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D248" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>207</v>
@@ -33009,16 +32988,16 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B249" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C249" s="1">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="D249" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>207</v>
@@ -33032,16 +33011,16 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B250" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C250" s="1">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D250" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>207</v>
@@ -33055,16 +33034,16 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B251" s="1">
+        <v>1</v>
+      </c>
+      <c r="C251" s="1">
         <v>13</v>
       </c>
-      <c r="C251" s="1">
-        <v>41</v>
-      </c>
       <c r="D251" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>207</v>
@@ -33078,16 +33057,16 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B252" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C252" s="1">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D252" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>207</v>
@@ -33101,16 +33080,16 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B253" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C253" s="1">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D253" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>207</v>
@@ -33124,16 +33103,16 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B254" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C254" s="1">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="D254" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>207</v>
@@ -33147,16 +33126,16 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B255" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C255" s="1">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="D255" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>207</v>
@@ -33170,16 +33149,16 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B256" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C256" s="1">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D256" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>207</v>
@@ -33193,16 +33172,16 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B257" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C257" s="1">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="D257" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>207</v>
@@ -33216,16 +33195,16 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B258" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C258" s="1">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D258" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>207</v>
@@ -33239,16 +33218,16 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B259" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C259" s="1">
+        <v>92</v>
+      </c>
+      <c r="D259" s="1">
         <v>5</v>
-      </c>
-      <c r="D259" s="1">
-        <v>2</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>207</v>
@@ -33262,16 +33241,16 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B260" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C260" s="1">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D260" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>207</v>
@@ -33285,16 +33264,16 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B261" s="1">
+        <v>11</v>
+      </c>
+      <c r="C261" s="1">
+        <v>93</v>
+      </c>
+      <c r="D261" s="1">
         <v>5</v>
-      </c>
-      <c r="C261" s="1">
-        <v>48</v>
-      </c>
-      <c r="D261" s="1">
-        <v>2</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>207</v>
@@ -33308,16 +33287,16 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B262" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C262" s="1">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="D262" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>207</v>
@@ -33331,16 +33310,16 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B263" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C263" s="1">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D263" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>207</v>
@@ -33354,16 +33333,16 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B264" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C264" s="1">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D264" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>207</v>
@@ -33377,16 +33356,16 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B265" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C265" s="1">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="D265" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>207</v>
@@ -33400,16 +33379,16 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B266" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C266" s="1">
+        <v>97</v>
+      </c>
+      <c r="D266" s="1">
         <v>6</v>
-      </c>
-      <c r="D266" s="1">
-        <v>2</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>207</v>
@@ -33423,16 +33402,16 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B267" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C267" s="1">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="D267" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>207</v>
@@ -33446,16 +33425,16 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B268" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C268" s="1">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="D268" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>207</v>
@@ -33469,16 +33448,16 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B269" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C269" s="1">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D269" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>207</v>
@@ -33492,16 +33471,16 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B270" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C270" s="1">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D270" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>207</v>
@@ -33515,16 +33494,16 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B271" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C271" s="1">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D271" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>207</v>
@@ -33538,16 +33517,16 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B272" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C272" s="1">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="D272" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>207</v>
@@ -33561,16 +33540,16 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B273" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C273" s="1">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="D273" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>207</v>
@@ -33584,16 +33563,16 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B274" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C274" s="1">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="D274" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>207</v>
@@ -33607,16 +33586,16 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B275" s="1">
+        <v>12</v>
+      </c>
+      <c r="C275" s="1">
+        <v>105</v>
+      </c>
+      <c r="D275" s="1">
         <v>6</v>
-      </c>
-      <c r="C275" s="1">
-        <v>60</v>
-      </c>
-      <c r="D275" s="1">
-        <v>3</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>207</v>
@@ -33630,16 +33609,16 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B276" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C276" s="1">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="D276" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>207</v>
@@ -33653,16 +33632,16 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B277" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C277" s="1">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="D277" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>207</v>
@@ -33676,16 +33655,16 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B278" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C278" s="1">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D278" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>207</v>
@@ -33699,16 +33678,16 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B279" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C279" s="1">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="D279" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>207</v>
@@ -33722,16 +33701,16 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B280" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C280" s="1">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D280" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>207</v>
@@ -33745,16 +33724,16 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B281" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C281" s="1">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D281" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>207</v>
@@ -33768,16 +33747,16 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B282" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C282" s="1">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D282" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>207</v>
@@ -33791,16 +33770,16 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B283" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C283" s="1">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="D283" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>207</v>
@@ -33814,16 +33793,16 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B284" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C284" s="1">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="D284" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>207</v>
@@ -33837,16 +33816,16 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B285" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C285" s="1">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="D285" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>207</v>
@@ -33860,16 +33839,16 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B286" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C286" s="1">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D286" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>207</v>
@@ -33883,16 +33862,16 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B287" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C287" s="1">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="D287" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>207</v>
@@ -33906,16 +33885,16 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B288" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C288" s="1">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="D288" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>207</v>
@@ -33929,16 +33908,16 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B289" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C289" s="1">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="D289" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>207</v>
@@ -33952,16 +33931,16 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B290" s="1">
+        <v>9</v>
+      </c>
+      <c r="C290" s="1">
         <v>21</v>
       </c>
-      <c r="C290" s="1">
-        <v>73</v>
-      </c>
       <c r="D290" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>207</v>
@@ -33975,16 +33954,16 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B291" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C291" s="1">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="D291" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>207</v>
@@ -33998,16 +33977,16 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B292" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C292" s="1">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="D292" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>207</v>
@@ -34021,16 +34000,16 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B293" s="1">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C293" s="1">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="D293" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>207</v>
@@ -34044,16 +34023,16 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B294" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C294" s="1">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="D294" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>207</v>
@@ -34067,16 +34046,16 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B295" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C295" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D295" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>207</v>
@@ -34090,16 +34069,16 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B296" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C296" s="1">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="D296" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>207</v>
@@ -34113,16 +34092,16 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B297" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C297" s="1">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="D297" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>207</v>
@@ -34136,16 +34115,16 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B298" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C298" s="1">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="D298" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>207</v>
@@ -34159,16 +34138,16 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B299" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C299" s="1">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="D299" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>207</v>
@@ -34182,16 +34161,16 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B300" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C300" s="1">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="D300" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>207</v>
@@ -34205,16 +34184,16 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B301" s="1">
+        <v>10</v>
+      </c>
+      <c r="C301" s="1">
+        <v>126</v>
+      </c>
+      <c r="D301" s="1">
         <v>8</v>
-      </c>
-      <c r="C301" s="1">
-        <v>95</v>
-      </c>
-      <c r="D301" s="1">
-        <v>5</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>207</v>
@@ -34228,16 +34207,16 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B302" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C302" s="1">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D302" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>207</v>
@@ -34251,16 +34230,16 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B303" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C303" s="1">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="D303" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>207</v>
@@ -34274,16 +34253,16 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B304" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C304" s="1">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D304" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>207</v>
@@ -34297,16 +34276,16 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B305" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C305" s="1">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="D305" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>207</v>
@@ -34320,16 +34299,16 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B306" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C306" s="1">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="D306" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>207</v>
@@ -34343,16 +34322,16 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B307" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C307" s="1">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="D307" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>207</v>
@@ -34366,16 +34345,16 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B308" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C308" s="1">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D308" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>207</v>
@@ -34389,16 +34368,16 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B309" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C309" s="1">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="D309" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>207</v>
@@ -34412,16 +34391,16 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B310" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C310" s="1">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D310" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>207</v>
@@ -34435,16 +34414,16 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B311" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C311" s="1">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="D311" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>207</v>
@@ -34458,16 +34437,16 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B312" s="1">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C312" s="1">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D312" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>207</v>
@@ -34481,16 +34460,16 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B313" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C313" s="1">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="D313" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>207</v>
@@ -34504,16 +34483,16 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B314" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C314" s="1">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D314" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>207</v>
@@ -34527,16 +34506,16 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B315" s="1">
+        <v>2</v>
+      </c>
+      <c r="C315" s="1">
+        <v>137</v>
+      </c>
+      <c r="D315" s="1">
         <v>9</v>
-      </c>
-      <c r="C315" s="1">
-        <v>106</v>
-      </c>
-      <c r="D315" s="1">
-        <v>6</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>207</v>
@@ -34550,16 +34529,16 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B316" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C316" s="1">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="D316" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>207</v>
@@ -34573,16 +34552,16 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B317" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C317" s="1">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="D317" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>207</v>
@@ -34596,16 +34575,16 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B318" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C318" s="1">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="D318" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>207</v>
@@ -34619,16 +34598,16 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B319" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C319" s="1">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D319" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>207</v>
@@ -34642,16 +34621,16 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B320" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C320" s="1">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="D320" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>207</v>
@@ -34665,16 +34644,16 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B321" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C321" s="1">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="D321" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>207</v>
@@ -34688,16 +34667,16 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B322" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C322" s="1">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D322" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>207</v>
@@ -34711,16 +34690,16 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B323" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C323" s="1">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D323" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>207</v>
@@ -34734,16 +34713,16 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B324" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C324" s="1">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="D324" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>207</v>
@@ -34757,16 +34736,16 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B325" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C325" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D325" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>207</v>
@@ -34780,16 +34759,16 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B326" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C326" s="1">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D326" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>207</v>
@@ -34803,16 +34782,16 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B327" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C327" s="1">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="D327" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>207</v>
@@ -34826,16 +34805,16 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B328" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C328" s="1">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="D328" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>207</v>
@@ -34849,16 +34828,16 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B329" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C329" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D329" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>207</v>
@@ -34872,16 +34851,16 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B330" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C330" s="1">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="D330" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>207</v>
@@ -34895,16 +34874,16 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B331" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C331" s="1">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="D331" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>207</v>
@@ -34918,16 +34897,16 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B332" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C332" s="1">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="D332" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>207</v>
@@ -34941,16 +34920,16 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B333" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C333" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D333" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>207</v>
@@ -34964,16 +34943,16 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B334" s="1">
+        <v>6</v>
+      </c>
+      <c r="C334" s="1">
+        <v>152</v>
+      </c>
+      <c r="D334" s="1">
         <v>10</v>
-      </c>
-      <c r="C334" s="1">
-        <v>121</v>
-      </c>
-      <c r="D334" s="1">
-        <v>7</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>207</v>
@@ -34987,16 +34966,16 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B335" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C335" s="1">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="D335" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>207</v>
@@ -35010,16 +34989,16 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B336" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C336" s="1">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="D336" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>207</v>
@@ -35033,16 +35012,16 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B337" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C337" s="1">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="D337" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>207</v>
@@ -35056,16 +35035,16 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B338" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C338" s="1">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="D338" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>207</v>
@@ -35079,16 +35058,16 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B339" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C339" s="1">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="D339" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>207</v>
@@ -35101,1016 +35080,378 @@
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A340" s="1">
-        <v>80</v>
-      </c>
-      <c r="B340" s="1">
-        <v>6</v>
-      </c>
-      <c r="C340" s="1">
-        <v>126</v>
-      </c>
-      <c r="D340" s="1">
-        <v>8</v>
+      <c r="A340" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A341" s="1">
-        <v>80</v>
-      </c>
-      <c r="B341" s="1">
-        <v>7</v>
-      </c>
-      <c r="C341" s="1">
-        <v>127</v>
-      </c>
-      <c r="D341" s="1">
-        <v>8</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F341" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G341" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
+      <c r="G341" s="1"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A342" s="1">
-        <v>80</v>
-      </c>
-      <c r="B342" s="1">
-        <v>8</v>
-      </c>
-      <c r="C342" s="1">
-        <v>128</v>
-      </c>
-      <c r="D342" s="1">
-        <v>8</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F342" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G342" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
+      <c r="G342" s="1"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" s="1">
-        <v>80</v>
-      </c>
-      <c r="B343" s="1">
-        <v>9</v>
-      </c>
-      <c r="C343" s="1">
-        <v>129</v>
-      </c>
-      <c r="D343" s="1">
-        <v>8</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F343" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G343" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+      <c r="G343" s="1"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="1">
-        <v>80</v>
-      </c>
-      <c r="B344" s="1">
-        <v>10</v>
-      </c>
-      <c r="C344" s="1">
-        <v>130</v>
-      </c>
-      <c r="D344" s="1">
-        <v>8</v>
-      </c>
-      <c r="E344" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F344" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G344" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" s="1">
-        <v>80</v>
-      </c>
-      <c r="B345" s="1">
-        <v>11</v>
-      </c>
-      <c r="C345" s="1">
-        <v>131</v>
-      </c>
-      <c r="D345" s="1">
-        <v>8</v>
-      </c>
-      <c r="E345" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F345" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G345" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A346" s="1">
-        <v>80</v>
-      </c>
-      <c r="B346" s="1">
-        <v>12</v>
-      </c>
-      <c r="C346" s="1">
-        <v>132</v>
-      </c>
-      <c r="D346" s="1">
-        <v>8</v>
-      </c>
-      <c r="E346" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F346" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G346" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A347" s="1">
-        <v>80</v>
-      </c>
-      <c r="B347" s="1">
-        <v>13</v>
-      </c>
-      <c r="C347" s="1">
-        <v>23</v>
-      </c>
-      <c r="D347" s="1">
-        <v>8</v>
-      </c>
-      <c r="E347" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F347" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G347" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
+      <c r="G347" s="1"/>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A348" s="1">
-        <v>80</v>
-      </c>
-      <c r="B348" s="1">
-        <v>14</v>
-      </c>
-      <c r="C348" s="1">
-        <v>133</v>
-      </c>
-      <c r="D348" s="1">
-        <v>8</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F348" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G348" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+      <c r="F348" s="1"/>
+      <c r="G348" s="1"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A349" s="1">
-        <v>80</v>
-      </c>
-      <c r="B349" s="1">
-        <v>15</v>
-      </c>
-      <c r="C349" s="1">
-        <v>134</v>
-      </c>
-      <c r="D349" s="1">
-        <v>8</v>
-      </c>
-      <c r="E349" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F349" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G349" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A350" s="1">
-        <v>80</v>
-      </c>
-      <c r="B350" s="1">
-        <v>16</v>
-      </c>
-      <c r="C350" s="1">
-        <v>135</v>
-      </c>
-      <c r="D350" s="1">
-        <v>8</v>
-      </c>
-      <c r="E350" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F350" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G350" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A351" s="1">
-        <v>80</v>
-      </c>
-      <c r="B351" s="1">
-        <v>17</v>
-      </c>
-      <c r="C351" s="1">
-        <v>136</v>
-      </c>
-      <c r="D351" s="1">
-        <v>8</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F351" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G351" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
+      <c r="G351" s="1"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A352" s="1">
-        <v>80</v>
-      </c>
-      <c r="B352" s="1">
-        <v>18</v>
-      </c>
-      <c r="C352" s="1">
-        <v>137</v>
-      </c>
-      <c r="D352" s="1">
-        <v>8</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F352" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G352" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+      <c r="G352" s="1"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="1">
-        <v>80</v>
-      </c>
-      <c r="B353" s="1">
-        <v>19</v>
-      </c>
-      <c r="C353" s="1">
-        <v>138</v>
-      </c>
-      <c r="D353" s="1">
-        <v>8</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F353" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G353" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354" s="1">
-        <v>80</v>
-      </c>
-      <c r="B354" s="1">
-        <v>20</v>
-      </c>
-      <c r="C354" s="1">
-        <v>139</v>
-      </c>
-      <c r="D354" s="1">
-        <v>8</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F354" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G354" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A355" s="1">
-        <v>80</v>
-      </c>
-      <c r="B355" s="1">
-        <v>21</v>
-      </c>
-      <c r="C355" s="1">
-        <v>140</v>
-      </c>
-      <c r="D355" s="1">
-        <v>8</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F355" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G355" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
+      <c r="G355" s="1"/>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A356" s="1">
-        <v>80</v>
-      </c>
-      <c r="B356" s="1">
-        <v>22</v>
-      </c>
-      <c r="C356" s="1">
-        <v>24</v>
-      </c>
-      <c r="D356" s="1">
-        <v>8</v>
-      </c>
-      <c r="E356" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F356" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G356" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
+      <c r="F356" s="1"/>
+      <c r="G356" s="1"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357" s="1">
-        <v>90</v>
-      </c>
-      <c r="B357" s="1">
-        <v>1</v>
-      </c>
-      <c r="C357" s="1">
-        <v>25</v>
-      </c>
-      <c r="D357" s="1">
-        <v>9</v>
-      </c>
-      <c r="E357" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F357" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G357" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A358" s="1">
-        <v>90</v>
-      </c>
-      <c r="B358" s="1">
-        <v>2</v>
-      </c>
-      <c r="C358" s="1">
-        <v>129</v>
-      </c>
-      <c r="D358" s="1">
-        <v>9</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F358" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G358" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1"/>
+      <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A359" s="1">
-        <v>90</v>
-      </c>
-      <c r="B359" s="1">
-        <v>3</v>
-      </c>
-      <c r="C359" s="1">
-        <v>130</v>
-      </c>
-      <c r="D359" s="1">
-        <v>9</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F359" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G359" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="1"/>
+      <c r="F359" s="1"/>
+      <c r="G359" s="1"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" s="1">
-        <v>90</v>
-      </c>
-      <c r="B360" s="1">
-        <v>4</v>
-      </c>
-      <c r="C360" s="1">
-        <v>131</v>
-      </c>
-      <c r="D360" s="1">
-        <v>9</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F360" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G360" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
+      <c r="E360" s="1"/>
+      <c r="F360" s="1"/>
+      <c r="G360" s="1"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" s="1">
-        <v>90</v>
-      </c>
-      <c r="B361" s="1">
-        <v>5</v>
-      </c>
-      <c r="C361" s="1">
-        <v>26</v>
-      </c>
-      <c r="D361" s="1">
-        <v>9</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F361" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G361" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="1"/>
+      <c r="F361" s="1"/>
+      <c r="G361" s="1"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="1">
-        <v>90</v>
-      </c>
-      <c r="B362" s="1">
-        <v>6</v>
-      </c>
-      <c r="C362" s="1">
-        <v>132</v>
-      </c>
-      <c r="D362" s="1">
-        <v>9</v>
-      </c>
-      <c r="E362" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F362" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G362" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1"/>
+      <c r="F362" s="1"/>
+      <c r="G362" s="1"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="1">
-        <v>90</v>
-      </c>
-      <c r="B363" s="1">
-        <v>7</v>
-      </c>
-      <c r="C363" s="1">
-        <v>133</v>
-      </c>
-      <c r="D363" s="1">
-        <v>9</v>
-      </c>
-      <c r="E363" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F363" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G363" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="1"/>
+      <c r="F363" s="1"/>
+      <c r="G363" s="1"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A364" s="1">
-        <v>90</v>
-      </c>
-      <c r="B364" s="1">
-        <v>8</v>
-      </c>
-      <c r="C364" s="1">
-        <v>134</v>
-      </c>
-      <c r="D364" s="1">
-        <v>9</v>
-      </c>
-      <c r="E364" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F364" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G364" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+      <c r="E364" s="1"/>
+      <c r="F364" s="1"/>
+      <c r="G364" s="1"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A365" s="1">
-        <v>90</v>
-      </c>
-      <c r="B365" s="1">
-        <v>9</v>
-      </c>
-      <c r="C365" s="1">
-        <v>135</v>
-      </c>
-      <c r="D365" s="1">
-        <v>9</v>
-      </c>
-      <c r="E365" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F365" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G365" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="1"/>
+      <c r="E365" s="1"/>
+      <c r="F365" s="1"/>
+      <c r="G365" s="1"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A366" s="1">
-        <v>90</v>
-      </c>
-      <c r="B366" s="1">
-        <v>10</v>
-      </c>
-      <c r="C366" s="1">
-        <v>136</v>
-      </c>
-      <c r="D366" s="1">
-        <v>9</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F366" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G366" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="1"/>
+      <c r="E366" s="1"/>
+      <c r="F366" s="1"/>
+      <c r="G366" s="1"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="1">
-        <v>90</v>
-      </c>
-      <c r="B367" s="1">
-        <v>11</v>
-      </c>
-      <c r="C367" s="1">
-        <v>137</v>
-      </c>
-      <c r="D367" s="1">
-        <v>9</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F367" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G367" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="1"/>
+      <c r="E367" s="1"/>
+      <c r="F367" s="1"/>
+      <c r="G367" s="1"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A368" s="1">
-        <v>90</v>
-      </c>
-      <c r="B368" s="1">
-        <v>12</v>
-      </c>
-      <c r="C368" s="1">
-        <v>27</v>
-      </c>
-      <c r="D368" s="1">
-        <v>9</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F368" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G368" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
+      <c r="E368" s="1"/>
+      <c r="F368" s="1"/>
+      <c r="G368" s="1"/>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A369" s="1">
-        <v>90</v>
-      </c>
-      <c r="B369" s="1">
-        <v>13</v>
-      </c>
-      <c r="C369" s="1">
-        <v>138</v>
-      </c>
-      <c r="D369" s="1">
-        <v>9</v>
-      </c>
-      <c r="E369" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F369" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G369" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+      <c r="D369" s="1"/>
+      <c r="E369" s="1"/>
+      <c r="F369" s="1"/>
+      <c r="G369" s="1"/>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A370" s="1">
-        <v>90</v>
-      </c>
-      <c r="B370" s="1">
-        <v>14</v>
-      </c>
-      <c r="C370" s="1">
-        <v>139</v>
-      </c>
-      <c r="D370" s="1">
-        <v>9</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F370" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G370" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="1"/>
+      <c r="E370" s="1"/>
+      <c r="F370" s="1"/>
+      <c r="G370" s="1"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" s="1">
-        <v>90</v>
-      </c>
-      <c r="B371" s="1">
-        <v>15</v>
-      </c>
-      <c r="C371" s="1">
-        <v>140</v>
-      </c>
-      <c r="D371" s="1">
-        <v>9</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F371" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G371" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
+      <c r="D371" s="1"/>
+      <c r="E371" s="1"/>
+      <c r="F371" s="1"/>
+      <c r="G371" s="1"/>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" s="1">
-        <v>100</v>
-      </c>
-      <c r="B372" s="1">
-        <v>1</v>
-      </c>
-      <c r="C372" s="1">
-        <v>28</v>
-      </c>
-      <c r="D372" s="1">
-        <v>10</v>
-      </c>
-      <c r="E372" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F372" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G372" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
+      <c r="D372" s="1"/>
+      <c r="E372" s="1"/>
+      <c r="F372" s="1"/>
+      <c r="G372" s="1"/>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A373" s="1">
-        <v>100</v>
-      </c>
-      <c r="B373" s="1">
-        <v>2</v>
-      </c>
-      <c r="C373" s="1">
-        <v>153</v>
-      </c>
-      <c r="D373" s="1">
-        <v>10</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F373" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G373" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="1"/>
+      <c r="F373" s="1"/>
+      <c r="G373" s="1"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A374" s="1">
-        <v>100</v>
-      </c>
-      <c r="B374" s="1">
-        <v>3</v>
-      </c>
-      <c r="C374" s="1">
-        <v>154</v>
-      </c>
-      <c r="D374" s="1">
-        <v>10</v>
-      </c>
-      <c r="E374" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F374" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G374" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
+      <c r="D374" s="1"/>
+      <c r="E374" s="1"/>
+      <c r="F374" s="1"/>
+      <c r="G374" s="1"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A375" s="1">
-        <v>100</v>
-      </c>
-      <c r="B375" s="1">
-        <v>4</v>
-      </c>
-      <c r="C375" s="1">
-        <v>155</v>
-      </c>
-      <c r="D375" s="1">
-        <v>10</v>
-      </c>
-      <c r="E375" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F375" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G375" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="1"/>
+      <c r="F375" s="1"/>
+      <c r="G375" s="1"/>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A376" s="1">
-        <v>100</v>
-      </c>
-      <c r="B376" s="1">
-        <v>5</v>
-      </c>
-      <c r="C376" s="1">
-        <v>29</v>
-      </c>
-      <c r="D376" s="1">
-        <v>10</v>
-      </c>
-      <c r="E376" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F376" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G376" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+      <c r="D376" s="1"/>
+      <c r="E376" s="1"/>
+      <c r="F376" s="1"/>
+      <c r="G376" s="1"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A377" s="1">
-        <v>100</v>
-      </c>
-      <c r="B377" s="1">
-        <v>6</v>
-      </c>
-      <c r="C377" s="1">
-        <v>156</v>
-      </c>
-      <c r="D377" s="1">
-        <v>10</v>
-      </c>
-      <c r="E377" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F377" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G377" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+      <c r="D377" s="1"/>
+      <c r="E377" s="1"/>
+      <c r="F377" s="1"/>
+      <c r="G377" s="1"/>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" s="1">
-        <v>100</v>
-      </c>
-      <c r="B378" s="1">
-        <v>7</v>
-      </c>
-      <c r="C378" s="1">
-        <v>157</v>
-      </c>
-      <c r="D378" s="1">
-        <v>10</v>
-      </c>
-      <c r="E378" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F378" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G378" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+      <c r="D378" s="1"/>
+      <c r="E378" s="1"/>
+      <c r="F378" s="1"/>
+      <c r="G378" s="1"/>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A379" s="1">
-        <v>100</v>
-      </c>
-      <c r="B379" s="1">
-        <v>8</v>
-      </c>
-      <c r="C379" s="1">
-        <v>158</v>
-      </c>
-      <c r="D379" s="1">
-        <v>10</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F379" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G379" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A380" s="1">
-        <v>100</v>
-      </c>
-      <c r="B380" s="1">
-        <v>9</v>
-      </c>
-      <c r="C380" s="1">
-        <v>30</v>
-      </c>
-      <c r="D380" s="1">
-        <v>10</v>
-      </c>
-      <c r="E380" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F380" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G380" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A381" s="1">
-        <v>100</v>
-      </c>
-      <c r="B381" s="1">
-        <v>10</v>
-      </c>
-      <c r="C381" s="1">
-        <v>159</v>
-      </c>
-      <c r="D381" s="1">
-        <v>10</v>
-      </c>
-      <c r="E381" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F381" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G381" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A382" s="1">
-        <v>100</v>
-      </c>
-      <c r="B382" s="1">
-        <v>11</v>
-      </c>
-      <c r="C382" s="1">
-        <v>160</v>
-      </c>
-      <c r="D382" s="1">
-        <v>10</v>
-      </c>
-      <c r="E382" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F382" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G382" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F383" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G383" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="1"/>
+      <c r="F379" s="1"/>
+      <c r="G379" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36121,7 +35462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G242"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
       <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>

--- a/provisional/inserts.xlsx
+++ b/provisional/inserts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20640" windowHeight="10035" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20640" windowHeight="10035" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="inserts iniciales" sheetId="3" r:id="rId1"/>
@@ -1005,7 +1005,7 @@
     <t>Facturacion.frmFacturacion</t>
   </si>
   <si>
-    <t>Seguridad.frmAsignacionDeUsuariosAEmpresa</t>
+    <t>Seguridad.frmAsignarUsuariosAEmpresa</t>
   </si>
 </sst>
 </file>
@@ -17422,8 +17422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35462,7 +35462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>

--- a/provisional/inserts.xlsx
+++ b/provisional/inserts.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub_Seguridad\BaseSistemasIntegrados\provisional\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="20640" windowHeight="10035" firstSheet="1" activeTab="5"/>
   </bookViews>
@@ -17,12 +22,12 @@
     <sheet name="permisos ultimate" sheetId="11" r:id="rId8"/>
     <sheet name="permisos2" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="344">
   <si>
     <t>NULL</t>
   </si>
@@ -933,9 +938,6 @@
     <t>por definir</t>
   </si>
   <si>
-    <t>Asignar Perfil</t>
-  </si>
-  <si>
     <t>Contabilidad.FormListaModeloAsientos</t>
   </si>
   <si>
@@ -1006,6 +1008,57 @@
   </si>
   <si>
     <t>Seguridad.frmAsignarUsuariosAEmpresa</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>PROCESOS</t>
+  </si>
+  <si>
+    <t>CONSULTAS/REPORTES</t>
+  </si>
+  <si>
+    <t>Creacion perfiles</t>
+  </si>
+  <si>
+    <t>Registrar empresa</t>
+  </si>
+  <si>
+    <t>Imagen de seguridad</t>
+  </si>
+  <si>
+    <t>Cambio de contraseña</t>
+  </si>
+  <si>
+    <t>Asignar permisos</t>
+  </si>
+  <si>
+    <t>Asignar perfil</t>
+  </si>
+  <si>
+    <t>Asignar pantalla a perfil</t>
+  </si>
+  <si>
+    <t>Asignacion de usuarios</t>
+  </si>
+  <si>
+    <t>Horarios de acceso</t>
+  </si>
+  <si>
+    <t>Asignar usuarios a empresa</t>
+  </si>
+  <si>
+    <t>Monitoreo de usuarios</t>
+  </si>
+  <si>
+    <t>Acceso de usuarios</t>
+  </si>
+  <si>
+    <t>Tipos de usuarios</t>
+  </si>
+  <si>
+    <t>Privilegios de usuarios</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1150,7 +1203,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17422,8 +17475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17444,7 +17497,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -17467,7 +17520,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -17490,7 +17543,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>329</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -17513,7 +17566,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -17536,7 +17589,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>328</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
@@ -17559,7 +17612,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -17582,7 +17635,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>0</v>
@@ -17605,7 +17658,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
@@ -17628,7 +17681,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>329</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>0</v>
@@ -17651,7 +17704,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>0</v>
@@ -17674,7 +17727,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>0</v>
@@ -17697,7 +17750,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>0</v>
@@ -17720,7 +17773,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>0</v>
@@ -17743,7 +17796,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>0</v>
@@ -17766,7 +17819,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>0</v>
@@ -17789,7 +17842,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>0</v>
@@ -17812,7 +17865,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>0</v>
@@ -17835,7 +17888,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>0</v>
@@ -17858,7 +17911,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>0</v>
@@ -17881,7 +17934,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>0</v>
@@ -17904,7 +17957,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>0</v>
@@ -17927,7 +17980,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>0</v>
@@ -17950,7 +18003,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>0</v>
@@ -17973,7 +18026,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>0</v>
@@ -17996,7 +18049,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>0</v>
@@ -18019,7 +18072,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>0</v>
@@ -18042,7 +18095,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>0</v>
@@ -18065,7 +18118,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>0</v>
@@ -18088,7 +18141,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>0</v>
@@ -18111,7 +18164,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>0</v>
@@ -18157,7 +18210,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>4</v>
+        <v>330</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>5</v>
@@ -18180,7 +18233,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>110</v>
+        <v>331</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>9</v>
@@ -18203,7 +18256,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>332</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>11</v>
@@ -18226,7 +18279,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>13</v>
+        <v>333</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>14</v>
@@ -18249,7 +18302,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>15</v>
+        <v>334</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>5</v>
@@ -18272,7 +18325,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>16</v>
@@ -18295,7 +18348,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>242</v>
@@ -18318,7 +18371,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>239</v>
+        <v>337</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>240</v>
@@ -18341,10 +18394,10 @@
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>243</v>
+        <v>339</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>26</v>
@@ -18364,7 +18417,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>6</v>
+        <v>340</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>7</v>
@@ -18387,7 +18440,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>341</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>19</v>
@@ -18410,7 +18463,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>21</v>
@@ -18433,7 +18486,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>22</v>
+        <v>342</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>23</v>
@@ -18456,7 +18509,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>24</v>
+        <v>343</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>25</v>
@@ -18505,7 +18558,7 @@
         <v>84</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>26</v>
@@ -18528,7 +18581,7 @@
         <v>85</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>26</v>
@@ -18551,7 +18604,7 @@
         <v>33</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>26</v>
@@ -18574,7 +18627,7 @@
         <v>86</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>26</v>
@@ -18597,7 +18650,7 @@
         <v>87</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>26</v>
@@ -18620,7 +18673,7 @@
         <v>49</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>26</v>
@@ -18643,7 +18696,7 @@
         <v>35</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>26</v>
@@ -18666,7 +18719,7 @@
         <v>36</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>26</v>
@@ -18689,7 +18742,7 @@
         <v>33</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>26</v>
@@ -19149,7 +19202,7 @@
         <v>41</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>26</v>
@@ -19172,7 +19225,7 @@
         <v>44</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>26</v>
@@ -19195,7 +19248,7 @@
         <v>185</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>26</v>
@@ -19218,7 +19271,7 @@
         <v>49</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>26</v>
@@ -19241,7 +19294,7 @@
         <v>69</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>26</v>
@@ -19264,7 +19317,7 @@
         <v>50</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>26</v>
@@ -19284,10 +19337,10 @@
         <v>11</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>26</v>
@@ -19307,10 +19360,10 @@
         <v>11</v>
       </c>
       <c r="D82" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>26</v>
@@ -19330,10 +19383,10 @@
         <v>12</v>
       </c>
       <c r="D83" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>26</v>
@@ -19353,10 +19406,10 @@
         <v>12</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>26</v>
@@ -19376,10 +19429,10 @@
         <v>12</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>26</v>
@@ -19701,7 +19754,7 @@
         <v>114</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>26</v>
@@ -20023,7 +20076,7 @@
         <v>137</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>26</v>
@@ -20046,7 +20099,7 @@
         <v>139</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>26</v>

--- a/provisional/inserts.xlsx
+++ b/provisional/inserts.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5192" uniqueCount="351">
   <si>
     <t>NULL</t>
   </si>
@@ -1060,6 +1060,27 @@
   <si>
     <t>Privilegios de usuarios</t>
   </si>
+  <si>
+    <t>Reporte de Empleados</t>
+  </si>
+  <si>
+    <t>RecursosHumanos.frmConsultaReporteEmpleado</t>
+  </si>
+  <si>
+    <t>RecursosHumanos.frmConsultaReporteRol</t>
+  </si>
+  <si>
+    <t>Reporte de Rol</t>
+  </si>
+  <si>
+    <t>Mano de Obra</t>
+  </si>
+  <si>
+    <t>Taller.frmManoObra</t>
+  </si>
+  <si>
+    <t>Taller.frmOrdendeTrabajo</t>
+  </si>
 </sst>
 </file>
 
@@ -17473,10 +17494,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20619,16 +20640,16 @@
         <v>137</v>
       </c>
       <c r="B137" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C137" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>254</v>
+        <v>344</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>263</v>
+        <v>345</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>26</v>
@@ -20642,16 +20663,16 @@
         <v>138</v>
       </c>
       <c r="B138" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C138" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>253</v>
+        <v>347</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>264</v>
+        <v>346</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>26</v>
@@ -20671,10 +20692,10 @@
         <v>25</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>26</v>
@@ -20691,13 +20712,13 @@
         <v>9</v>
       </c>
       <c r="C140" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>26</v>
@@ -20714,13 +20735,13 @@
         <v>9</v>
       </c>
       <c r="C141" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>26</v>
@@ -20740,10 +20761,10 @@
         <v>26</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>26</v>
@@ -20763,10 +20784,10 @@
         <v>26</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>26</v>
@@ -20786,10 +20807,10 @@
         <v>26</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>26</v>
@@ -20809,10 +20830,10 @@
         <v>26</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>26</v>
@@ -20829,13 +20850,13 @@
         <v>9</v>
       </c>
       <c r="C146" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>26</v>
@@ -20852,13 +20873,13 @@
         <v>9</v>
       </c>
       <c r="C147" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>26</v>
@@ -20878,10 +20899,10 @@
         <v>27</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>26</v>
@@ -20895,16 +20916,16 @@
         <v>149</v>
       </c>
       <c r="B149" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C149" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>26</v>
@@ -20918,16 +20939,16 @@
         <v>150</v>
       </c>
       <c r="B150" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C150" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>26</v>
@@ -20947,10 +20968,10 @@
         <v>28</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>26</v>
@@ -20967,13 +20988,13 @@
         <v>10</v>
       </c>
       <c r="C152" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>26</v>
@@ -20990,13 +21011,13 @@
         <v>10</v>
       </c>
       <c r="C153" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>26</v>
@@ -21013,13 +21034,13 @@
         <v>10</v>
       </c>
       <c r="C154" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>177</v>
+        <v>348</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>195</v>
+        <v>349</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>26</v>
@@ -21036,13 +21057,13 @@
         <v>10</v>
       </c>
       <c r="C155" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>26</v>
@@ -21059,41 +21080,110 @@
         <v>10</v>
       </c>
       <c r="C156" s="1">
+        <v>29</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G156" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>157</v>
+      </c>
+      <c r="B157" s="1">
+        <v>10</v>
+      </c>
+      <c r="C157" s="1">
+        <v>29</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G157" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>158</v>
+      </c>
+      <c r="B158" s="1">
+        <v>10</v>
+      </c>
+      <c r="C158" s="1">
         <v>30</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D158" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G158" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>159</v>
+      </c>
+      <c r="B159" s="1">
+        <v>10</v>
+      </c>
+      <c r="C159" s="1">
+        <v>30</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G156" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G157" s="1" t="s">
+      <c r="F159" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G159" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -27329,9 +27419,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G379"/>
+  <dimension ref="A1:G382"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G342"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -27340,7 +27432,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -27363,10 +27455,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -27386,10 +27478,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -27409,10 +27501,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -27432,10 +27524,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -27455,10 +27547,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -27478,10 +27570,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -27501,10 +27593,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -27524,10 +27616,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -27547,10 +27639,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -27570,10 +27662,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -27593,10 +27685,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -27616,10 +27708,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -27639,10 +27731,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -27662,10 +27754,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -27685,10 +27777,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -27708,10 +27800,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -27731,10 +27823,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -27754,10 +27846,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="1">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -27777,10 +27869,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -27800,10 +27892,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="1">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -27823,10 +27915,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="1">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -27846,10 +27938,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="1">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -27869,10 +27961,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="1">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -27892,10 +27984,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="1">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -27915,10 +28007,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="1">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -27938,10 +28030,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="1">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -27961,10 +28053,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="1">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -27984,10 +28076,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="1">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
@@ -28007,10 +28099,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="1">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
@@ -28030,10 +28122,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="1">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
@@ -28053,10 +28145,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="1">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -28076,10 +28168,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="1">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
@@ -28099,10 +28191,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="1">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
@@ -28122,10 +28214,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="1">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
@@ -28145,10 +28237,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="1">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1">
         <v>3</v>
@@ -28168,10 +28260,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="1">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
@@ -28191,10 +28283,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="1">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D38" s="1">
         <v>3</v>
@@ -28214,10 +28306,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="1">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -28237,10 +28329,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="1">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -28260,10 +28352,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="1">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -28283,10 +28375,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="1">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -28306,10 +28398,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="1">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -28329,10 +28421,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="1">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="C44" s="1">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -28352,10 +28444,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="1">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
@@ -28375,10 +28467,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="1">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="C46" s="1">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
@@ -28398,10 +28490,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="1">
-        <v>195</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
@@ -28421,10 +28513,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="1">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D48" s="1">
         <v>3</v>
@@ -28444,10 +28536,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="1">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="C49" s="1">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -28467,10 +28559,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="1">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="C50" s="1">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
@@ -28490,10 +28582,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="1">
-        <v>199</v>
+        <v>51</v>
       </c>
       <c r="C51" s="1">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
@@ -28513,10 +28605,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="1">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="C52" s="1">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
@@ -28536,10 +28628,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="1">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="C53" s="1">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -28559,10 +28651,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="1">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c r="C54" s="1">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D54" s="1">
         <v>4</v>
@@ -28582,10 +28674,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="1">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="C55" s="1">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
@@ -28605,10 +28697,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="1">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="C56" s="1">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D56" s="1">
         <v>4</v>
@@ -28628,10 +28720,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="1">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="C57" s="1">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D57" s="1">
         <v>4</v>
@@ -28651,10 +28743,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="1">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="C58" s="1">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D58" s="1">
         <v>4</v>
@@ -28674,10 +28766,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="1">
-        <v>207</v>
+        <v>59</v>
       </c>
       <c r="C59" s="1">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D59" s="1">
         <v>4</v>
@@ -28697,10 +28789,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="1">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="C60" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D60" s="1">
         <v>4</v>
@@ -28720,10 +28812,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="1">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="C61" s="1">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D61" s="1">
         <v>4</v>
@@ -28743,10 +28835,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="1">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="C62" s="1">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D62" s="1">
         <v>4</v>
@@ -28766,10 +28858,10 @@
         <v>1</v>
       </c>
       <c r="B63" s="1">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="C63" s="1">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D63" s="1">
         <v>4</v>
@@ -28789,10 +28881,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="1">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c r="C64" s="1">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D64" s="1">
         <v>4</v>
@@ -28812,10 +28904,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="1">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="C65" s="1">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D65" s="1">
         <v>4</v>
@@ -28835,10 +28927,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="1">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="C66" s="1">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D66" s="1">
         <v>4</v>
@@ -28858,10 +28950,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="1">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="C67" s="1">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D67" s="1">
         <v>4</v>
@@ -28881,10 +28973,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="1">
-        <v>216</v>
+        <v>68</v>
       </c>
       <c r="C68" s="1">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D68" s="1">
         <v>5</v>
@@ -28904,10 +28996,10 @@
         <v>1</v>
       </c>
       <c r="B69" s="1">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="C69" s="1">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D69" s="1">
         <v>5</v>
@@ -28927,10 +29019,10 @@
         <v>1</v>
       </c>
       <c r="B70" s="1">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="C70" s="1">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D70" s="1">
         <v>5</v>
@@ -28950,10 +29042,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="1">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="C71" s="1">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
@@ -28973,10 +29065,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="1">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="C72" s="1">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D72" s="1">
         <v>5</v>
@@ -28996,10 +29088,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="1">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="C73" s="1">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D73" s="1">
         <v>5</v>
@@ -29019,10 +29111,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="1">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="C74" s="1">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D74" s="1">
         <v>5</v>
@@ -29042,10 +29134,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="1">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="C75" s="1">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D75" s="1">
         <v>5</v>
@@ -29065,10 +29157,10 @@
         <v>1</v>
       </c>
       <c r="B76" s="1">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="C76" s="1">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D76" s="1">
         <v>5</v>
@@ -29088,10 +29180,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="1">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="C77" s="1">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D77" s="1">
         <v>5</v>
@@ -29111,10 +29203,10 @@
         <v>1</v>
       </c>
       <c r="B78" s="1">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="C78" s="1">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D78" s="1">
         <v>5</v>
@@ -29134,10 +29226,10 @@
         <v>1</v>
       </c>
       <c r="B79" s="1">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="C79" s="1">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D79" s="1">
         <v>5</v>
@@ -29157,10 +29249,10 @@
         <v>1</v>
       </c>
       <c r="B80" s="1">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="C80" s="1">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D80" s="1">
         <v>5</v>
@@ -29180,10 +29272,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="1">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="C81" s="1">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="D81" s="1">
         <v>6</v>
@@ -29203,10 +29295,10 @@
         <v>1</v>
       </c>
       <c r="B82" s="1">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="C82" s="1">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D82" s="1">
         <v>6</v>
@@ -29226,10 +29318,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="1">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="C83" s="1">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D83" s="1">
         <v>6</v>
@@ -29249,10 +29341,10 @@
         <v>1</v>
       </c>
       <c r="B84" s="1">
-        <v>232</v>
+        <v>84</v>
       </c>
       <c r="C84" s="1">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D84" s="1">
         <v>6</v>
@@ -29272,10 +29364,10 @@
         <v>1</v>
       </c>
       <c r="B85" s="1">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="C85" s="1">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D85" s="1">
         <v>6</v>
@@ -29295,10 +29387,10 @@
         <v>1</v>
       </c>
       <c r="B86" s="1">
-        <v>234</v>
+        <v>86</v>
       </c>
       <c r="C86" s="1">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D86" s="1">
         <v>6</v>
@@ -29318,10 +29410,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="1">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="C87" s="1">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D87" s="1">
         <v>6</v>
@@ -29341,10 +29433,10 @@
         <v>1</v>
       </c>
       <c r="B88" s="1">
-        <v>236</v>
+        <v>88</v>
       </c>
       <c r="C88" s="1">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="D88" s="1">
         <v>6</v>
@@ -29364,10 +29456,10 @@
         <v>1</v>
       </c>
       <c r="B89" s="1">
-        <v>237</v>
+        <v>89</v>
       </c>
       <c r="C89" s="1">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D89" s="1">
         <v>6</v>
@@ -29387,10 +29479,10 @@
         <v>1</v>
       </c>
       <c r="B90" s="1">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="C90" s="1">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D90" s="1">
         <v>6</v>
@@ -29410,10 +29502,10 @@
         <v>1</v>
       </c>
       <c r="B91" s="1">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1">
         <v>6</v>
@@ -29433,10 +29525,10 @@
         <v>1</v>
       </c>
       <c r="B92" s="1">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="C92" s="1">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D92" s="1">
         <v>6</v>
@@ -29456,10 +29548,10 @@
         <v>1</v>
       </c>
       <c r="B93" s="1">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="C93" s="1">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D93" s="1">
         <v>6</v>
@@ -29479,10 +29571,10 @@
         <v>1</v>
       </c>
       <c r="B94" s="1">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="C94" s="1">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D94" s="1">
         <v>6</v>
@@ -29502,10 +29594,10 @@
         <v>1</v>
       </c>
       <c r="B95" s="1">
-        <v>243</v>
+        <v>95</v>
       </c>
       <c r="C95" s="1">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D95" s="1">
         <v>6</v>
@@ -29525,10 +29617,10 @@
         <v>1</v>
       </c>
       <c r="B96" s="1">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="C96" s="1">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D96" s="1">
         <v>6</v>
@@ -29548,10 +29640,10 @@
         <v>1</v>
       </c>
       <c r="B97" s="1">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="C97" s="1">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D97" s="1">
         <v>6</v>
@@ -29571,10 +29663,10 @@
         <v>1</v>
       </c>
       <c r="B98" s="1">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="C98" s="1">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D98" s="1">
         <v>6</v>
@@ -29594,10 +29686,10 @@
         <v>1</v>
       </c>
       <c r="B99" s="1">
-        <v>247</v>
+        <v>99</v>
       </c>
       <c r="C99" s="1">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="D99" s="1">
         <v>7</v>
@@ -29617,10 +29709,10 @@
         <v>1</v>
       </c>
       <c r="B100" s="1">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="C100" s="1">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D100" s="1">
         <v>7</v>
@@ -29640,10 +29732,10 @@
         <v>1</v>
       </c>
       <c r="B101" s="1">
-        <v>249</v>
+        <v>101</v>
       </c>
       <c r="C101" s="1">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D101" s="1">
         <v>7</v>
@@ -29663,10 +29755,10 @@
         <v>1</v>
       </c>
       <c r="B102" s="1">
-        <v>250</v>
+        <v>102</v>
       </c>
       <c r="C102" s="1">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D102" s="1">
         <v>7</v>
@@ -29686,10 +29778,10 @@
         <v>1</v>
       </c>
       <c r="B103" s="1">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c r="C103" s="1">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D103" s="1">
         <v>7</v>
@@ -29709,10 +29801,10 @@
         <v>1</v>
       </c>
       <c r="B104" s="1">
-        <v>252</v>
+        <v>104</v>
       </c>
       <c r="C104" s="1">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D104" s="1">
         <v>7</v>
@@ -29732,10 +29824,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="1">
-        <v>253</v>
+        <v>105</v>
       </c>
       <c r="C105" s="1">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D105" s="1">
         <v>7</v>
@@ -29755,10 +29847,10 @@
         <v>1</v>
       </c>
       <c r="B106" s="1">
-        <v>254</v>
+        <v>106</v>
       </c>
       <c r="C106" s="1">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D106" s="1">
         <v>7</v>
@@ -29778,10 +29870,10 @@
         <v>1</v>
       </c>
       <c r="B107" s="1">
-        <v>255</v>
+        <v>107</v>
       </c>
       <c r="C107" s="1">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="D107" s="1">
         <v>7</v>
@@ -29801,10 +29893,10 @@
         <v>1</v>
       </c>
       <c r="B108" s="1">
-        <v>256</v>
+        <v>108</v>
       </c>
       <c r="C108" s="1">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D108" s="1">
         <v>7</v>
@@ -29824,10 +29916,10 @@
         <v>1</v>
       </c>
       <c r="B109" s="1">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="C109" s="1">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="D109" s="1">
         <v>8</v>
@@ -29847,10 +29939,10 @@
         <v>1</v>
       </c>
       <c r="B110" s="1">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="C110" s="1">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D110" s="1">
         <v>8</v>
@@ -29870,10 +29962,10 @@
         <v>1</v>
       </c>
       <c r="B111" s="1">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="C111" s="1">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D111" s="1">
         <v>8</v>
@@ -29893,10 +29985,10 @@
         <v>1</v>
       </c>
       <c r="B112" s="1">
-        <v>260</v>
+        <v>112</v>
       </c>
       <c r="C112" s="1">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D112" s="1">
         <v>8</v>
@@ -29916,10 +30008,10 @@
         <v>1</v>
       </c>
       <c r="B113" s="1">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="C113" s="1">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D113" s="1">
         <v>8</v>
@@ -29939,10 +30031,10 @@
         <v>1</v>
       </c>
       <c r="B114" s="1">
-        <v>262</v>
+        <v>114</v>
       </c>
       <c r="C114" s="1">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D114" s="1">
         <v>8</v>
@@ -29962,10 +30054,10 @@
         <v>1</v>
       </c>
       <c r="B115" s="1">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c r="C115" s="1">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D115" s="1">
         <v>8</v>
@@ -29985,10 +30077,10 @@
         <v>1</v>
       </c>
       <c r="B116" s="1">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="C116" s="1">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D116" s="1">
         <v>8</v>
@@ -30008,10 +30100,10 @@
         <v>1</v>
       </c>
       <c r="B117" s="1">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="C117" s="1">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D117" s="1">
         <v>8</v>
@@ -30031,10 +30123,10 @@
         <v>1</v>
       </c>
       <c r="B118" s="1">
-        <v>266</v>
+        <v>118</v>
       </c>
       <c r="C118" s="1">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D118" s="1">
         <v>8</v>
@@ -30054,10 +30146,10 @@
         <v>1</v>
       </c>
       <c r="B119" s="1">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="C119" s="1">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D119" s="1">
         <v>8</v>
@@ -30077,10 +30169,10 @@
         <v>1</v>
       </c>
       <c r="B120" s="1">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="C120" s="1">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D120" s="1">
         <v>8</v>
@@ -30100,10 +30192,10 @@
         <v>1</v>
       </c>
       <c r="B121" s="1">
-        <v>269</v>
+        <v>121</v>
       </c>
       <c r="C121" s="1">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="D121" s="1">
         <v>8</v>
@@ -30123,10 +30215,10 @@
         <v>1</v>
       </c>
       <c r="B122" s="1">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="C122" s="1">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D122" s="1">
         <v>8</v>
@@ -30146,10 +30238,10 @@
         <v>1</v>
       </c>
       <c r="B123" s="1">
-        <v>271</v>
+        <v>123</v>
       </c>
       <c r="C123" s="1">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D123" s="1">
         <v>8</v>
@@ -30169,10 +30261,10 @@
         <v>1</v>
       </c>
       <c r="B124" s="1">
-        <v>272</v>
+        <v>124</v>
       </c>
       <c r="C124" s="1">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D124" s="1">
         <v>8</v>
@@ -30192,10 +30284,10 @@
         <v>1</v>
       </c>
       <c r="B125" s="1">
-        <v>273</v>
+        <v>125</v>
       </c>
       <c r="C125" s="1">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D125" s="1">
         <v>8</v>
@@ -30215,10 +30307,10 @@
         <v>1</v>
       </c>
       <c r="B126" s="1">
-        <v>274</v>
+        <v>126</v>
       </c>
       <c r="C126" s="1">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D126" s="1">
         <v>8</v>
@@ -30238,10 +30330,10 @@
         <v>1</v>
       </c>
       <c r="B127" s="1">
-        <v>275</v>
+        <v>127</v>
       </c>
       <c r="C127" s="1">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D127" s="1">
         <v>8</v>
@@ -30261,10 +30353,10 @@
         <v>1</v>
       </c>
       <c r="B128" s="1">
-        <v>276</v>
+        <v>128</v>
       </c>
       <c r="C128" s="1">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D128" s="1">
         <v>8</v>
@@ -30284,10 +30376,10 @@
         <v>1</v>
       </c>
       <c r="B129" s="1">
-        <v>277</v>
+        <v>129</v>
       </c>
       <c r="C129" s="1">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D129" s="1">
         <v>8</v>
@@ -30307,10 +30399,10 @@
         <v>1</v>
       </c>
       <c r="B130" s="1">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="C130" s="1">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="D130" s="1">
         <v>8</v>
@@ -30330,13 +30422,13 @@
         <v>1</v>
       </c>
       <c r="B131" s="1">
-        <v>279</v>
+        <v>131</v>
       </c>
       <c r="C131" s="1">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="D131" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>207</v>
@@ -30353,13 +30445,13 @@
         <v>1</v>
       </c>
       <c r="B132" s="1">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="C132" s="1">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D132" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>207</v>
@@ -30376,10 +30468,10 @@
         <v>1</v>
       </c>
       <c r="B133" s="1">
-        <v>281</v>
+        <v>133</v>
       </c>
       <c r="C133" s="1">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D133" s="1">
         <v>9</v>
@@ -30399,10 +30491,10 @@
         <v>1</v>
       </c>
       <c r="B134" s="1">
-        <v>282</v>
+        <v>134</v>
       </c>
       <c r="C134" s="1">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D134" s="1">
         <v>9</v>
@@ -30422,10 +30514,10 @@
         <v>1</v>
       </c>
       <c r="B135" s="1">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="C135" s="1">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="D135" s="1">
         <v>9</v>
@@ -30445,10 +30537,10 @@
         <v>1</v>
       </c>
       <c r="B136" s="1">
-        <v>284</v>
+        <v>136</v>
       </c>
       <c r="C136" s="1">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D136" s="1">
         <v>9</v>
@@ -30468,10 +30560,10 @@
         <v>1</v>
       </c>
       <c r="B137" s="1">
-        <v>285</v>
+        <v>137</v>
       </c>
       <c r="C137" s="1">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D137" s="1">
         <v>9</v>
@@ -30491,10 +30583,10 @@
         <v>1</v>
       </c>
       <c r="B138" s="1">
-        <v>286</v>
+        <v>138</v>
       </c>
       <c r="C138" s="1">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D138" s="1">
         <v>9</v>
@@ -30514,10 +30606,10 @@
         <v>1</v>
       </c>
       <c r="B139" s="1">
-        <v>287</v>
+        <v>139</v>
       </c>
       <c r="C139" s="1">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D139" s="1">
         <v>9</v>
@@ -30537,10 +30629,10 @@
         <v>1</v>
       </c>
       <c r="B140" s="1">
-        <v>288</v>
+        <v>140</v>
       </c>
       <c r="C140" s="1">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D140" s="1">
         <v>9</v>
@@ -30560,10 +30652,10 @@
         <v>1</v>
       </c>
       <c r="B141" s="1">
-        <v>289</v>
+        <v>141</v>
       </c>
       <c r="C141" s="1">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D141" s="1">
         <v>9</v>
@@ -30583,10 +30675,10 @@
         <v>1</v>
       </c>
       <c r="B142" s="1">
-        <v>290</v>
+        <v>142</v>
       </c>
       <c r="C142" s="1">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="D142" s="1">
         <v>9</v>
@@ -30606,10 +30698,10 @@
         <v>1</v>
       </c>
       <c r="B143" s="1">
-        <v>291</v>
+        <v>143</v>
       </c>
       <c r="C143" s="1">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D143" s="1">
         <v>9</v>
@@ -30629,10 +30721,10 @@
         <v>1</v>
       </c>
       <c r="B144" s="1">
-        <v>292</v>
+        <v>144</v>
       </c>
       <c r="C144" s="1">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D144" s="1">
         <v>9</v>
@@ -30652,10 +30744,10 @@
         <v>1</v>
       </c>
       <c r="B145" s="1">
-        <v>293</v>
+        <v>145</v>
       </c>
       <c r="C145" s="1">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D145" s="1">
         <v>9</v>
@@ -30675,13 +30767,13 @@
         <v>1</v>
       </c>
       <c r="B146" s="1">
-        <v>294</v>
+        <v>146</v>
       </c>
       <c r="C146" s="1">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D146" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>207</v>
@@ -30698,13 +30790,13 @@
         <v>1</v>
       </c>
       <c r="B147" s="1">
-        <v>295</v>
+        <v>147</v>
       </c>
       <c r="C147" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D147" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>207</v>
@@ -30721,10 +30813,10 @@
         <v>1</v>
       </c>
       <c r="B148" s="1">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="C148" s="1">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D148" s="1">
         <v>10</v>
@@ -30744,10 +30836,10 @@
         <v>1</v>
       </c>
       <c r="B149" s="1">
-        <v>297</v>
+        <v>149</v>
       </c>
       <c r="C149" s="1">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D149" s="1">
         <v>10</v>
@@ -30767,10 +30859,10 @@
         <v>1</v>
       </c>
       <c r="B150" s="1">
-        <v>298</v>
+        <v>150</v>
       </c>
       <c r="C150" s="1">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="D150" s="1">
         <v>10</v>
@@ -30790,10 +30882,10 @@
         <v>1</v>
       </c>
       <c r="B151" s="1">
-        <v>299</v>
+        <v>151</v>
       </c>
       <c r="C151" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D151" s="1">
         <v>10</v>
@@ -30813,10 +30905,10 @@
         <v>1</v>
       </c>
       <c r="B152" s="1">
-        <v>300</v>
+        <v>152</v>
       </c>
       <c r="C152" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D152" s="1">
         <v>10</v>
@@ -30836,10 +30928,10 @@
         <v>1</v>
       </c>
       <c r="B153" s="1">
-        <v>301</v>
+        <v>153</v>
       </c>
       <c r="C153" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D153" s="1">
         <v>10</v>
@@ -30859,10 +30951,10 @@
         <v>1</v>
       </c>
       <c r="B154" s="1">
-        <v>302</v>
+        <v>154</v>
       </c>
       <c r="C154" s="1">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="D154" s="1">
         <v>10</v>
@@ -30882,7 +30974,7 @@
         <v>1</v>
       </c>
       <c r="B155" s="1">
-        <v>303</v>
+        <v>155</v>
       </c>
       <c r="C155" s="1">
         <v>155</v>
@@ -30905,7 +30997,7 @@
         <v>1</v>
       </c>
       <c r="B156" s="1">
-        <v>304</v>
+        <v>156</v>
       </c>
       <c r="C156" s="1">
         <v>156</v>
@@ -30925,71 +31017,71 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B157" s="1">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="C157" s="1">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="D157" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B158" s="1">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="C158" s="1">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="D158" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B159" s="1">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="C159" s="1">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="D159" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -30997,13 +31089,13 @@
         <v>2</v>
       </c>
       <c r="B160" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C160" s="1">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="D160" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>199</v>
@@ -31020,13 +31112,13 @@
         <v>2</v>
       </c>
       <c r="B161" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C161" s="1">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="D161" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>199</v>
@@ -31043,10 +31135,10 @@
         <v>2</v>
       </c>
       <c r="B162" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C162" s="1">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="D162" s="1">
         <v>7</v>
@@ -31066,10 +31158,10 @@
         <v>2</v>
       </c>
       <c r="B163" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C163" s="1">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="D163" s="1">
         <v>7</v>
@@ -31089,10 +31181,10 @@
         <v>2</v>
       </c>
       <c r="B164" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D164" s="1">
         <v>7</v>
@@ -31112,10 +31204,10 @@
         <v>2</v>
       </c>
       <c r="B165" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C165" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D165" s="1">
         <v>7</v>
@@ -31135,10 +31227,10 @@
         <v>2</v>
       </c>
       <c r="B166" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C166" s="1">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="D166" s="1">
         <v>7</v>
@@ -31158,10 +31250,10 @@
         <v>2</v>
       </c>
       <c r="B167" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C167" s="1">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="D167" s="1">
         <v>7</v>
@@ -31181,10 +31273,10 @@
         <v>2</v>
       </c>
       <c r="B168" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C168" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D168" s="1">
         <v>7</v>
@@ -31201,16 +31293,16 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B169" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C169" s="1">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="D169" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>199</v>
@@ -31224,16 +31316,16 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B170" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C170" s="1">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="D170" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>199</v>
@@ -31247,16 +31339,16 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B171" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C171" s="1">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="D171" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>199</v>
@@ -31273,10 +31365,10 @@
         <v>6</v>
       </c>
       <c r="B172" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C172" s="1">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="D172" s="1">
         <v>10</v>
@@ -31296,13 +31388,13 @@
         <v>6</v>
       </c>
       <c r="B173" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C173" s="1">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="D173" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>199</v>
@@ -31319,13 +31411,13 @@
         <v>6</v>
       </c>
       <c r="B174" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C174" s="1">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="D174" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>199</v>
@@ -31342,13 +31434,13 @@
         <v>6</v>
       </c>
       <c r="B175" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C175" s="1">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="D175" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>199</v>
@@ -31365,13 +31457,13 @@
         <v>6</v>
       </c>
       <c r="B176" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C176" s="1">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="D176" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>199</v>
@@ -31388,13 +31480,13 @@
         <v>6</v>
       </c>
       <c r="B177" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C177" s="1">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="D177" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>199</v>
@@ -31411,10 +31503,10 @@
         <v>6</v>
       </c>
       <c r="B178" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C178" s="1">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="D178" s="1">
         <v>5</v>
@@ -31434,10 +31526,10 @@
         <v>6</v>
       </c>
       <c r="B179" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C179" s="1">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D179" s="1">
         <v>5</v>
@@ -31457,13 +31549,13 @@
         <v>6</v>
       </c>
       <c r="B180" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C180" s="1">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D180" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>199</v>
@@ -31480,13 +31572,13 @@
         <v>6</v>
       </c>
       <c r="B181" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C181" s="1">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D181" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>199</v>
@@ -31503,13 +31595,13 @@
         <v>6</v>
       </c>
       <c r="B182" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C182" s="1">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D182" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>199</v>
@@ -31526,10 +31618,10 @@
         <v>6</v>
       </c>
       <c r="B183" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C183" s="1">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="D183" s="1">
         <v>7</v>
@@ -31546,71 +31638,71 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B184" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C184" s="1">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="D184" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B185" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C185" s="1">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="D185" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B186" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C186" s="1">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="D186" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -31618,10 +31710,10 @@
         <v>10</v>
       </c>
       <c r="B187" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C187" s="1">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D187" s="1">
         <v>1</v>
@@ -31641,10 +31733,10 @@
         <v>10</v>
       </c>
       <c r="B188" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C188" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D188" s="1">
         <v>1</v>
@@ -31664,10 +31756,10 @@
         <v>10</v>
       </c>
       <c r="B189" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C189" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D189" s="1">
         <v>1</v>
@@ -31687,10 +31779,10 @@
         <v>10</v>
       </c>
       <c r="B190" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C190" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
@@ -31710,10 +31802,10 @@
         <v>10</v>
       </c>
       <c r="B191" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C191" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -31733,10 +31825,10 @@
         <v>10</v>
       </c>
       <c r="B192" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C192" s="1">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D192" s="1">
         <v>1</v>
@@ -31756,10 +31848,10 @@
         <v>10</v>
       </c>
       <c r="B193" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C193" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D193" s="1">
         <v>1</v>
@@ -31779,10 +31871,10 @@
         <v>10</v>
       </c>
       <c r="B194" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C194" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -31802,10 +31894,10 @@
         <v>10</v>
       </c>
       <c r="B195" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C195" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -31825,10 +31917,10 @@
         <v>10</v>
       </c>
       <c r="B196" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C196" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D196" s="1">
         <v>1</v>
@@ -31848,10 +31940,10 @@
         <v>10</v>
       </c>
       <c r="B197" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C197" s="1">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D197" s="1">
         <v>1</v>
@@ -31871,10 +31963,10 @@
         <v>10</v>
       </c>
       <c r="B198" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C198" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D198" s="1">
         <v>1</v>
@@ -31894,10 +31986,10 @@
         <v>10</v>
       </c>
       <c r="B199" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C199" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -31917,10 +32009,10 @@
         <v>10</v>
       </c>
       <c r="B200" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C200" s="1">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D200" s="1">
         <v>1</v>
@@ -31940,10 +32032,10 @@
         <v>10</v>
       </c>
       <c r="B201" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C201" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D201" s="1">
         <v>1</v>
@@ -31960,16 +32052,16 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B202" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C202" s="1">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D202" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>207</v>
@@ -31983,16 +32075,16 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B203" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C203" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D203" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>207</v>
@@ -32006,16 +32098,16 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B204" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C204" s="1">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D204" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>207</v>
@@ -32032,10 +32124,10 @@
         <v>20</v>
       </c>
       <c r="B205" s="1">
+        <v>1</v>
+      </c>
+      <c r="C205" s="1">
         <v>4</v>
-      </c>
-      <c r="C205" s="1">
-        <v>47</v>
       </c>
       <c r="D205" s="1">
         <v>2</v>
@@ -32055,10 +32147,10 @@
         <v>20</v>
       </c>
       <c r="B206" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C206" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D206" s="1">
         <v>2</v>
@@ -32078,10 +32170,10 @@
         <v>20</v>
       </c>
       <c r="B207" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C207" s="1">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="D207" s="1">
         <v>2</v>
@@ -32101,10 +32193,10 @@
         <v>20</v>
       </c>
       <c r="B208" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C208" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D208" s="1">
         <v>2</v>
@@ -32124,10 +32216,10 @@
         <v>20</v>
       </c>
       <c r="B209" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C209" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D209" s="1">
         <v>2</v>
@@ -32147,10 +32239,10 @@
         <v>20</v>
       </c>
       <c r="B210" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C210" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D210" s="1">
         <v>2</v>
@@ -32170,10 +32262,10 @@
         <v>20</v>
       </c>
       <c r="B211" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C211" s="1">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D211" s="1">
         <v>2</v>
@@ -32193,10 +32285,10 @@
         <v>20</v>
       </c>
       <c r="B212" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C212" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D212" s="1">
         <v>2</v>
@@ -32216,10 +32308,10 @@
         <v>20</v>
       </c>
       <c r="B213" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C213" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D213" s="1">
         <v>2</v>
@@ -32239,10 +32331,10 @@
         <v>20</v>
       </c>
       <c r="B214" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C214" s="1">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D214" s="1">
         <v>2</v>
@@ -32259,16 +32351,16 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B215" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C215" s="1">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D215" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>207</v>
@@ -32282,16 +32374,16 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B216" s="1">
+        <v>12</v>
+      </c>
+      <c r="C216" s="1">
+        <v>54</v>
+      </c>
+      <c r="D216" s="1">
         <v>2</v>
-      </c>
-      <c r="C216" s="1">
-        <v>56</v>
-      </c>
-      <c r="D216" s="1">
-        <v>3</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>207</v>
@@ -32305,16 +32397,16 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B217" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C217" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D217" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>207</v>
@@ -32331,10 +32423,10 @@
         <v>30</v>
       </c>
       <c r="B218" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C218" s="1">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D218" s="1">
         <v>3</v>
@@ -32354,10 +32446,10 @@
         <v>30</v>
       </c>
       <c r="B219" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C219" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D219" s="1">
         <v>3</v>
@@ -32377,10 +32469,10 @@
         <v>30</v>
       </c>
       <c r="B220" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C220" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D220" s="1">
         <v>3</v>
@@ -32400,10 +32492,10 @@
         <v>30</v>
       </c>
       <c r="B221" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C221" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D221" s="1">
         <v>3</v>
@@ -32423,10 +32515,10 @@
         <v>30</v>
       </c>
       <c r="B222" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C222" s="1">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D222" s="1">
         <v>3</v>
@@ -32446,10 +32538,10 @@
         <v>30</v>
       </c>
       <c r="B223" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C223" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D223" s="1">
         <v>3</v>
@@ -32469,10 +32561,10 @@
         <v>30</v>
       </c>
       <c r="B224" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C224" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D224" s="1">
         <v>3</v>
@@ -32492,10 +32584,10 @@
         <v>30</v>
       </c>
       <c r="B225" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C225" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D225" s="1">
         <v>3</v>
@@ -32515,10 +32607,10 @@
         <v>30</v>
       </c>
       <c r="B226" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C226" s="1">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D226" s="1">
         <v>3</v>
@@ -32538,10 +32630,10 @@
         <v>30</v>
       </c>
       <c r="B227" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C227" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D227" s="1">
         <v>3</v>
@@ -32561,10 +32653,10 @@
         <v>30</v>
       </c>
       <c r="B228" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C228" s="1">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D228" s="1">
         <v>3</v>
@@ -32584,10 +32676,10 @@
         <v>30</v>
       </c>
       <c r="B229" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C229" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D229" s="1">
         <v>3</v>
@@ -32607,10 +32699,10 @@
         <v>30</v>
       </c>
       <c r="B230" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C230" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D230" s="1">
         <v>3</v>
@@ -32630,10 +32722,10 @@
         <v>30</v>
       </c>
       <c r="B231" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C231" s="1">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D231" s="1">
         <v>3</v>
@@ -32653,10 +32745,10 @@
         <v>30</v>
       </c>
       <c r="B232" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C232" s="1">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D232" s="1">
         <v>3</v>
@@ -32676,10 +32768,10 @@
         <v>30</v>
       </c>
       <c r="B233" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C233" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D233" s="1">
         <v>3</v>
@@ -32699,10 +32791,10 @@
         <v>30</v>
       </c>
       <c r="B234" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C234" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D234" s="1">
         <v>3</v>
@@ -32722,10 +32814,10 @@
         <v>30</v>
       </c>
       <c r="B235" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C235" s="1">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D235" s="1">
         <v>3</v>
@@ -32745,10 +32837,10 @@
         <v>30</v>
       </c>
       <c r="B236" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C236" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D236" s="1">
         <v>3</v>
@@ -32765,16 +32857,16 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B237" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C237" s="1">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D237" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>207</v>
@@ -32788,16 +32880,16 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B238" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C238" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D238" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>207</v>
@@ -32811,16 +32903,16 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B239" s="1">
+        <v>22</v>
+      </c>
+      <c r="C239" s="1">
+        <v>74</v>
+      </c>
+      <c r="D239" s="1">
         <v>3</v>
-      </c>
-      <c r="C239" s="1">
-        <v>76</v>
-      </c>
-      <c r="D239" s="1">
-        <v>4</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>207</v>
@@ -32837,10 +32929,10 @@
         <v>40</v>
       </c>
       <c r="B240" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C240" s="1">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="D240" s="1">
         <v>4</v>
@@ -32860,10 +32952,10 @@
         <v>40</v>
       </c>
       <c r="B241" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C241" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D241" s="1">
         <v>4</v>
@@ -32883,10 +32975,10 @@
         <v>40</v>
       </c>
       <c r="B242" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C242" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D242" s="1">
         <v>4</v>
@@ -32906,10 +32998,10 @@
         <v>40</v>
       </c>
       <c r="B243" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C243" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D243" s="1">
         <v>4</v>
@@ -32929,10 +33021,10 @@
         <v>40</v>
       </c>
       <c r="B244" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C244" s="1">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D244" s="1">
         <v>4</v>
@@ -32952,10 +33044,10 @@
         <v>40</v>
       </c>
       <c r="B245" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C245" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D245" s="1">
         <v>4</v>
@@ -32975,10 +33067,10 @@
         <v>40</v>
       </c>
       <c r="B246" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C246" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D246" s="1">
         <v>4</v>
@@ -32998,10 +33090,10 @@
         <v>40</v>
       </c>
       <c r="B247" s="1">
+        <v>8</v>
+      </c>
+      <c r="C247" s="1">
         <v>11</v>
-      </c>
-      <c r="C247" s="1">
-        <v>83</v>
       </c>
       <c r="D247" s="1">
         <v>4</v>
@@ -33021,10 +33113,10 @@
         <v>40</v>
       </c>
       <c r="B248" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C248" s="1">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D248" s="1">
         <v>4</v>
@@ -33044,10 +33136,10 @@
         <v>40</v>
       </c>
       <c r="B249" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C249" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D249" s="1">
         <v>4</v>
@@ -33067,10 +33159,10 @@
         <v>40</v>
       </c>
       <c r="B250" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C250" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D250" s="1">
         <v>4</v>
@@ -33087,16 +33179,16 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B251" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C251" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D251" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>207</v>
@@ -33110,16 +33202,16 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B252" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C252" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D252" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>207</v>
@@ -33133,16 +33225,16 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B253" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C253" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D253" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>207</v>
@@ -33159,10 +33251,10 @@
         <v>50</v>
       </c>
       <c r="B254" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C254" s="1">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="D254" s="1">
         <v>5</v>
@@ -33182,10 +33274,10 @@
         <v>50</v>
       </c>
       <c r="B255" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C255" s="1">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D255" s="1">
         <v>5</v>
@@ -33205,10 +33297,10 @@
         <v>50</v>
       </c>
       <c r="B256" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C256" s="1">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="D256" s="1">
         <v>5</v>
@@ -33228,10 +33320,10 @@
         <v>50</v>
       </c>
       <c r="B257" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C257" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D257" s="1">
         <v>5</v>
@@ -33251,10 +33343,10 @@
         <v>50</v>
       </c>
       <c r="B258" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C258" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D258" s="1">
         <v>5</v>
@@ -33274,10 +33366,10 @@
         <v>50</v>
       </c>
       <c r="B259" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C259" s="1">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D259" s="1">
         <v>5</v>
@@ -33297,10 +33389,10 @@
         <v>50</v>
       </c>
       <c r="B260" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C260" s="1">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="D260" s="1">
         <v>5</v>
@@ -33320,10 +33412,10 @@
         <v>50</v>
       </c>
       <c r="B261" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C261" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D261" s="1">
         <v>5</v>
@@ -33343,10 +33435,10 @@
         <v>50</v>
       </c>
       <c r="B262" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C262" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D262" s="1">
         <v>5</v>
@@ -33366,10 +33458,10 @@
         <v>50</v>
       </c>
       <c r="B263" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C263" s="1">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="D263" s="1">
         <v>5</v>
@@ -33386,16 +33478,16 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B264" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C264" s="1">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="D264" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>207</v>
@@ -33409,16 +33501,16 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B265" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C265" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D265" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>207</v>
@@ -33432,16 +33524,16 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B266" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C266" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D266" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>207</v>
@@ -33458,10 +33550,10 @@
         <v>60</v>
       </c>
       <c r="B267" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C267" s="1">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="D267" s="1">
         <v>6</v>
@@ -33481,10 +33573,10 @@
         <v>60</v>
       </c>
       <c r="B268" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C268" s="1">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D268" s="1">
         <v>6</v>
@@ -33504,10 +33596,10 @@
         <v>60</v>
       </c>
       <c r="B269" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C269" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D269" s="1">
         <v>6</v>
@@ -33527,10 +33619,10 @@
         <v>60</v>
       </c>
       <c r="B270" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C270" s="1">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D270" s="1">
         <v>6</v>
@@ -33550,10 +33642,10 @@
         <v>60</v>
       </c>
       <c r="B271" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C271" s="1">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="D271" s="1">
         <v>6</v>
@@ -33573,10 +33665,10 @@
         <v>60</v>
       </c>
       <c r="B272" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C272" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D272" s="1">
         <v>6</v>
@@ -33596,10 +33688,10 @@
         <v>60</v>
       </c>
       <c r="B273" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C273" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D273" s="1">
         <v>6</v>
@@ -33619,10 +33711,10 @@
         <v>60</v>
       </c>
       <c r="B274" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C274" s="1">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="D274" s="1">
         <v>6</v>
@@ -33642,10 +33734,10 @@
         <v>60</v>
       </c>
       <c r="B275" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C275" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D275" s="1">
         <v>6</v>
@@ -33665,10 +33757,10 @@
         <v>60</v>
       </c>
       <c r="B276" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C276" s="1">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D276" s="1">
         <v>6</v>
@@ -33688,10 +33780,10 @@
         <v>60</v>
       </c>
       <c r="B277" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C277" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D277" s="1">
         <v>6</v>
@@ -33711,10 +33803,10 @@
         <v>60</v>
       </c>
       <c r="B278" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C278" s="1">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="D278" s="1">
         <v>6</v>
@@ -33734,10 +33826,10 @@
         <v>60</v>
       </c>
       <c r="B279" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C279" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D279" s="1">
         <v>6</v>
@@ -33757,10 +33849,10 @@
         <v>60</v>
       </c>
       <c r="B280" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C280" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D280" s="1">
         <v>6</v>
@@ -33780,10 +33872,10 @@
         <v>60</v>
       </c>
       <c r="B281" s="1">
+        <v>15</v>
+      </c>
+      <c r="C281" s="1">
         <v>18</v>
-      </c>
-      <c r="C281" s="1">
-        <v>110</v>
       </c>
       <c r="D281" s="1">
         <v>6</v>
@@ -33800,16 +33892,16 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B282" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C282" s="1">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D282" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>207</v>
@@ -33823,16 +33915,16 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B283" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C283" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D283" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>207</v>
@@ -33846,16 +33938,16 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B284" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C284" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D284" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>207</v>
@@ -33872,10 +33964,10 @@
         <v>70</v>
       </c>
       <c r="B285" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C285" s="1">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="D285" s="1">
         <v>7</v>
@@ -33895,10 +33987,10 @@
         <v>70</v>
       </c>
       <c r="B286" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C286" s="1">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="D286" s="1">
         <v>7</v>
@@ -33918,10 +34010,10 @@
         <v>70</v>
       </c>
       <c r="B287" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C287" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D287" s="1">
         <v>7</v>
@@ -33941,10 +34033,10 @@
         <v>70</v>
       </c>
       <c r="B288" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C288" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D288" s="1">
         <v>7</v>
@@ -33964,10 +34056,10 @@
         <v>70</v>
       </c>
       <c r="B289" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C289" s="1">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="D289" s="1">
         <v>7</v>
@@ -33987,10 +34079,10 @@
         <v>70</v>
       </c>
       <c r="B290" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C290" s="1">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="D290" s="1">
         <v>7</v>
@@ -34010,10 +34102,10 @@
         <v>70</v>
       </c>
       <c r="B291" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C291" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D291" s="1">
         <v>7</v>
@@ -34030,16 +34122,16 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B292" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C292" s="1">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="D292" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>207</v>
@@ -34053,16 +34145,16 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B293" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C293" s="1">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="D293" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>207</v>
@@ -34076,16 +34168,16 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B294" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C294" s="1">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D294" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>207</v>
@@ -34102,10 +34194,10 @@
         <v>80</v>
       </c>
       <c r="B295" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C295" s="1">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="D295" s="1">
         <v>8</v>
@@ -34125,10 +34217,10 @@
         <v>80</v>
       </c>
       <c r="B296" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C296" s="1">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D296" s="1">
         <v>8</v>
@@ -34148,10 +34240,10 @@
         <v>80</v>
       </c>
       <c r="B297" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C297" s="1">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D297" s="1">
         <v>8</v>
@@ -34171,10 +34263,10 @@
         <v>80</v>
       </c>
       <c r="B298" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C298" s="1">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D298" s="1">
         <v>8</v>
@@ -34194,10 +34286,10 @@
         <v>80</v>
       </c>
       <c r="B299" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C299" s="1">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D299" s="1">
         <v>8</v>
@@ -34217,10 +34309,10 @@
         <v>80</v>
       </c>
       <c r="B300" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C300" s="1">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D300" s="1">
         <v>8</v>
@@ -34240,10 +34332,10 @@
         <v>80</v>
       </c>
       <c r="B301" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C301" s="1">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D301" s="1">
         <v>8</v>
@@ -34263,10 +34355,10 @@
         <v>80</v>
       </c>
       <c r="B302" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C302" s="1">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D302" s="1">
         <v>8</v>
@@ -34286,10 +34378,10 @@
         <v>80</v>
       </c>
       <c r="B303" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C303" s="1">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D303" s="1">
         <v>8</v>
@@ -34309,10 +34401,10 @@
         <v>80</v>
       </c>
       <c r="B304" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C304" s="1">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="D304" s="1">
         <v>8</v>
@@ -34332,10 +34424,10 @@
         <v>80</v>
       </c>
       <c r="B305" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C305" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D305" s="1">
         <v>8</v>
@@ -34355,10 +34447,10 @@
         <v>80</v>
       </c>
       <c r="B306" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C306" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D306" s="1">
         <v>8</v>
@@ -34378,10 +34470,10 @@
         <v>80</v>
       </c>
       <c r="B307" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C307" s="1">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="D307" s="1">
         <v>8</v>
@@ -34401,10 +34493,10 @@
         <v>80</v>
       </c>
       <c r="B308" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C308" s="1">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D308" s="1">
         <v>8</v>
@@ -34424,10 +34516,10 @@
         <v>80</v>
       </c>
       <c r="B309" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C309" s="1">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D309" s="1">
         <v>8</v>
@@ -34447,10 +34539,10 @@
         <v>80</v>
       </c>
       <c r="B310" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C310" s="1">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D310" s="1">
         <v>8</v>
@@ -34470,10 +34562,10 @@
         <v>80</v>
       </c>
       <c r="B311" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C311" s="1">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D311" s="1">
         <v>8</v>
@@ -34493,10 +34585,10 @@
         <v>80</v>
       </c>
       <c r="B312" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C312" s="1">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D312" s="1">
         <v>8</v>
@@ -34516,10 +34608,10 @@
         <v>80</v>
       </c>
       <c r="B313" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C313" s="1">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="D313" s="1">
         <v>8</v>
@@ -34536,16 +34628,16 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B314" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C314" s="1">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="D314" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>207</v>
@@ -34559,16 +34651,16 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B315" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C315" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D315" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>207</v>
@@ -34582,16 +34674,16 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B316" s="1">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C316" s="1">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="D316" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>207</v>
@@ -34608,10 +34700,10 @@
         <v>90</v>
       </c>
       <c r="B317" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C317" s="1">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="D317" s="1">
         <v>9</v>
@@ -34631,10 +34723,10 @@
         <v>90</v>
       </c>
       <c r="B318" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C318" s="1">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="D318" s="1">
         <v>9</v>
@@ -34654,10 +34746,10 @@
         <v>90</v>
       </c>
       <c r="B319" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C319" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D319" s="1">
         <v>9</v>
@@ -34677,10 +34769,10 @@
         <v>90</v>
       </c>
       <c r="B320" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C320" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D320" s="1">
         <v>9</v>
@@ -34700,10 +34792,10 @@
         <v>90</v>
       </c>
       <c r="B321" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C321" s="1">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="D321" s="1">
         <v>9</v>
@@ -34723,10 +34815,10 @@
         <v>90</v>
       </c>
       <c r="B322" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C322" s="1">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D322" s="1">
         <v>9</v>
@@ -34746,10 +34838,10 @@
         <v>90</v>
       </c>
       <c r="B323" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C323" s="1">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D323" s="1">
         <v>9</v>
@@ -34769,10 +34861,10 @@
         <v>90</v>
       </c>
       <c r="B324" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C324" s="1">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D324" s="1">
         <v>9</v>
@@ -34792,10 +34884,10 @@
         <v>90</v>
       </c>
       <c r="B325" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C325" s="1">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="D325" s="1">
         <v>9</v>
@@ -34815,10 +34907,10 @@
         <v>90</v>
       </c>
       <c r="B326" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C326" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D326" s="1">
         <v>9</v>
@@ -34838,10 +34930,10 @@
         <v>90</v>
       </c>
       <c r="B327" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C327" s="1">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D327" s="1">
         <v>9</v>
@@ -34861,10 +34953,10 @@
         <v>90</v>
       </c>
       <c r="B328" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C328" s="1">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="D328" s="1">
         <v>9</v>
@@ -34881,16 +34973,16 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B329" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C329" s="1">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D329" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>207</v>
@@ -34904,16 +34996,16 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B330" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C330" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D330" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>207</v>
@@ -34927,16 +35019,16 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B331" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C331" s="1">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D331" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>207</v>
@@ -34953,10 +35045,10 @@
         <v>100</v>
       </c>
       <c r="B332" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C332" s="1">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="D332" s="1">
         <v>10</v>
@@ -34976,10 +35068,10 @@
         <v>100</v>
       </c>
       <c r="B333" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C333" s="1">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="D333" s="1">
         <v>10</v>
@@ -34999,10 +35091,10 @@
         <v>100</v>
       </c>
       <c r="B334" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C334" s="1">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D334" s="1">
         <v>10</v>
@@ -35022,10 +35114,10 @@
         <v>100</v>
       </c>
       <c r="B335" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C335" s="1">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D335" s="1">
         <v>10</v>
@@ -35045,10 +35137,10 @@
         <v>100</v>
       </c>
       <c r="B336" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C336" s="1">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="D336" s="1">
         <v>10</v>
@@ -35068,10 +35160,10 @@
         <v>100</v>
       </c>
       <c r="B337" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C337" s="1">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="D337" s="1">
         <v>10</v>
@@ -35091,10 +35183,10 @@
         <v>100</v>
       </c>
       <c r="B338" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C338" s="1">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D338" s="1">
         <v>10</v>
@@ -35114,10 +35206,10 @@
         <v>100</v>
       </c>
       <c r="B339" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C339" s="1">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D339" s="1">
         <v>10</v>
@@ -35133,54 +35225,96 @@
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>0</v>
+      <c r="A340" s="1">
+        <v>100</v>
+      </c>
+      <c r="B340" s="1">
+        <v>9</v>
+      </c>
+      <c r="C340" s="1">
+        <v>30</v>
+      </c>
+      <c r="D340" s="1">
+        <v>10</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>0</v>
+        <v>207</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A341" s="1"/>
-      <c r="B341" s="1"/>
-      <c r="C341" s="1"/>
-      <c r="D341" s="1"/>
-      <c r="E341" s="1"/>
-      <c r="F341" s="1"/>
-      <c r="G341" s="1"/>
+      <c r="A341" s="1">
+        <v>100</v>
+      </c>
+      <c r="B341" s="1">
+        <v>10</v>
+      </c>
+      <c r="C341" s="1">
+        <v>155</v>
+      </c>
+      <c r="D341" s="1">
+        <v>10</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A342" s="1"/>
-      <c r="B342" s="1"/>
-      <c r="C342" s="1"/>
-      <c r="D342" s="1"/>
-      <c r="E342" s="1"/>
-      <c r="F342" s="1"/>
-      <c r="G342" s="1"/>
+      <c r="A342" s="1">
+        <v>100</v>
+      </c>
+      <c r="B342" s="1">
+        <v>11</v>
+      </c>
+      <c r="C342" s="1">
+        <v>156</v>
+      </c>
+      <c r="D342" s="1">
+        <v>10</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" s="1"/>
-      <c r="B343" s="1"/>
-      <c r="C343" s="1"/>
-      <c r="D343" s="1"/>
-      <c r="E343" s="1"/>
-      <c r="F343" s="1"/>
-      <c r="G343" s="1"/>
+      <c r="A343" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G343" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
@@ -35505,6 +35639,33 @@
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+      <c r="D380" s="1"/>
+      <c r="E380" s="1"/>
+      <c r="F380" s="1"/>
+      <c r="G380" s="1"/>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+      <c r="D381" s="1"/>
+      <c r="E381" s="1"/>
+      <c r="F381" s="1"/>
+      <c r="G381" s="1"/>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+      <c r="D382" s="1"/>
+      <c r="E382" s="1"/>
+      <c r="F382" s="1"/>
+      <c r="G382" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/provisional/inserts.xlsx
+++ b/provisional/inserts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20640" windowHeight="10035" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20640" windowHeight="10035" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="inserts iniciales" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5192" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5201" uniqueCount="351">
   <si>
     <t>NULL</t>
   </si>
@@ -17496,9 +17496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -27421,9 +27419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G382"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G342"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -27432,7 +27428,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -27455,10 +27451,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -27478,10 +27474,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -27501,10 +27497,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -27524,10 +27520,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -27547,10 +27543,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="C6" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -27570,10 +27566,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="C7" s="1">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -27593,10 +27589,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="C8" s="1">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -27616,10 +27612,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="C9" s="1">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -27639,10 +27635,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -27662,10 +27658,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="C11" s="1">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -27685,10 +27681,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="C12" s="1">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -27708,10 +27704,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C13" s="1">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -27731,10 +27727,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C14" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -27754,10 +27750,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="C15" s="1">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -27777,10 +27773,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="C16" s="1">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -27800,10 +27796,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="C17" s="1">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -27823,10 +27819,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="C18" s="1">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -27846,10 +27842,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="1">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="C19" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -27869,10 +27865,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="C20" s="1">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -27892,10 +27888,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="1">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="C21" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -27915,10 +27911,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="1">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="C22" s="1">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -27938,10 +27934,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="1">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="C23" s="1">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -27961,10 +27957,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="1">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="C24" s="1">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -27984,10 +27980,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="1">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="C25" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -28007,10 +28003,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="1">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="C26" s="1">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -28030,10 +28026,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="1">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="C27" s="1">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -28053,10 +28049,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="1">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="C28" s="1">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -28076,10 +28072,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="1">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="C29" s="1">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
@@ -28099,10 +28095,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="1">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="C30" s="1">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
@@ -28122,10 +28118,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="1">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="C31" s="1">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
@@ -28145,10 +28141,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="1">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="C32" s="1">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -28168,10 +28164,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="1">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="C33" s="1">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
@@ -28191,10 +28187,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="1">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="C34" s="1">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
@@ -28214,10 +28210,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="1">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="C35" s="1">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
@@ -28237,10 +28233,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="1">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="C36" s="1">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D36" s="1">
         <v>3</v>
@@ -28260,10 +28256,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="1">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="C37" s="1">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
@@ -28283,10 +28279,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="1">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="C38" s="1">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D38" s="1">
         <v>3</v>
@@ -28306,10 +28302,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="1">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="C39" s="1">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -28329,10 +28325,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="1">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="C40" s="1">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -28352,10 +28348,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="1">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="C41" s="1">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -28375,10 +28371,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="1">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="C42" s="1">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -28398,10 +28394,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="1">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="C43" s="1">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -28421,10 +28417,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="1">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="C44" s="1">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -28444,10 +28440,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="1">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="C45" s="1">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
@@ -28467,10 +28463,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="1">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="C46" s="1">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
@@ -28490,10 +28486,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="1">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="C47" s="1">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
@@ -28513,10 +28509,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="1">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="C48" s="1">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D48" s="1">
         <v>3</v>
@@ -28536,10 +28532,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="1">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="C49" s="1">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -28559,10 +28555,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="1">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="C50" s="1">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
@@ -28582,10 +28578,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="1">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="C51" s="1">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
@@ -28605,10 +28601,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="1">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="C52" s="1">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
@@ -28628,10 +28624,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="1">
-        <v>53</v>
+        <v>212</v>
       </c>
       <c r="C53" s="1">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -28651,10 +28647,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="1">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="C54" s="1">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1">
         <v>4</v>
@@ -28674,10 +28670,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="1">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="C55" s="1">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
@@ -28697,10 +28693,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="1">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="C56" s="1">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D56" s="1">
         <v>4</v>
@@ -28720,10 +28716,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="1">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="C57" s="1">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D57" s="1">
         <v>4</v>
@@ -28743,10 +28739,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="1">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="C58" s="1">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D58" s="1">
         <v>4</v>
@@ -28766,10 +28762,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="1">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="C59" s="1">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D59" s="1">
         <v>4</v>
@@ -28789,10 +28785,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="1">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="C60" s="1">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D60" s="1">
         <v>4</v>
@@ -28812,10 +28808,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="1">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c r="C61" s="1">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D61" s="1">
         <v>4</v>
@@ -28835,10 +28831,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="1">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="C62" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D62" s="1">
         <v>4</v>
@@ -28858,10 +28854,10 @@
         <v>1</v>
       </c>
       <c r="B63" s="1">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="C63" s="1">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D63" s="1">
         <v>4</v>
@@ -28881,10 +28877,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="1">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="C64" s="1">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D64" s="1">
         <v>4</v>
@@ -28904,10 +28900,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="1">
-        <v>65</v>
+        <v>224</v>
       </c>
       <c r="C65" s="1">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D65" s="1">
         <v>4</v>
@@ -28927,10 +28923,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="1">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c r="C66" s="1">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D66" s="1">
         <v>4</v>
@@ -28950,10 +28946,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="1">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="C67" s="1">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D67" s="1">
         <v>4</v>
@@ -28973,10 +28969,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="1">
-        <v>68</v>
+        <v>227</v>
       </c>
       <c r="C68" s="1">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="D68" s="1">
         <v>5</v>
@@ -28996,10 +28992,10 @@
         <v>1</v>
       </c>
       <c r="B69" s="1">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="C69" s="1">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D69" s="1">
         <v>5</v>
@@ -29019,10 +29015,10 @@
         <v>1</v>
       </c>
       <c r="B70" s="1">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="C70" s="1">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D70" s="1">
         <v>5</v>
@@ -29042,10 +29038,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="1">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="C71" s="1">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
@@ -29065,10 +29061,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="1">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="C72" s="1">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D72" s="1">
         <v>5</v>
@@ -29088,10 +29084,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="1">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="C73" s="1">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D73" s="1">
         <v>5</v>
@@ -29111,10 +29107,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="1">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="C74" s="1">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D74" s="1">
         <v>5</v>
@@ -29134,10 +29130,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="1">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="C75" s="1">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D75" s="1">
         <v>5</v>
@@ -29157,10 +29153,10 @@
         <v>1</v>
       </c>
       <c r="B76" s="1">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="C76" s="1">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D76" s="1">
         <v>5</v>
@@ -29180,10 +29176,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="1">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="C77" s="1">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="D77" s="1">
         <v>5</v>
@@ -29203,10 +29199,10 @@
         <v>1</v>
       </c>
       <c r="B78" s="1">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="C78" s="1">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D78" s="1">
         <v>5</v>
@@ -29226,10 +29222,10 @@
         <v>1</v>
       </c>
       <c r="B79" s="1">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="C79" s="1">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D79" s="1">
         <v>5</v>
@@ -29249,10 +29245,10 @@
         <v>1</v>
       </c>
       <c r="B80" s="1">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="C80" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D80" s="1">
         <v>5</v>
@@ -29272,10 +29268,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="1">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="C81" s="1">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="D81" s="1">
         <v>6</v>
@@ -29295,10 +29291,10 @@
         <v>1</v>
       </c>
       <c r="B82" s="1">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="C82" s="1">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D82" s="1">
         <v>6</v>
@@ -29318,10 +29314,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="1">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="C83" s="1">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D83" s="1">
         <v>6</v>
@@ -29341,10 +29337,10 @@
         <v>1</v>
       </c>
       <c r="B84" s="1">
-        <v>84</v>
+        <v>243</v>
       </c>
       <c r="C84" s="1">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D84" s="1">
         <v>6</v>
@@ -29364,10 +29360,10 @@
         <v>1</v>
       </c>
       <c r="B85" s="1">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="C85" s="1">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D85" s="1">
         <v>6</v>
@@ -29387,10 +29383,10 @@
         <v>1</v>
       </c>
       <c r="B86" s="1">
-        <v>86</v>
+        <v>245</v>
       </c>
       <c r="C86" s="1">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D86" s="1">
         <v>6</v>
@@ -29410,10 +29406,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="1">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="C87" s="1">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D87" s="1">
         <v>6</v>
@@ -29433,10 +29429,10 @@
         <v>1</v>
       </c>
       <c r="B88" s="1">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="C88" s="1">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="D88" s="1">
         <v>6</v>
@@ -29456,10 +29452,10 @@
         <v>1</v>
       </c>
       <c r="B89" s="1">
-        <v>89</v>
+        <v>248</v>
       </c>
       <c r="C89" s="1">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D89" s="1">
         <v>6</v>
@@ -29479,10 +29475,10 @@
         <v>1</v>
       </c>
       <c r="B90" s="1">
-        <v>90</v>
+        <v>249</v>
       </c>
       <c r="C90" s="1">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D90" s="1">
         <v>6</v>
@@ -29502,10 +29498,10 @@
         <v>1</v>
       </c>
       <c r="B91" s="1">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="C91" s="1">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D91" s="1">
         <v>6</v>
@@ -29525,10 +29521,10 @@
         <v>1</v>
       </c>
       <c r="B92" s="1">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="C92" s="1">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D92" s="1">
         <v>6</v>
@@ -29548,10 +29544,10 @@
         <v>1</v>
       </c>
       <c r="B93" s="1">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="C93" s="1">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D93" s="1">
         <v>6</v>
@@ -29571,10 +29567,10 @@
         <v>1</v>
       </c>
       <c r="B94" s="1">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="C94" s="1">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D94" s="1">
         <v>6</v>
@@ -29594,10 +29590,10 @@
         <v>1</v>
       </c>
       <c r="B95" s="1">
-        <v>95</v>
+        <v>254</v>
       </c>
       <c r="C95" s="1">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="D95" s="1">
         <v>6</v>
@@ -29617,10 +29613,10 @@
         <v>1</v>
       </c>
       <c r="B96" s="1">
-        <v>96</v>
+        <v>255</v>
       </c>
       <c r="C96" s="1">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D96" s="1">
         <v>6</v>
@@ -29640,10 +29636,10 @@
         <v>1</v>
       </c>
       <c r="B97" s="1">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="C97" s="1">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D97" s="1">
         <v>6</v>
@@ -29663,10 +29659,10 @@
         <v>1</v>
       </c>
       <c r="B98" s="1">
-        <v>98</v>
+        <v>257</v>
       </c>
       <c r="C98" s="1">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D98" s="1">
         <v>6</v>
@@ -29686,10 +29682,10 @@
         <v>1</v>
       </c>
       <c r="B99" s="1">
-        <v>99</v>
+        <v>258</v>
       </c>
       <c r="C99" s="1">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="D99" s="1">
         <v>7</v>
@@ -29709,10 +29705,10 @@
         <v>1</v>
       </c>
       <c r="B100" s="1">
-        <v>100</v>
+        <v>259</v>
       </c>
       <c r="C100" s="1">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D100" s="1">
         <v>7</v>
@@ -29732,10 +29728,10 @@
         <v>1</v>
       </c>
       <c r="B101" s="1">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="C101" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D101" s="1">
         <v>7</v>
@@ -29755,10 +29751,10 @@
         <v>1</v>
       </c>
       <c r="B102" s="1">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="C102" s="1">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D102" s="1">
         <v>7</v>
@@ -29778,10 +29774,10 @@
         <v>1</v>
       </c>
       <c r="B103" s="1">
-        <v>103</v>
+        <v>262</v>
       </c>
       <c r="C103" s="1">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D103" s="1">
         <v>7</v>
@@ -29801,10 +29797,10 @@
         <v>1</v>
       </c>
       <c r="B104" s="1">
-        <v>104</v>
+        <v>263</v>
       </c>
       <c r="C104" s="1">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D104" s="1">
         <v>7</v>
@@ -29824,10 +29820,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="1">
-        <v>105</v>
+        <v>264</v>
       </c>
       <c r="C105" s="1">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D105" s="1">
         <v>7</v>
@@ -29847,10 +29843,10 @@
         <v>1</v>
       </c>
       <c r="B106" s="1">
-        <v>106</v>
+        <v>265</v>
       </c>
       <c r="C106" s="1">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D106" s="1">
         <v>7</v>
@@ -29870,10 +29866,10 @@
         <v>1</v>
       </c>
       <c r="B107" s="1">
-        <v>107</v>
+        <v>266</v>
       </c>
       <c r="C107" s="1">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="D107" s="1">
         <v>7</v>
@@ -29893,10 +29889,10 @@
         <v>1</v>
       </c>
       <c r="B108" s="1">
-        <v>108</v>
+        <v>267</v>
       </c>
       <c r="C108" s="1">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D108" s="1">
         <v>7</v>
@@ -29916,10 +29912,10 @@
         <v>1</v>
       </c>
       <c r="B109" s="1">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="C109" s="1">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="D109" s="1">
         <v>8</v>
@@ -29939,10 +29935,10 @@
         <v>1</v>
       </c>
       <c r="B110" s="1">
-        <v>110</v>
+        <v>269</v>
       </c>
       <c r="C110" s="1">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D110" s="1">
         <v>8</v>
@@ -29962,10 +29958,10 @@
         <v>1</v>
       </c>
       <c r="B111" s="1">
-        <v>111</v>
+        <v>270</v>
       </c>
       <c r="C111" s="1">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D111" s="1">
         <v>8</v>
@@ -29985,10 +29981,10 @@
         <v>1</v>
       </c>
       <c r="B112" s="1">
-        <v>112</v>
+        <v>271</v>
       </c>
       <c r="C112" s="1">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D112" s="1">
         <v>8</v>
@@ -30008,10 +30004,10 @@
         <v>1</v>
       </c>
       <c r="B113" s="1">
-        <v>113</v>
+        <v>272</v>
       </c>
       <c r="C113" s="1">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D113" s="1">
         <v>8</v>
@@ -30031,10 +30027,10 @@
         <v>1</v>
       </c>
       <c r="B114" s="1">
-        <v>114</v>
+        <v>273</v>
       </c>
       <c r="C114" s="1">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D114" s="1">
         <v>8</v>
@@ -30054,10 +30050,10 @@
         <v>1</v>
       </c>
       <c r="B115" s="1">
-        <v>115</v>
+        <v>274</v>
       </c>
       <c r="C115" s="1">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D115" s="1">
         <v>8</v>
@@ -30077,10 +30073,10 @@
         <v>1</v>
       </c>
       <c r="B116" s="1">
-        <v>116</v>
+        <v>275</v>
       </c>
       <c r="C116" s="1">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D116" s="1">
         <v>8</v>
@@ -30100,10 +30096,10 @@
         <v>1</v>
       </c>
       <c r="B117" s="1">
-        <v>117</v>
+        <v>276</v>
       </c>
       <c r="C117" s="1">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D117" s="1">
         <v>8</v>
@@ -30123,10 +30119,10 @@
         <v>1</v>
       </c>
       <c r="B118" s="1">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="C118" s="1">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D118" s="1">
         <v>8</v>
@@ -30146,10 +30142,10 @@
         <v>1</v>
       </c>
       <c r="B119" s="1">
-        <v>119</v>
+        <v>278</v>
       </c>
       <c r="C119" s="1">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D119" s="1">
         <v>8</v>
@@ -30169,10 +30165,10 @@
         <v>1</v>
       </c>
       <c r="B120" s="1">
-        <v>120</v>
+        <v>279</v>
       </c>
       <c r="C120" s="1">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D120" s="1">
         <v>8</v>
@@ -30192,10 +30188,10 @@
         <v>1</v>
       </c>
       <c r="B121" s="1">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="C121" s="1">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="D121" s="1">
         <v>8</v>
@@ -30215,10 +30211,10 @@
         <v>1</v>
       </c>
       <c r="B122" s="1">
-        <v>122</v>
+        <v>281</v>
       </c>
       <c r="C122" s="1">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D122" s="1">
         <v>8</v>
@@ -30238,10 +30234,10 @@
         <v>1</v>
       </c>
       <c r="B123" s="1">
-        <v>123</v>
+        <v>282</v>
       </c>
       <c r="C123" s="1">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D123" s="1">
         <v>8</v>
@@ -30261,10 +30257,10 @@
         <v>1</v>
       </c>
       <c r="B124" s="1">
-        <v>124</v>
+        <v>283</v>
       </c>
       <c r="C124" s="1">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D124" s="1">
         <v>8</v>
@@ -30284,10 +30280,10 @@
         <v>1</v>
       </c>
       <c r="B125" s="1">
-        <v>125</v>
+        <v>284</v>
       </c>
       <c r="C125" s="1">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D125" s="1">
         <v>8</v>
@@ -30307,10 +30303,10 @@
         <v>1</v>
       </c>
       <c r="B126" s="1">
-        <v>126</v>
+        <v>285</v>
       </c>
       <c r="C126" s="1">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D126" s="1">
         <v>8</v>
@@ -30330,10 +30326,10 @@
         <v>1</v>
       </c>
       <c r="B127" s="1">
-        <v>127</v>
+        <v>286</v>
       </c>
       <c r="C127" s="1">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D127" s="1">
         <v>8</v>
@@ -30353,10 +30349,10 @@
         <v>1</v>
       </c>
       <c r="B128" s="1">
-        <v>128</v>
+        <v>287</v>
       </c>
       <c r="C128" s="1">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D128" s="1">
         <v>8</v>
@@ -30376,10 +30372,10 @@
         <v>1</v>
       </c>
       <c r="B129" s="1">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c r="C129" s="1">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D129" s="1">
         <v>8</v>
@@ -30399,10 +30395,10 @@
         <v>1</v>
       </c>
       <c r="B130" s="1">
-        <v>130</v>
+        <v>289</v>
       </c>
       <c r="C130" s="1">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="D130" s="1">
         <v>8</v>
@@ -30422,10 +30418,10 @@
         <v>1</v>
       </c>
       <c r="B131" s="1">
-        <v>131</v>
+        <v>290</v>
       </c>
       <c r="C131" s="1">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D131" s="1">
         <v>8</v>
@@ -30445,10 +30441,10 @@
         <v>1</v>
       </c>
       <c r="B132" s="1">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="C132" s="1">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D132" s="1">
         <v>8</v>
@@ -30468,10 +30464,10 @@
         <v>1</v>
       </c>
       <c r="B133" s="1">
-        <v>133</v>
+        <v>292</v>
       </c>
       <c r="C133" s="1">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="D133" s="1">
         <v>9</v>
@@ -30491,10 +30487,10 @@
         <v>1</v>
       </c>
       <c r="B134" s="1">
-        <v>134</v>
+        <v>293</v>
       </c>
       <c r="C134" s="1">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D134" s="1">
         <v>9</v>
@@ -30514,10 +30510,10 @@
         <v>1</v>
       </c>
       <c r="B135" s="1">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="C135" s="1">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D135" s="1">
         <v>9</v>
@@ -30537,10 +30533,10 @@
         <v>1</v>
       </c>
       <c r="B136" s="1">
-        <v>136</v>
+        <v>295</v>
       </c>
       <c r="C136" s="1">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D136" s="1">
         <v>9</v>
@@ -30560,10 +30556,10 @@
         <v>1</v>
       </c>
       <c r="B137" s="1">
-        <v>137</v>
+        <v>296</v>
       </c>
       <c r="C137" s="1">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="D137" s="1">
         <v>9</v>
@@ -30583,10 +30579,10 @@
         <v>1</v>
       </c>
       <c r="B138" s="1">
-        <v>138</v>
+        <v>297</v>
       </c>
       <c r="C138" s="1">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D138" s="1">
         <v>9</v>
@@ -30606,10 +30602,10 @@
         <v>1</v>
       </c>
       <c r="B139" s="1">
-        <v>139</v>
+        <v>298</v>
       </c>
       <c r="C139" s="1">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D139" s="1">
         <v>9</v>
@@ -30629,10 +30625,10 @@
         <v>1</v>
       </c>
       <c r="B140" s="1">
-        <v>140</v>
+        <v>299</v>
       </c>
       <c r="C140" s="1">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D140" s="1">
         <v>9</v>
@@ -30652,10 +30648,10 @@
         <v>1</v>
       </c>
       <c r="B141" s="1">
-        <v>141</v>
+        <v>300</v>
       </c>
       <c r="C141" s="1">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D141" s="1">
         <v>9</v>
@@ -30675,10 +30671,10 @@
         <v>1</v>
       </c>
       <c r="B142" s="1">
-        <v>142</v>
+        <v>301</v>
       </c>
       <c r="C142" s="1">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D142" s="1">
         <v>9</v>
@@ -30698,10 +30694,10 @@
         <v>1</v>
       </c>
       <c r="B143" s="1">
-        <v>143</v>
+        <v>302</v>
       </c>
       <c r="C143" s="1">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D143" s="1">
         <v>9</v>
@@ -30721,10 +30717,10 @@
         <v>1</v>
       </c>
       <c r="B144" s="1">
-        <v>144</v>
+        <v>303</v>
       </c>
       <c r="C144" s="1">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="D144" s="1">
         <v>9</v>
@@ -30744,10 +30740,10 @@
         <v>1</v>
       </c>
       <c r="B145" s="1">
-        <v>145</v>
+        <v>304</v>
       </c>
       <c r="C145" s="1">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D145" s="1">
         <v>9</v>
@@ -30767,10 +30763,10 @@
         <v>1</v>
       </c>
       <c r="B146" s="1">
-        <v>146</v>
+        <v>305</v>
       </c>
       <c r="C146" s="1">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D146" s="1">
         <v>9</v>
@@ -30790,10 +30786,10 @@
         <v>1</v>
       </c>
       <c r="B147" s="1">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c r="C147" s="1">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D147" s="1">
         <v>9</v>
@@ -30813,10 +30809,10 @@
         <v>1</v>
       </c>
       <c r="B148" s="1">
-        <v>148</v>
+        <v>307</v>
       </c>
       <c r="C148" s="1">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="D148" s="1">
         <v>10</v>
@@ -30836,10 +30832,10 @@
         <v>1</v>
       </c>
       <c r="B149" s="1">
-        <v>149</v>
+        <v>308</v>
       </c>
       <c r="C149" s="1">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D149" s="1">
         <v>10</v>
@@ -30859,10 +30855,10 @@
         <v>1</v>
       </c>
       <c r="B150" s="1">
-        <v>150</v>
+        <v>309</v>
       </c>
       <c r="C150" s="1">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D150" s="1">
         <v>10</v>
@@ -30882,10 +30878,10 @@
         <v>1</v>
       </c>
       <c r="B151" s="1">
-        <v>151</v>
+        <v>310</v>
       </c>
       <c r="C151" s="1">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D151" s="1">
         <v>10</v>
@@ -30905,10 +30901,10 @@
         <v>1</v>
       </c>
       <c r="B152" s="1">
-        <v>152</v>
+        <v>311</v>
       </c>
       <c r="C152" s="1">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D152" s="1">
         <v>10</v>
@@ -30928,10 +30924,10 @@
         <v>1</v>
       </c>
       <c r="B153" s="1">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="C153" s="1">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="D153" s="1">
         <v>10</v>
@@ -30951,10 +30947,10 @@
         <v>1</v>
       </c>
       <c r="B154" s="1">
-        <v>154</v>
+        <v>313</v>
       </c>
       <c r="C154" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D154" s="1">
         <v>10</v>
@@ -30974,10 +30970,10 @@
         <v>1</v>
       </c>
       <c r="B155" s="1">
-        <v>155</v>
+        <v>314</v>
       </c>
       <c r="C155" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D155" s="1">
         <v>10</v>
@@ -30997,10 +30993,10 @@
         <v>1</v>
       </c>
       <c r="B156" s="1">
-        <v>156</v>
+        <v>315</v>
       </c>
       <c r="C156" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D156" s="1">
         <v>10</v>
@@ -31020,10 +31016,10 @@
         <v>1</v>
       </c>
       <c r="B157" s="1">
-        <v>157</v>
+        <v>316</v>
       </c>
       <c r="C157" s="1">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="D157" s="1">
         <v>10</v>
@@ -31043,7 +31039,7 @@
         <v>1</v>
       </c>
       <c r="B158" s="1">
-        <v>158</v>
+        <v>317</v>
       </c>
       <c r="C158" s="1">
         <v>158</v>
@@ -31066,7 +31062,7 @@
         <v>1</v>
       </c>
       <c r="B159" s="1">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="C159" s="1">
         <v>159</v>
@@ -34697,16 +34693,16 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B317" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C317" s="1">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="D317" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>207</v>
@@ -34720,16 +34716,16 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B318" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C318" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D318" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>207</v>
@@ -34746,10 +34742,10 @@
         <v>90</v>
       </c>
       <c r="B319" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C319" s="1">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="D319" s="1">
         <v>9</v>
@@ -34769,7 +34765,7 @@
         <v>90</v>
       </c>
       <c r="B320" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C320" s="1">
         <v>139</v>
@@ -34792,10 +34788,10 @@
         <v>90</v>
       </c>
       <c r="B321" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C321" s="1">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="D321" s="1">
         <v>9</v>
@@ -34815,10 +34811,10 @@
         <v>90</v>
       </c>
       <c r="B322" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C322" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D322" s="1">
         <v>9</v>
@@ -34838,10 +34834,10 @@
         <v>90</v>
       </c>
       <c r="B323" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C323" s="1">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="D323" s="1">
         <v>9</v>
@@ -34861,7 +34857,7 @@
         <v>90</v>
       </c>
       <c r="B324" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C324" s="1">
         <v>142</v>
@@ -34884,7 +34880,7 @@
         <v>90</v>
       </c>
       <c r="B325" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C325" s="1">
         <v>143</v>
@@ -34907,7 +34903,7 @@
         <v>90</v>
       </c>
       <c r="B326" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C326" s="1">
         <v>144</v>
@@ -34930,7 +34926,7 @@
         <v>90</v>
       </c>
       <c r="B327" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C327" s="1">
         <v>145</v>
@@ -34953,10 +34949,10 @@
         <v>90</v>
       </c>
       <c r="B328" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C328" s="1">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="D328" s="1">
         <v>9</v>
@@ -34976,10 +34972,10 @@
         <v>90</v>
       </c>
       <c r="B329" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C329" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D329" s="1">
         <v>9</v>
@@ -34999,10 +34995,10 @@
         <v>90</v>
       </c>
       <c r="B330" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C330" s="1">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="D330" s="1">
         <v>9</v>
@@ -35022,7 +35018,7 @@
         <v>90</v>
       </c>
       <c r="B331" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C331" s="1">
         <v>148</v>
@@ -35042,16 +35038,16 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B332" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C332" s="1">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="D332" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>207</v>
@@ -35065,16 +35061,16 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B333" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C333" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D333" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>207</v>
@@ -35091,10 +35087,10 @@
         <v>100</v>
       </c>
       <c r="B334" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C334" s="1">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="D334" s="1">
         <v>10</v>
@@ -35114,7 +35110,7 @@
         <v>100</v>
       </c>
       <c r="B335" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C335" s="1">
         <v>151</v>
@@ -35137,10 +35133,10 @@
         <v>100</v>
       </c>
       <c r="B336" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C336" s="1">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="D336" s="1">
         <v>10</v>
@@ -35160,10 +35156,10 @@
         <v>100</v>
       </c>
       <c r="B337" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C337" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D337" s="1">
         <v>10</v>
@@ -35183,10 +35179,10 @@
         <v>100</v>
       </c>
       <c r="B338" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C338" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D338" s="1">
         <v>10</v>
@@ -35206,10 +35202,10 @@
         <v>100</v>
       </c>
       <c r="B339" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C339" s="1">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="D339" s="1">
         <v>10</v>
@@ -35229,10 +35225,10 @@
         <v>100</v>
       </c>
       <c r="B340" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C340" s="1">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="D340" s="1">
         <v>10</v>
@@ -35252,10 +35248,10 @@
         <v>100</v>
       </c>
       <c r="B341" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C341" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D341" s="1">
         <v>10</v>
@@ -35275,10 +35271,10 @@
         <v>100</v>
       </c>
       <c r="B342" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C342" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D342" s="1">
         <v>10</v>
@@ -35294,54 +35290,96 @@
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>0</v>
+      <c r="A343" s="1">
+        <v>100</v>
+      </c>
+      <c r="B343" s="1">
+        <v>10</v>
+      </c>
+      <c r="C343" s="1">
+        <v>30</v>
+      </c>
+      <c r="D343" s="1">
+        <v>10</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>0</v>
+        <v>207</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="1"/>
-      <c r="B344" s="1"/>
-      <c r="C344" s="1"/>
-      <c r="D344" s="1"/>
-      <c r="E344" s="1"/>
-      <c r="F344" s="1"/>
-      <c r="G344" s="1"/>
+      <c r="A344" s="1">
+        <v>100</v>
+      </c>
+      <c r="B344" s="1">
+        <v>11</v>
+      </c>
+      <c r="C344" s="1">
+        <v>158</v>
+      </c>
+      <c r="D344" s="1">
+        <v>10</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" s="1"/>
-      <c r="B345" s="1"/>
-      <c r="C345" s="1"/>
-      <c r="D345" s="1"/>
-      <c r="E345" s="1"/>
-      <c r="F345" s="1"/>
-      <c r="G345" s="1"/>
+      <c r="A345" s="1">
+        <v>100</v>
+      </c>
+      <c r="B345" s="1">
+        <v>12</v>
+      </c>
+      <c r="C345" s="1">
+        <v>159</v>
+      </c>
+      <c r="D345" s="1">
+        <v>10</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A346" s="1"/>
-      <c r="B346" s="1"/>
-      <c r="C346" s="1"/>
-      <c r="D346" s="1"/>
-      <c r="E346" s="1"/>
-      <c r="F346" s="1"/>
-      <c r="G346" s="1"/>
+      <c r="A346" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>

--- a/provisional/inserts.xlsx
+++ b/provisional/inserts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20640" windowHeight="10035" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20640" windowHeight="10035" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="inserts iniciales" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5201" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5192" uniqueCount="351">
   <si>
     <t>NULL</t>
   </si>
@@ -17496,7 +17496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -27419,7 +27421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G342"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -27428,7 +27432,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -27451,10 +27455,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -27474,10 +27478,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -27497,10 +27501,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -27520,10 +27524,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -27543,10 +27547,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -27566,10 +27570,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -27589,10 +27593,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -27612,10 +27616,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -27635,10 +27639,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -27658,10 +27662,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -27681,10 +27685,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -27704,10 +27708,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -27727,10 +27731,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -27750,10 +27754,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -27773,10 +27777,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -27796,10 +27800,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -27819,10 +27823,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -27842,10 +27846,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="1">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -27865,10 +27869,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -27888,10 +27892,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="1">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -27911,10 +27915,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="1">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -27934,10 +27938,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="1">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -27957,10 +27961,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="1">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -27980,10 +27984,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="1">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -28003,10 +28007,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="1">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -28026,10 +28030,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="1">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -28049,10 +28053,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="1">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -28072,10 +28076,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="1">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
@@ -28095,10 +28099,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="1">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
@@ -28118,10 +28122,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="1">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
@@ -28141,10 +28145,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="1">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -28164,10 +28168,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="1">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
@@ -28187,10 +28191,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="1">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
@@ -28210,10 +28214,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="1">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
@@ -28233,10 +28237,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="1">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1">
         <v>3</v>
@@ -28256,10 +28260,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="1">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
@@ -28279,10 +28283,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="1">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D38" s="1">
         <v>3</v>
@@ -28302,10 +28306,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="1">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -28325,10 +28329,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="1">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -28348,10 +28352,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="1">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -28371,10 +28375,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="1">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -28394,10 +28398,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="1">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -28417,10 +28421,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="1">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="C44" s="1">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -28440,10 +28444,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="1">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
@@ -28463,10 +28467,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="1">
-        <v>205</v>
+        <v>46</v>
       </c>
       <c r="C46" s="1">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
@@ -28486,10 +28490,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="1">
-        <v>206</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
@@ -28509,10 +28513,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="1">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D48" s="1">
         <v>3</v>
@@ -28532,10 +28536,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="1">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="C49" s="1">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -28555,10 +28559,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="1">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="C50" s="1">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
@@ -28578,10 +28582,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="1">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="C51" s="1">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
@@ -28601,10 +28605,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="1">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="C52" s="1">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
@@ -28624,10 +28628,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="1">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="C53" s="1">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -28647,10 +28651,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="1">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="C54" s="1">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D54" s="1">
         <v>4</v>
@@ -28670,10 +28674,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="1">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="C55" s="1">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
@@ -28693,10 +28697,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="1">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="C56" s="1">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D56" s="1">
         <v>4</v>
@@ -28716,10 +28720,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="1">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="C57" s="1">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D57" s="1">
         <v>4</v>
@@ -28739,10 +28743,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="1">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="C58" s="1">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D58" s="1">
         <v>4</v>
@@ -28762,10 +28766,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="1">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="C59" s="1">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D59" s="1">
         <v>4</v>
@@ -28785,10 +28789,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="1">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="C60" s="1">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D60" s="1">
         <v>4</v>
@@ -28808,10 +28812,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="1">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="C61" s="1">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D61" s="1">
         <v>4</v>
@@ -28831,10 +28835,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="1">
-        <v>221</v>
+        <v>62</v>
       </c>
       <c r="C62" s="1">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D62" s="1">
         <v>4</v>
@@ -28854,10 +28858,10 @@
         <v>1</v>
       </c>
       <c r="B63" s="1">
-        <v>222</v>
+        <v>63</v>
       </c>
       <c r="C63" s="1">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D63" s="1">
         <v>4</v>
@@ -28877,10 +28881,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="1">
-        <v>223</v>
+        <v>64</v>
       </c>
       <c r="C64" s="1">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D64" s="1">
         <v>4</v>
@@ -28900,10 +28904,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="1">
-        <v>224</v>
+        <v>65</v>
       </c>
       <c r="C65" s="1">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D65" s="1">
         <v>4</v>
@@ -28923,10 +28927,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="1">
-        <v>225</v>
+        <v>66</v>
       </c>
       <c r="C66" s="1">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D66" s="1">
         <v>4</v>
@@ -28946,10 +28950,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="1">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="C67" s="1">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D67" s="1">
         <v>4</v>
@@ -28969,10 +28973,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="1">
-        <v>227</v>
+        <v>68</v>
       </c>
       <c r="C68" s="1">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D68" s="1">
         <v>5</v>
@@ -28992,10 +28996,10 @@
         <v>1</v>
       </c>
       <c r="B69" s="1">
-        <v>228</v>
+        <v>69</v>
       </c>
       <c r="C69" s="1">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D69" s="1">
         <v>5</v>
@@ -29015,10 +29019,10 @@
         <v>1</v>
       </c>
       <c r="B70" s="1">
-        <v>229</v>
+        <v>70</v>
       </c>
       <c r="C70" s="1">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D70" s="1">
         <v>5</v>
@@ -29038,10 +29042,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="1">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="C71" s="1">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
@@ -29061,10 +29065,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="1">
-        <v>231</v>
+        <v>72</v>
       </c>
       <c r="C72" s="1">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D72" s="1">
         <v>5</v>
@@ -29084,10 +29088,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="1">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="C73" s="1">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D73" s="1">
         <v>5</v>
@@ -29107,10 +29111,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="1">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="C74" s="1">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D74" s="1">
         <v>5</v>
@@ -29130,10 +29134,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="1">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="C75" s="1">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D75" s="1">
         <v>5</v>
@@ -29153,10 +29157,10 @@
         <v>1</v>
       </c>
       <c r="B76" s="1">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="C76" s="1">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D76" s="1">
         <v>5</v>
@@ -29176,10 +29180,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="1">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="C77" s="1">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D77" s="1">
         <v>5</v>
@@ -29199,10 +29203,10 @@
         <v>1</v>
       </c>
       <c r="B78" s="1">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="C78" s="1">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D78" s="1">
         <v>5</v>
@@ -29222,10 +29226,10 @@
         <v>1</v>
       </c>
       <c r="B79" s="1">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="C79" s="1">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D79" s="1">
         <v>5</v>
@@ -29245,10 +29249,10 @@
         <v>1</v>
       </c>
       <c r="B80" s="1">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="C80" s="1">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D80" s="1">
         <v>5</v>
@@ -29268,10 +29272,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="1">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="C81" s="1">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="D81" s="1">
         <v>6</v>
@@ -29291,10 +29295,10 @@
         <v>1</v>
       </c>
       <c r="B82" s="1">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="C82" s="1">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D82" s="1">
         <v>6</v>
@@ -29314,10 +29318,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="1">
-        <v>242</v>
+        <v>83</v>
       </c>
       <c r="C83" s="1">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D83" s="1">
         <v>6</v>
@@ -29337,10 +29341,10 @@
         <v>1</v>
       </c>
       <c r="B84" s="1">
-        <v>243</v>
+        <v>84</v>
       </c>
       <c r="C84" s="1">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D84" s="1">
         <v>6</v>
@@ -29360,10 +29364,10 @@
         <v>1</v>
       </c>
       <c r="B85" s="1">
-        <v>244</v>
+        <v>85</v>
       </c>
       <c r="C85" s="1">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D85" s="1">
         <v>6</v>
@@ -29383,10 +29387,10 @@
         <v>1</v>
       </c>
       <c r="B86" s="1">
-        <v>245</v>
+        <v>86</v>
       </c>
       <c r="C86" s="1">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D86" s="1">
         <v>6</v>
@@ -29406,10 +29410,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="1">
-        <v>246</v>
+        <v>87</v>
       </c>
       <c r="C87" s="1">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D87" s="1">
         <v>6</v>
@@ -29429,10 +29433,10 @@
         <v>1</v>
       </c>
       <c r="B88" s="1">
-        <v>247</v>
+        <v>88</v>
       </c>
       <c r="C88" s="1">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="D88" s="1">
         <v>6</v>
@@ -29452,10 +29456,10 @@
         <v>1</v>
       </c>
       <c r="B89" s="1">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="C89" s="1">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D89" s="1">
         <v>6</v>
@@ -29475,10 +29479,10 @@
         <v>1</v>
       </c>
       <c r="B90" s="1">
-        <v>249</v>
+        <v>90</v>
       </c>
       <c r="C90" s="1">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D90" s="1">
         <v>6</v>
@@ -29498,10 +29502,10 @@
         <v>1</v>
       </c>
       <c r="B91" s="1">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1">
         <v>6</v>
@@ -29521,10 +29525,10 @@
         <v>1</v>
       </c>
       <c r="B92" s="1">
-        <v>251</v>
+        <v>92</v>
       </c>
       <c r="C92" s="1">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D92" s="1">
         <v>6</v>
@@ -29544,10 +29548,10 @@
         <v>1</v>
       </c>
       <c r="B93" s="1">
-        <v>252</v>
+        <v>93</v>
       </c>
       <c r="C93" s="1">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D93" s="1">
         <v>6</v>
@@ -29567,10 +29571,10 @@
         <v>1</v>
       </c>
       <c r="B94" s="1">
-        <v>253</v>
+        <v>94</v>
       </c>
       <c r="C94" s="1">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D94" s="1">
         <v>6</v>
@@ -29590,10 +29594,10 @@
         <v>1</v>
       </c>
       <c r="B95" s="1">
-        <v>254</v>
+        <v>95</v>
       </c>
       <c r="C95" s="1">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D95" s="1">
         <v>6</v>
@@ -29613,10 +29617,10 @@
         <v>1</v>
       </c>
       <c r="B96" s="1">
-        <v>255</v>
+        <v>96</v>
       </c>
       <c r="C96" s="1">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D96" s="1">
         <v>6</v>
@@ -29636,10 +29640,10 @@
         <v>1</v>
       </c>
       <c r="B97" s="1">
-        <v>256</v>
+        <v>97</v>
       </c>
       <c r="C97" s="1">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D97" s="1">
         <v>6</v>
@@ -29659,10 +29663,10 @@
         <v>1</v>
       </c>
       <c r="B98" s="1">
-        <v>257</v>
+        <v>98</v>
       </c>
       <c r="C98" s="1">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D98" s="1">
         <v>6</v>
@@ -29682,10 +29686,10 @@
         <v>1</v>
       </c>
       <c r="B99" s="1">
-        <v>258</v>
+        <v>99</v>
       </c>
       <c r="C99" s="1">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="D99" s="1">
         <v>7</v>
@@ -29705,10 +29709,10 @@
         <v>1</v>
       </c>
       <c r="B100" s="1">
-        <v>259</v>
+        <v>100</v>
       </c>
       <c r="C100" s="1">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D100" s="1">
         <v>7</v>
@@ -29728,10 +29732,10 @@
         <v>1</v>
       </c>
       <c r="B101" s="1">
-        <v>260</v>
+        <v>101</v>
       </c>
       <c r="C101" s="1">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D101" s="1">
         <v>7</v>
@@ -29751,10 +29755,10 @@
         <v>1</v>
       </c>
       <c r="B102" s="1">
-        <v>261</v>
+        <v>102</v>
       </c>
       <c r="C102" s="1">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D102" s="1">
         <v>7</v>
@@ -29774,10 +29778,10 @@
         <v>1</v>
       </c>
       <c r="B103" s="1">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c r="C103" s="1">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D103" s="1">
         <v>7</v>
@@ -29797,10 +29801,10 @@
         <v>1</v>
       </c>
       <c r="B104" s="1">
-        <v>263</v>
+        <v>104</v>
       </c>
       <c r="C104" s="1">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D104" s="1">
         <v>7</v>
@@ -29820,10 +29824,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="1">
-        <v>264</v>
+        <v>105</v>
       </c>
       <c r="C105" s="1">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D105" s="1">
         <v>7</v>
@@ -29843,10 +29847,10 @@
         <v>1</v>
       </c>
       <c r="B106" s="1">
-        <v>265</v>
+        <v>106</v>
       </c>
       <c r="C106" s="1">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D106" s="1">
         <v>7</v>
@@ -29866,10 +29870,10 @@
         <v>1</v>
       </c>
       <c r="B107" s="1">
-        <v>266</v>
+        <v>107</v>
       </c>
       <c r="C107" s="1">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="D107" s="1">
         <v>7</v>
@@ -29889,10 +29893,10 @@
         <v>1</v>
       </c>
       <c r="B108" s="1">
-        <v>267</v>
+        <v>108</v>
       </c>
       <c r="C108" s="1">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D108" s="1">
         <v>7</v>
@@ -29912,10 +29916,10 @@
         <v>1</v>
       </c>
       <c r="B109" s="1">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="C109" s="1">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="D109" s="1">
         <v>8</v>
@@ -29935,10 +29939,10 @@
         <v>1</v>
       </c>
       <c r="B110" s="1">
-        <v>269</v>
+        <v>110</v>
       </c>
       <c r="C110" s="1">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D110" s="1">
         <v>8</v>
@@ -29958,10 +29962,10 @@
         <v>1</v>
       </c>
       <c r="B111" s="1">
-        <v>270</v>
+        <v>111</v>
       </c>
       <c r="C111" s="1">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D111" s="1">
         <v>8</v>
@@ -29981,10 +29985,10 @@
         <v>1</v>
       </c>
       <c r="B112" s="1">
-        <v>271</v>
+        <v>112</v>
       </c>
       <c r="C112" s="1">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D112" s="1">
         <v>8</v>
@@ -30004,10 +30008,10 @@
         <v>1</v>
       </c>
       <c r="B113" s="1">
-        <v>272</v>
+        <v>113</v>
       </c>
       <c r="C113" s="1">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D113" s="1">
         <v>8</v>
@@ -30027,10 +30031,10 @@
         <v>1</v>
       </c>
       <c r="B114" s="1">
-        <v>273</v>
+        <v>114</v>
       </c>
       <c r="C114" s="1">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D114" s="1">
         <v>8</v>
@@ -30050,10 +30054,10 @@
         <v>1</v>
       </c>
       <c r="B115" s="1">
-        <v>274</v>
+        <v>115</v>
       </c>
       <c r="C115" s="1">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D115" s="1">
         <v>8</v>
@@ -30073,10 +30077,10 @@
         <v>1</v>
       </c>
       <c r="B116" s="1">
-        <v>275</v>
+        <v>116</v>
       </c>
       <c r="C116" s="1">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D116" s="1">
         <v>8</v>
@@ -30096,10 +30100,10 @@
         <v>1</v>
       </c>
       <c r="B117" s="1">
-        <v>276</v>
+        <v>117</v>
       </c>
       <c r="C117" s="1">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D117" s="1">
         <v>8</v>
@@ -30119,10 +30123,10 @@
         <v>1</v>
       </c>
       <c r="B118" s="1">
-        <v>277</v>
+        <v>118</v>
       </c>
       <c r="C118" s="1">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D118" s="1">
         <v>8</v>
@@ -30142,10 +30146,10 @@
         <v>1</v>
       </c>
       <c r="B119" s="1">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c r="C119" s="1">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D119" s="1">
         <v>8</v>
@@ -30165,10 +30169,10 @@
         <v>1</v>
       </c>
       <c r="B120" s="1">
-        <v>279</v>
+        <v>120</v>
       </c>
       <c r="C120" s="1">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D120" s="1">
         <v>8</v>
@@ -30188,10 +30192,10 @@
         <v>1</v>
       </c>
       <c r="B121" s="1">
-        <v>280</v>
+        <v>121</v>
       </c>
       <c r="C121" s="1">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="D121" s="1">
         <v>8</v>
@@ -30211,10 +30215,10 @@
         <v>1</v>
       </c>
       <c r="B122" s="1">
-        <v>281</v>
+        <v>122</v>
       </c>
       <c r="C122" s="1">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D122" s="1">
         <v>8</v>
@@ -30234,10 +30238,10 @@
         <v>1</v>
       </c>
       <c r="B123" s="1">
-        <v>282</v>
+        <v>123</v>
       </c>
       <c r="C123" s="1">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D123" s="1">
         <v>8</v>
@@ -30257,10 +30261,10 @@
         <v>1</v>
       </c>
       <c r="B124" s="1">
-        <v>283</v>
+        <v>124</v>
       </c>
       <c r="C124" s="1">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D124" s="1">
         <v>8</v>
@@ -30280,10 +30284,10 @@
         <v>1</v>
       </c>
       <c r="B125" s="1">
-        <v>284</v>
+        <v>125</v>
       </c>
       <c r="C125" s="1">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D125" s="1">
         <v>8</v>
@@ -30303,10 +30307,10 @@
         <v>1</v>
       </c>
       <c r="B126" s="1">
-        <v>285</v>
+        <v>126</v>
       </c>
       <c r="C126" s="1">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D126" s="1">
         <v>8</v>
@@ -30326,10 +30330,10 @@
         <v>1</v>
       </c>
       <c r="B127" s="1">
-        <v>286</v>
+        <v>127</v>
       </c>
       <c r="C127" s="1">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D127" s="1">
         <v>8</v>
@@ -30349,10 +30353,10 @@
         <v>1</v>
       </c>
       <c r="B128" s="1">
-        <v>287</v>
+        <v>128</v>
       </c>
       <c r="C128" s="1">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D128" s="1">
         <v>8</v>
@@ -30372,10 +30376,10 @@
         <v>1</v>
       </c>
       <c r="B129" s="1">
-        <v>288</v>
+        <v>129</v>
       </c>
       <c r="C129" s="1">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D129" s="1">
         <v>8</v>
@@ -30395,10 +30399,10 @@
         <v>1</v>
       </c>
       <c r="B130" s="1">
-        <v>289</v>
+        <v>130</v>
       </c>
       <c r="C130" s="1">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="D130" s="1">
         <v>8</v>
@@ -30418,10 +30422,10 @@
         <v>1</v>
       </c>
       <c r="B131" s="1">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c r="C131" s="1">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D131" s="1">
         <v>8</v>
@@ -30441,10 +30445,10 @@
         <v>1</v>
       </c>
       <c r="B132" s="1">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="C132" s="1">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D132" s="1">
         <v>8</v>
@@ -30464,10 +30468,10 @@
         <v>1</v>
       </c>
       <c r="B133" s="1">
-        <v>292</v>
+        <v>133</v>
       </c>
       <c r="C133" s="1">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="D133" s="1">
         <v>9</v>
@@ -30487,10 +30491,10 @@
         <v>1</v>
       </c>
       <c r="B134" s="1">
-        <v>293</v>
+        <v>134</v>
       </c>
       <c r="C134" s="1">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D134" s="1">
         <v>9</v>
@@ -30510,10 +30514,10 @@
         <v>1</v>
       </c>
       <c r="B135" s="1">
-        <v>294</v>
+        <v>135</v>
       </c>
       <c r="C135" s="1">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D135" s="1">
         <v>9</v>
@@ -30533,10 +30537,10 @@
         <v>1</v>
       </c>
       <c r="B136" s="1">
-        <v>295</v>
+        <v>136</v>
       </c>
       <c r="C136" s="1">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D136" s="1">
         <v>9</v>
@@ -30556,10 +30560,10 @@
         <v>1</v>
       </c>
       <c r="B137" s="1">
-        <v>296</v>
+        <v>137</v>
       </c>
       <c r="C137" s="1">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="D137" s="1">
         <v>9</v>
@@ -30579,10 +30583,10 @@
         <v>1</v>
       </c>
       <c r="B138" s="1">
-        <v>297</v>
+        <v>138</v>
       </c>
       <c r="C138" s="1">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D138" s="1">
         <v>9</v>
@@ -30602,10 +30606,10 @@
         <v>1</v>
       </c>
       <c r="B139" s="1">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="C139" s="1">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D139" s="1">
         <v>9</v>
@@ -30625,10 +30629,10 @@
         <v>1</v>
       </c>
       <c r="B140" s="1">
-        <v>299</v>
+        <v>140</v>
       </c>
       <c r="C140" s="1">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D140" s="1">
         <v>9</v>
@@ -30648,10 +30652,10 @@
         <v>1</v>
       </c>
       <c r="B141" s="1">
-        <v>300</v>
+        <v>141</v>
       </c>
       <c r="C141" s="1">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D141" s="1">
         <v>9</v>
@@ -30671,10 +30675,10 @@
         <v>1</v>
       </c>
       <c r="B142" s="1">
-        <v>301</v>
+        <v>142</v>
       </c>
       <c r="C142" s="1">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D142" s="1">
         <v>9</v>
@@ -30694,10 +30698,10 @@
         <v>1</v>
       </c>
       <c r="B143" s="1">
-        <v>302</v>
+        <v>143</v>
       </c>
       <c r="C143" s="1">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D143" s="1">
         <v>9</v>
@@ -30717,10 +30721,10 @@
         <v>1</v>
       </c>
       <c r="B144" s="1">
-        <v>303</v>
+        <v>144</v>
       </c>
       <c r="C144" s="1">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="D144" s="1">
         <v>9</v>
@@ -30740,10 +30744,10 @@
         <v>1</v>
       </c>
       <c r="B145" s="1">
-        <v>304</v>
+        <v>145</v>
       </c>
       <c r="C145" s="1">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D145" s="1">
         <v>9</v>
@@ -30763,10 +30767,10 @@
         <v>1</v>
       </c>
       <c r="B146" s="1">
-        <v>305</v>
+        <v>146</v>
       </c>
       <c r="C146" s="1">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D146" s="1">
         <v>9</v>
@@ -30786,10 +30790,10 @@
         <v>1</v>
       </c>
       <c r="B147" s="1">
-        <v>306</v>
+        <v>147</v>
       </c>
       <c r="C147" s="1">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D147" s="1">
         <v>9</v>
@@ -30809,10 +30813,10 @@
         <v>1</v>
       </c>
       <c r="B148" s="1">
-        <v>307</v>
+        <v>148</v>
       </c>
       <c r="C148" s="1">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="D148" s="1">
         <v>10</v>
@@ -30832,10 +30836,10 @@
         <v>1</v>
       </c>
       <c r="B149" s="1">
-        <v>308</v>
+        <v>149</v>
       </c>
       <c r="C149" s="1">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D149" s="1">
         <v>10</v>
@@ -30855,10 +30859,10 @@
         <v>1</v>
       </c>
       <c r="B150" s="1">
-        <v>309</v>
+        <v>150</v>
       </c>
       <c r="C150" s="1">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D150" s="1">
         <v>10</v>
@@ -30878,10 +30882,10 @@
         <v>1</v>
       </c>
       <c r="B151" s="1">
-        <v>310</v>
+        <v>151</v>
       </c>
       <c r="C151" s="1">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D151" s="1">
         <v>10</v>
@@ -30901,10 +30905,10 @@
         <v>1</v>
       </c>
       <c r="B152" s="1">
-        <v>311</v>
+        <v>152</v>
       </c>
       <c r="C152" s="1">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D152" s="1">
         <v>10</v>
@@ -30924,10 +30928,10 @@
         <v>1</v>
       </c>
       <c r="B153" s="1">
-        <v>312</v>
+        <v>153</v>
       </c>
       <c r="C153" s="1">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="D153" s="1">
         <v>10</v>
@@ -30947,10 +30951,10 @@
         <v>1</v>
       </c>
       <c r="B154" s="1">
-        <v>313</v>
+        <v>154</v>
       </c>
       <c r="C154" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D154" s="1">
         <v>10</v>
@@ -30970,10 +30974,10 @@
         <v>1</v>
       </c>
       <c r="B155" s="1">
-        <v>314</v>
+        <v>155</v>
       </c>
       <c r="C155" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D155" s="1">
         <v>10</v>
@@ -30993,10 +30997,10 @@
         <v>1</v>
       </c>
       <c r="B156" s="1">
-        <v>315</v>
+        <v>156</v>
       </c>
       <c r="C156" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D156" s="1">
         <v>10</v>
@@ -31016,10 +31020,10 @@
         <v>1</v>
       </c>
       <c r="B157" s="1">
-        <v>316</v>
+        <v>157</v>
       </c>
       <c r="C157" s="1">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="D157" s="1">
         <v>10</v>
@@ -31039,7 +31043,7 @@
         <v>1</v>
       </c>
       <c r="B158" s="1">
-        <v>317</v>
+        <v>158</v>
       </c>
       <c r="C158" s="1">
         <v>158</v>
@@ -31062,7 +31066,7 @@
         <v>1</v>
       </c>
       <c r="B159" s="1">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="C159" s="1">
         <v>159</v>
@@ -34693,16 +34697,16 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B317" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C317" s="1">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="D317" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>207</v>
@@ -34716,16 +34720,16 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B318" s="1">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C318" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D318" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>207</v>
@@ -34742,10 +34746,10 @@
         <v>90</v>
       </c>
       <c r="B319" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C319" s="1">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="D319" s="1">
         <v>9</v>
@@ -34765,7 +34769,7 @@
         <v>90</v>
       </c>
       <c r="B320" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C320" s="1">
         <v>139</v>
@@ -34788,10 +34792,10 @@
         <v>90</v>
       </c>
       <c r="B321" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C321" s="1">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="D321" s="1">
         <v>9</v>
@@ -34811,10 +34815,10 @@
         <v>90</v>
       </c>
       <c r="B322" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C322" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D322" s="1">
         <v>9</v>
@@ -34834,10 +34838,10 @@
         <v>90</v>
       </c>
       <c r="B323" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C323" s="1">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="D323" s="1">
         <v>9</v>
@@ -34857,7 +34861,7 @@
         <v>90</v>
       </c>
       <c r="B324" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C324" s="1">
         <v>142</v>
@@ -34880,7 +34884,7 @@
         <v>90</v>
       </c>
       <c r="B325" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C325" s="1">
         <v>143</v>
@@ -34903,7 +34907,7 @@
         <v>90</v>
       </c>
       <c r="B326" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C326" s="1">
         <v>144</v>
@@ -34926,7 +34930,7 @@
         <v>90</v>
       </c>
       <c r="B327" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C327" s="1">
         <v>145</v>
@@ -34949,10 +34953,10 @@
         <v>90</v>
       </c>
       <c r="B328" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C328" s="1">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="D328" s="1">
         <v>9</v>
@@ -34972,10 +34976,10 @@
         <v>90</v>
       </c>
       <c r="B329" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C329" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D329" s="1">
         <v>9</v>
@@ -34995,10 +34999,10 @@
         <v>90</v>
       </c>
       <c r="B330" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C330" s="1">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="D330" s="1">
         <v>9</v>
@@ -35018,7 +35022,7 @@
         <v>90</v>
       </c>
       <c r="B331" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C331" s="1">
         <v>148</v>
@@ -35038,16 +35042,16 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B332" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C332" s="1">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="D332" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>207</v>
@@ -35061,16 +35065,16 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B333" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C333" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D333" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>207</v>
@@ -35087,10 +35091,10 @@
         <v>100</v>
       </c>
       <c r="B334" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C334" s="1">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="D334" s="1">
         <v>10</v>
@@ -35110,7 +35114,7 @@
         <v>100</v>
       </c>
       <c r="B335" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C335" s="1">
         <v>151</v>
@@ -35133,10 +35137,10 @@
         <v>100</v>
       </c>
       <c r="B336" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C336" s="1">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="D336" s="1">
         <v>10</v>
@@ -35156,10 +35160,10 @@
         <v>100</v>
       </c>
       <c r="B337" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C337" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D337" s="1">
         <v>10</v>
@@ -35179,10 +35183,10 @@
         <v>100</v>
       </c>
       <c r="B338" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C338" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D338" s="1">
         <v>10</v>
@@ -35202,10 +35206,10 @@
         <v>100</v>
       </c>
       <c r="B339" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C339" s="1">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="D339" s="1">
         <v>10</v>
@@ -35225,10 +35229,10 @@
         <v>100</v>
       </c>
       <c r="B340" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C340" s="1">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="D340" s="1">
         <v>10</v>
@@ -35248,10 +35252,10 @@
         <v>100</v>
       </c>
       <c r="B341" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C341" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D341" s="1">
         <v>10</v>
@@ -35271,10 +35275,10 @@
         <v>100</v>
       </c>
       <c r="B342" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C342" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D342" s="1">
         <v>10</v>
@@ -35290,96 +35294,54 @@
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" s="1">
-        <v>100</v>
-      </c>
-      <c r="B343" s="1">
-        <v>10</v>
-      </c>
-      <c r="C343" s="1">
-        <v>30</v>
-      </c>
-      <c r="D343" s="1">
-        <v>10</v>
+      <c r="A343" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="1">
-        <v>100</v>
-      </c>
-      <c r="B344" s="1">
-        <v>11</v>
-      </c>
-      <c r="C344" s="1">
-        <v>158</v>
-      </c>
-      <c r="D344" s="1">
-        <v>10</v>
-      </c>
-      <c r="E344" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F344" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G344" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" s="1">
-        <v>100</v>
-      </c>
-      <c r="B345" s="1">
-        <v>12</v>
-      </c>
-      <c r="C345" s="1">
-        <v>159</v>
-      </c>
-      <c r="D345" s="1">
-        <v>10</v>
-      </c>
-      <c r="E345" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F345" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G345" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E346" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F346" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G346" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
